--- a/Code/R/litresults.xlsx
+++ b/Code/R/litresults.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3779" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3907" uniqueCount="127">
   <si>
     <t>Input SNR</t>
   </si>
@@ -371,6 +371,36 @@
   <si>
     <t>HMM</t>
   </si>
+  <si>
+    <t>Further Analysis of the β -Order MMSE STSA Estimator for Speech Enhancement</t>
+  </si>
+  <si>
+    <t>Plourde2007</t>
+  </si>
+  <si>
+    <t>E. Plourde, B. Champagne</t>
+  </si>
+  <si>
+    <t>MMSE-STSA</t>
+  </si>
+  <si>
+    <t>MOSimp</t>
+  </si>
+  <si>
+    <t>MOSraw</t>
+  </si>
+  <si>
+    <t>bucaneer</t>
+  </si>
+  <si>
+    <t>MMSE-logSTSA</t>
+  </si>
+  <si>
+    <t>beta-MMSA-STSA</t>
+  </si>
+  <si>
+    <t>STSA</t>
+  </si>
 </sst>
 </file>
 
@@ -433,8 +463,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="487">
+  <cellStyleXfs count="515">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -929,7 +987,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="487">
+  <cellStyles count="515">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1173,6 +1231,20 @@
     <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1416,6 +1488,20 @@
     <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1745,16 +1831,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y488"/>
+  <dimension ref="A1:AA506"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:X1048576"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="26.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" style="1" customWidth="1"/>
     <col min="3" max="3" width="2.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.83203125" style="1" customWidth="1"/>
@@ -1770,7 +1856,7 @@
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1829,25 +1915,31 @@
         <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:27">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -1891,7 +1983,7 @@
         <v>0.28617646353454601</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:27">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1935,7 +2027,7 @@
         <v>0.40040050842986302</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:27">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -1979,7 +2071,7 @@
         <v>0.45527975633738599</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:27">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -2023,7 +2115,7 @@
         <v>0.48007770343190098</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:27">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
@@ -2067,7 +2159,7 @@
         <v>0.185365853658536</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:27">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2111,7 +2203,7 @@
         <v>0.32154111806604802</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:27">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -2155,7 +2247,7 @@
         <v>0.38617166702640499</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:27">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -2199,7 +2291,7 @@
         <v>0.41584766290140701</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:27">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2243,7 +2335,7 @@
         <v>0.276420365973571</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:27">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2287,7 +2379,7 @@
         <v>0.39064441086888702</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:27">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
@@ -2331,7 +2423,7 @@
         <v>0.45527975633738599</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:27">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
@@ -2375,7 +2467,7 @@
         <v>0.48495575221238901</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:27">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
@@ -2419,7 +2511,7 @@
         <v>0.20081300813008099</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:27">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
@@ -2463,7 +2555,7 @@
         <v>0.245931361968486</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:27">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
@@ -5113,7 +5205,7 @@
         <v>0.28072916666666597</v>
       </c>
     </row>
-    <row r="81" spans="1:23">
+    <row r="81" spans="1:25">
       <c r="A81" s="1" t="s">
         <v>26</v>
       </c>
@@ -5151,7 +5243,7 @@
         <v>0.28437499999999899</v>
       </c>
     </row>
-    <row r="82" spans="1:23">
+    <row r="82" spans="1:25">
       <c r="A82" s="1" t="s">
         <v>26</v>
       </c>
@@ -5189,7 +5281,7 @@
         <v>0.55416666666666603</v>
       </c>
     </row>
-    <row r="83" spans="1:23">
+    <row r="83" spans="1:25">
       <c r="A83" s="1" t="s">
         <v>26</v>
       </c>
@@ -5227,7 +5319,7 @@
         <v>0.437499999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:23">
+    <row r="84" spans="1:25">
       <c r="A84" s="1" t="s">
         <v>26</v>
       </c>
@@ -5265,7 +5357,7 @@
         <v>0.30381944444444398</v>
       </c>
     </row>
-    <row r="85" spans="1:23">
+    <row r="85" spans="1:25">
       <c r="A85" s="1" t="s">
         <v>26</v>
       </c>
@@ -5303,7 +5395,7 @@
         <v>0.235763888888888</v>
       </c>
     </row>
-    <row r="86" spans="1:23">
+    <row r="86" spans="1:25">
       <c r="A86" s="1" t="s">
         <v>46</v>
       </c>
@@ -5328,15 +5420,15 @@
       <c r="M86" s="1">
         <v>6</v>
       </c>
-      <c r="V86" s="1">
+      <c r="X86" s="1">
         <v>0.9</v>
       </c>
-      <c r="W86" s="2">
-        <f>1-V86</f>
+      <c r="Y86" s="2">
+        <f>1-X86</f>
         <v>9.9999999999999978E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:23">
+    <row r="87" spans="1:25">
       <c r="A87" s="1" t="s">
         <v>46</v>
       </c>
@@ -5361,15 +5453,15 @@
       <c r="M87" s="1">
         <v>3</v>
       </c>
-      <c r="V87" s="1">
+      <c r="X87" s="1">
         <v>0.72</v>
       </c>
-      <c r="W87" s="2">
-        <f t="shared" ref="W87:W121" si="0">1-V87</f>
+      <c r="Y87" s="2">
+        <f t="shared" ref="Y87:Y121" si="0">1-X87</f>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:23">
+    <row r="88" spans="1:25">
       <c r="A88" s="1" t="s">
         <v>46</v>
       </c>
@@ -5394,15 +5486,15 @@
       <c r="M88" s="1">
         <v>0</v>
       </c>
-      <c r="V88" s="1">
+      <c r="X88" s="1">
         <v>0.54</v>
       </c>
-      <c r="W88" s="2">
+      <c r="Y88" s="2">
         <f t="shared" si="0"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="89" spans="1:23">
+    <row r="89" spans="1:25">
       <c r="A89" s="1" t="s">
         <v>46</v>
       </c>
@@ -5427,15 +5519,15 @@
       <c r="M89" s="1">
         <v>-3</v>
       </c>
-      <c r="V89" s="1">
+      <c r="X89" s="1">
         <v>0.52</v>
       </c>
-      <c r="W89" s="2">
+      <c r="Y89" s="2">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="90" spans="1:23">
+    <row r="90" spans="1:25">
       <c r="A90" s="1" t="s">
         <v>46</v>
       </c>
@@ -5460,15 +5552,15 @@
       <c r="M90" s="1">
         <v>-6</v>
       </c>
-      <c r="V90" s="1">
+      <c r="X90" s="1">
         <v>0.6</v>
       </c>
-      <c r="W90" s="2">
+      <c r="Y90" s="2">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="91" spans="1:23">
+    <row r="91" spans="1:25">
       <c r="A91" s="1" t="s">
         <v>46</v>
       </c>
@@ -5493,15 +5585,15 @@
       <c r="M91" s="1">
         <v>-9</v>
       </c>
-      <c r="V91" s="1">
+      <c r="X91" s="1">
         <v>0.68</v>
       </c>
-      <c r="W91" s="2">
+      <c r="Y91" s="2">
         <f t="shared" si="0"/>
         <v>0.31999999999999995</v>
       </c>
     </row>
-    <row r="92" spans="1:23">
+    <row r="92" spans="1:25">
       <c r="A92" s="1" t="s">
         <v>46</v>
       </c>
@@ -5526,15 +5618,15 @@
       <c r="M92" s="1">
         <v>6</v>
       </c>
-      <c r="V92" s="1">
+      <c r="X92" s="1">
         <v>0.93</v>
       </c>
-      <c r="W92" s="2">
+      <c r="Y92" s="2">
         <f t="shared" si="0"/>
         <v>6.9999999999999951E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:23">
+    <row r="93" spans="1:25">
       <c r="A93" s="1" t="s">
         <v>46</v>
       </c>
@@ -5559,15 +5651,15 @@
       <c r="M93" s="1">
         <v>3</v>
       </c>
-      <c r="V93" s="1">
+      <c r="X93" s="1">
         <v>0.85</v>
       </c>
-      <c r="W93" s="2">
+      <c r="Y93" s="2">
         <f t="shared" si="0"/>
         <v>0.15000000000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:23">
+    <row r="94" spans="1:25">
       <c r="A94" s="1" t="s">
         <v>46</v>
       </c>
@@ -5592,15 +5684,15 @@
       <c r="M94" s="1">
         <v>0</v>
       </c>
-      <c r="V94" s="1">
+      <c r="X94" s="1">
         <v>0.76</v>
       </c>
-      <c r="W94" s="2">
+      <c r="Y94" s="2">
         <f t="shared" si="0"/>
         <v>0.24</v>
       </c>
     </row>
-    <row r="95" spans="1:23">
+    <row r="95" spans="1:25">
       <c r="A95" s="1" t="s">
         <v>46</v>
       </c>
@@ -5625,15 +5717,15 @@
       <c r="M95" s="1">
         <v>-3</v>
       </c>
-      <c r="V95" s="1">
+      <c r="X95" s="1">
         <v>0.72</v>
       </c>
-      <c r="W95" s="2">
+      <c r="Y95" s="2">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:23">
+    <row r="96" spans="1:25">
       <c r="A96" s="1" t="s">
         <v>46</v>
       </c>
@@ -5658,15 +5750,15 @@
       <c r="M96" s="1">
         <v>-6</v>
       </c>
-      <c r="V96" s="1">
+      <c r="X96" s="1">
         <v>0.77</v>
       </c>
-      <c r="W96" s="2">
+      <c r="Y96" s="2">
         <f t="shared" si="0"/>
         <v>0.22999999999999998</v>
       </c>
     </row>
-    <row r="97" spans="1:23">
+    <row r="97" spans="1:25">
       <c r="A97" s="1" t="s">
         <v>46</v>
       </c>
@@ -5691,15 +5783,15 @@
       <c r="M97" s="1">
         <v>-9</v>
       </c>
-      <c r="V97" s="1">
+      <c r="X97" s="1">
         <v>0.8</v>
       </c>
-      <c r="W97" s="2">
+      <c r="Y97" s="2">
         <f t="shared" si="0"/>
         <v>0.19999999999999996</v>
       </c>
     </row>
-    <row r="98" spans="1:23">
+    <row r="98" spans="1:25">
       <c r="A98" s="1" t="s">
         <v>46</v>
       </c>
@@ -5724,15 +5816,15 @@
       <c r="M98" s="1">
         <v>6</v>
       </c>
-      <c r="V98" s="1">
+      <c r="X98" s="1">
         <v>0.94</v>
       </c>
-      <c r="W98" s="2">
+      <c r="Y98" s="2">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:23">
+    <row r="99" spans="1:25">
       <c r="A99" s="1" t="s">
         <v>46</v>
       </c>
@@ -5757,15 +5849,15 @@
       <c r="M99" s="1">
         <v>3</v>
       </c>
-      <c r="V99" s="1">
+      <c r="X99" s="1">
         <v>0.91</v>
       </c>
-      <c r="W99" s="2">
+      <c r="Y99" s="2">
         <f t="shared" si="0"/>
         <v>8.9999999999999969E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:23">
+    <row r="100" spans="1:25">
       <c r="A100" s="1" t="s">
         <v>46</v>
       </c>
@@ -5790,15 +5882,15 @@
       <c r="M100" s="1">
         <v>0</v>
       </c>
-      <c r="V100" s="1">
+      <c r="X100" s="1">
         <v>0.86</v>
       </c>
-      <c r="W100" s="2">
+      <c r="Y100" s="2">
         <f t="shared" si="0"/>
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:23">
+    <row r="101" spans="1:25">
       <c r="A101" s="1" t="s">
         <v>46</v>
       </c>
@@ -5823,15 +5915,15 @@
       <c r="M101" s="1">
         <v>-3</v>
       </c>
-      <c r="V101" s="1">
+      <c r="X101" s="1">
         <v>0.88</v>
       </c>
-      <c r="W101" s="2">
+      <c r="Y101" s="2">
         <f t="shared" si="0"/>
         <v>0.12</v>
       </c>
     </row>
-    <row r="102" spans="1:23">
+    <row r="102" spans="1:25">
       <c r="A102" s="1" t="s">
         <v>46</v>
       </c>
@@ -5856,15 +5948,15 @@
       <c r="M102" s="1">
         <v>-6</v>
       </c>
-      <c r="V102" s="1">
+      <c r="X102" s="1">
         <v>0.87</v>
       </c>
-      <c r="W102" s="2">
+      <c r="Y102" s="2">
         <f t="shared" si="0"/>
         <v>0.13</v>
       </c>
     </row>
-    <row r="103" spans="1:23">
+    <row r="103" spans="1:25">
       <c r="A103" s="1" t="s">
         <v>46</v>
       </c>
@@ -5889,15 +5981,15 @@
       <c r="M103" s="1">
         <v>-9</v>
       </c>
-      <c r="V103" s="1">
+      <c r="X103" s="1">
         <v>0.83</v>
       </c>
-      <c r="W103" s="2">
+      <c r="Y103" s="2">
         <f t="shared" si="0"/>
         <v>0.17000000000000004</v>
       </c>
     </row>
-    <row r="104" spans="1:23">
+    <row r="104" spans="1:25">
       <c r="A104" s="1" t="s">
         <v>46</v>
       </c>
@@ -5925,15 +6017,15 @@
       <c r="M104" s="1">
         <v>6</v>
       </c>
-      <c r="V104" s="1">
+      <c r="X104" s="1">
         <v>0.56000000000000005</v>
       </c>
-      <c r="W104" s="2">
+      <c r="Y104" s="2">
         <f t="shared" si="0"/>
         <v>0.43999999999999995</v>
       </c>
     </row>
-    <row r="105" spans="1:23">
+    <row r="105" spans="1:25">
       <c r="A105" s="1" t="s">
         <v>46</v>
       </c>
@@ -5961,15 +6053,15 @@
       <c r="M105" s="1">
         <v>3</v>
       </c>
-      <c r="V105" s="1">
+      <c r="X105" s="1">
         <v>0.53</v>
       </c>
-      <c r="W105" s="2">
+      <c r="Y105" s="2">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
     </row>
-    <row r="106" spans="1:23">
+    <row r="106" spans="1:25">
       <c r="A106" s="1" t="s">
         <v>46</v>
       </c>
@@ -5997,15 +6089,15 @@
       <c r="M106" s="1">
         <v>0</v>
       </c>
-      <c r="V106" s="1">
+      <c r="X106" s="1">
         <v>0.45</v>
       </c>
-      <c r="W106" s="2">
+      <c r="Y106" s="2">
         <f t="shared" si="0"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="107" spans="1:23">
+    <row r="107" spans="1:25">
       <c r="A107" s="1" t="s">
         <v>46</v>
       </c>
@@ -6033,15 +6125,15 @@
       <c r="M107" s="1">
         <v>-3</v>
       </c>
-      <c r="V107" s="1">
+      <c r="X107" s="1">
         <v>0.38</v>
       </c>
-      <c r="W107" s="2">
+      <c r="Y107" s="2">
         <f t="shared" si="0"/>
         <v>0.62</v>
       </c>
     </row>
-    <row r="108" spans="1:23">
+    <row r="108" spans="1:25">
       <c r="A108" s="1" t="s">
         <v>46</v>
       </c>
@@ -6069,15 +6161,15 @@
       <c r="M108" s="1">
         <v>-6</v>
       </c>
-      <c r="V108" s="1">
+      <c r="X108" s="1">
         <v>0.31</v>
       </c>
-      <c r="W108" s="2">
+      <c r="Y108" s="2">
         <f t="shared" si="0"/>
         <v>0.69</v>
       </c>
     </row>
-    <row r="109" spans="1:23">
+    <row r="109" spans="1:25">
       <c r="A109" s="1" t="s">
         <v>46</v>
       </c>
@@ -6105,15 +6197,15 @@
       <c r="M109" s="1">
         <v>-9</v>
       </c>
-      <c r="V109" s="1">
+      <c r="X109" s="1">
         <v>0.28000000000000003</v>
       </c>
-      <c r="W109" s="2">
+      <c r="Y109" s="2">
         <f t="shared" si="0"/>
         <v>0.72</v>
       </c>
     </row>
-    <row r="110" spans="1:23">
+    <row r="110" spans="1:25">
       <c r="A110" s="1" t="s">
         <v>46</v>
       </c>
@@ -6141,15 +6233,15 @@
       <c r="M110" s="1">
         <v>6</v>
       </c>
-      <c r="V110" s="1">
+      <c r="X110" s="1">
         <v>0.6</v>
       </c>
-      <c r="W110" s="2">
+      <c r="Y110" s="2">
         <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
     </row>
-    <row r="111" spans="1:23">
+    <row r="111" spans="1:25">
       <c r="A111" s="1" t="s">
         <v>46</v>
       </c>
@@ -6177,15 +6269,15 @@
       <c r="M111" s="1">
         <v>3</v>
       </c>
-      <c r="V111" s="1">
+      <c r="X111" s="1">
         <v>0.56999999999999995</v>
       </c>
-      <c r="W111" s="2">
+      <c r="Y111" s="2">
         <f t="shared" si="0"/>
         <v>0.43000000000000005</v>
       </c>
     </row>
-    <row r="112" spans="1:23">
+    <row r="112" spans="1:25">
       <c r="A112" s="1" t="s">
         <v>46</v>
       </c>
@@ -6213,15 +6305,15 @@
       <c r="M112" s="1">
         <v>0</v>
       </c>
-      <c r="V112" s="1">
+      <c r="X112" s="1">
         <v>0.52</v>
       </c>
-      <c r="W112" s="2">
+      <c r="Y112" s="2">
         <f t="shared" si="0"/>
         <v>0.48</v>
       </c>
     </row>
-    <row r="113" spans="1:23">
+    <row r="113" spans="1:25">
       <c r="A113" s="1" t="s">
         <v>46</v>
       </c>
@@ -6249,15 +6341,15 @@
       <c r="M113" s="1">
         <v>-3</v>
       </c>
-      <c r="V113" s="1">
+      <c r="X113" s="1">
         <v>0.44</v>
       </c>
-      <c r="W113" s="2">
+      <c r="Y113" s="2">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="114" spans="1:23">
+    <row r="114" spans="1:25">
       <c r="A114" s="1" t="s">
         <v>46</v>
       </c>
@@ -6285,15 +6377,15 @@
       <c r="M114" s="1">
         <v>-6</v>
       </c>
-      <c r="V114" s="1">
+      <c r="X114" s="1">
         <v>0.37</v>
       </c>
-      <c r="W114" s="2">
+      <c r="Y114" s="2">
         <f t="shared" si="0"/>
         <v>0.63</v>
       </c>
     </row>
-    <row r="115" spans="1:23">
+    <row r="115" spans="1:25">
       <c r="A115" s="1" t="s">
         <v>46</v>
       </c>
@@ -6321,15 +6413,15 @@
       <c r="M115" s="1">
         <v>-9</v>
       </c>
-      <c r="V115" s="1">
+      <c r="X115" s="1">
         <v>0.32</v>
       </c>
-      <c r="W115" s="2">
+      <c r="Y115" s="2">
         <f t="shared" si="0"/>
         <v>0.67999999999999994</v>
       </c>
     </row>
-    <row r="116" spans="1:23">
+    <row r="116" spans="1:25">
       <c r="A116" s="1" t="s">
         <v>46</v>
       </c>
@@ -6357,15 +6449,15 @@
       <c r="M116" s="1">
         <v>6</v>
       </c>
-      <c r="V116" s="1">
+      <c r="X116" s="1">
         <v>0.73</v>
       </c>
-      <c r="W116" s="2">
+      <c r="Y116" s="2">
         <f t="shared" si="0"/>
         <v>0.27</v>
       </c>
     </row>
-    <row r="117" spans="1:23">
+    <row r="117" spans="1:25">
       <c r="A117" s="1" t="s">
         <v>46</v>
       </c>
@@ -6393,15 +6485,15 @@
       <c r="M117" s="1">
         <v>3</v>
       </c>
-      <c r="V117" s="1">
+      <c r="X117" s="1">
         <v>0.72</v>
       </c>
-      <c r="W117" s="2">
+      <c r="Y117" s="2">
         <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="118" spans="1:23">
+    <row r="118" spans="1:25">
       <c r="A118" s="1" t="s">
         <v>46</v>
       </c>
@@ -6429,15 +6521,15 @@
       <c r="M118" s="1">
         <v>0</v>
       </c>
-      <c r="V118" s="1">
+      <c r="X118" s="1">
         <v>0.71</v>
       </c>
-      <c r="W118" s="2">
+      <c r="Y118" s="2">
         <f t="shared" si="0"/>
         <v>0.29000000000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:23">
+    <row r="119" spans="1:25">
       <c r="A119" s="1" t="s">
         <v>46</v>
       </c>
@@ -6465,15 +6557,15 @@
       <c r="M119" s="1">
         <v>-3</v>
       </c>
-      <c r="V119" s="1">
+      <c r="X119" s="1">
         <v>0.63</v>
       </c>
-      <c r="W119" s="2">
+      <c r="Y119" s="2">
         <f t="shared" si="0"/>
         <v>0.37</v>
       </c>
     </row>
-    <row r="120" spans="1:23">
+    <row r="120" spans="1:25">
       <c r="A120" s="1" t="s">
         <v>46</v>
       </c>
@@ -6501,15 +6593,15 @@
       <c r="M120" s="1">
         <v>-6</v>
       </c>
-      <c r="V120" s="1">
+      <c r="X120" s="1">
         <v>0.54</v>
       </c>
-      <c r="W120" s="2">
+      <c r="Y120" s="2">
         <f t="shared" si="0"/>
         <v>0.45999999999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:23">
+    <row r="121" spans="1:25">
       <c r="A121" s="1" t="s">
         <v>46</v>
       </c>
@@ -6537,15 +6629,15 @@
       <c r="M121" s="1">
         <v>-9</v>
       </c>
-      <c r="V121" s="1">
+      <c r="X121" s="1">
         <v>0.41</v>
       </c>
-      <c r="W121" s="2">
+      <c r="Y121" s="2">
         <f t="shared" si="0"/>
         <v>0.59000000000000008</v>
       </c>
     </row>
-    <row r="122" spans="1:23">
+    <row r="122" spans="1:25">
       <c r="A122" s="1" t="s">
         <v>55</v>
       </c>
@@ -6576,15 +6668,15 @@
       <c r="M122" s="1">
         <v>-10</v>
       </c>
-      <c r="V122" s="2">
-        <f>IF(W122&gt;1,0,1-W122)</f>
+      <c r="X122" s="2">
+        <f>IF(Y122&gt;1,0,1-Y122)</f>
         <v>0</v>
       </c>
-      <c r="W122" s="1">
+      <c r="Y122" s="1">
         <v>1.1259999999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:23">
+    <row r="123" spans="1:25">
       <c r="A123" s="1" t="s">
         <v>55</v>
       </c>
@@ -6615,15 +6707,15 @@
       <c r="M123" s="1">
         <v>-5</v>
       </c>
-      <c r="V123" s="2">
-        <f t="shared" ref="V123:V186" si="1">IF(W123&gt;1,0,1-W123)</f>
+      <c r="X123" s="2">
+        <f t="shared" ref="X123:X186" si="1">IF(Y123&gt;1,0,1-Y123)</f>
         <v>0</v>
       </c>
-      <c r="W123" s="1">
+      <c r="Y123" s="1">
         <v>1.0980000000000001</v>
       </c>
     </row>
-    <row r="124" spans="1:23">
+    <row r="124" spans="1:25">
       <c r="A124" s="1" t="s">
         <v>55</v>
       </c>
@@ -6654,15 +6746,15 @@
       <c r="M124" s="1">
         <v>0</v>
       </c>
-      <c r="V124" s="2">
+      <c r="X124" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W124" s="1">
+      <c r="Y124" s="1">
         <v>1.024</v>
       </c>
     </row>
-    <row r="125" spans="1:23">
+    <row r="125" spans="1:25">
       <c r="A125" s="1" t="s">
         <v>55</v>
       </c>
@@ -6693,15 +6785,15 @@
       <c r="M125" s="1">
         <v>5</v>
       </c>
-      <c r="V125" s="2">
+      <c r="X125" s="2">
         <f t="shared" si="1"/>
         <v>0.13700000000000001</v>
       </c>
-      <c r="W125" s="1">
+      <c r="Y125" s="1">
         <v>0.86299999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:23">
+    <row r="126" spans="1:25">
       <c r="A126" s="1" t="s">
         <v>55</v>
       </c>
@@ -6732,15 +6824,15 @@
       <c r="M126" s="1">
         <v>10</v>
       </c>
-      <c r="V126" s="2">
+      <c r="X126" s="2">
         <f t="shared" si="1"/>
         <v>0.32499999999999996</v>
       </c>
-      <c r="W126" s="1">
+      <c r="Y126" s="1">
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="127" spans="1:23">
+    <row r="127" spans="1:25">
       <c r="A127" s="1" t="s">
         <v>55</v>
       </c>
@@ -6771,15 +6863,15 @@
       <c r="M127" s="1">
         <v>-10</v>
       </c>
-      <c r="V127" s="2">
+      <c r="X127" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W127" s="1">
+      <c r="Y127" s="1">
         <v>1.1890000000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:23">
+    <row r="128" spans="1:25">
       <c r="A128" s="1" t="s">
         <v>55</v>
       </c>
@@ -6810,15 +6902,15 @@
       <c r="M128" s="1">
         <v>-5</v>
       </c>
-      <c r="V128" s="2">
+      <c r="X128" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W128" s="1">
+      <c r="Y128" s="1">
         <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:23">
+    <row r="129" spans="1:25">
       <c r="A129" s="1" t="s">
         <v>55</v>
       </c>
@@ -6849,15 +6941,15 @@
       <c r="M129" s="1">
         <v>0</v>
       </c>
-      <c r="V129" s="2">
+      <c r="X129" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W129" s="1">
+      <c r="Y129" s="1">
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:23">
+    <row r="130" spans="1:25">
       <c r="A130" s="1" t="s">
         <v>55</v>
       </c>
@@ -6888,15 +6980,15 @@
       <c r="M130" s="1">
         <v>5</v>
       </c>
-      <c r="V130" s="2">
+      <c r="X130" s="2">
         <f t="shared" si="1"/>
         <v>9.1999999999999971E-2</v>
       </c>
-      <c r="W130" s="1">
+      <c r="Y130" s="1">
         <v>0.90800000000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:23">
+    <row r="131" spans="1:25">
       <c r="A131" s="1" t="s">
         <v>55</v>
       </c>
@@ -6927,15 +7019,15 @@
       <c r="M131" s="1">
         <v>10</v>
       </c>
-      <c r="V131" s="2">
+      <c r="X131" s="2">
         <f t="shared" si="1"/>
         <v>0.30699999999999994</v>
       </c>
-      <c r="W131" s="1">
+      <c r="Y131" s="1">
         <v>0.69300000000000006</v>
       </c>
     </row>
-    <row r="132" spans="1:23">
+    <row r="132" spans="1:25">
       <c r="A132" s="1" t="s">
         <v>55</v>
       </c>
@@ -6966,15 +7058,15 @@
       <c r="M132" s="1">
         <v>-10</v>
       </c>
-      <c r="V132" s="2">
+      <c r="X132" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W132" s="1">
+      <c r="Y132" s="1">
         <v>1.1950000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:23">
+    <row r="133" spans="1:25">
       <c r="A133" s="1" t="s">
         <v>55</v>
       </c>
@@ -7005,15 +7097,15 @@
       <c r="M133" s="1">
         <v>-5</v>
       </c>
-      <c r="V133" s="2">
+      <c r="X133" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W133" s="1">
+      <c r="Y133" s="1">
         <v>1.117</v>
       </c>
     </row>
-    <row r="134" spans="1:23">
+    <row r="134" spans="1:25">
       <c r="A134" s="1" t="s">
         <v>55</v>
       </c>
@@ -7044,15 +7136,15 @@
       <c r="M134" s="1">
         <v>0</v>
       </c>
-      <c r="V134" s="2">
+      <c r="X134" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W134" s="1">
+      <c r="Y134" s="1">
         <v>1.0649999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:23">
+    <row r="135" spans="1:25">
       <c r="A135" s="1" t="s">
         <v>55</v>
       </c>
@@ -7083,15 +7175,15 @@
       <c r="M135" s="1">
         <v>5</v>
       </c>
-      <c r="V135" s="2">
+      <c r="X135" s="2">
         <f t="shared" si="1"/>
         <v>0.15000000000000002</v>
       </c>
-      <c r="W135" s="1">
+      <c r="Y135" s="1">
         <v>0.85</v>
       </c>
     </row>
-    <row r="136" spans="1:23">
+    <row r="136" spans="1:25">
       <c r="A136" s="1" t="s">
         <v>55</v>
       </c>
@@ -7122,15 +7214,15 @@
       <c r="M136" s="1">
         <v>10</v>
       </c>
-      <c r="V136" s="2">
+      <c r="X136" s="2">
         <f t="shared" si="1"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="W136" s="1">
+      <c r="Y136" s="1">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:23">
+    <row r="137" spans="1:25">
       <c r="A137" s="1" t="s">
         <v>55</v>
       </c>
@@ -7161,15 +7253,15 @@
       <c r="M137" s="1">
         <v>-10</v>
       </c>
-      <c r="V137" s="2">
+      <c r="X137" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W137" s="1">
+      <c r="Y137" s="1">
         <v>1.0049999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:23">
+    <row r="138" spans="1:25">
       <c r="A138" s="1" t="s">
         <v>55</v>
       </c>
@@ -7200,15 +7292,15 @@
       <c r="M138" s="1">
         <v>-5</v>
       </c>
-      <c r="V138" s="2">
+      <c r="X138" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W138" s="1">
+      <c r="Y138" s="1">
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:23">
+    <row r="139" spans="1:25">
       <c r="A139" s="1" t="s">
         <v>55</v>
       </c>
@@ -7239,15 +7331,15 @@
       <c r="M139" s="1">
         <v>0</v>
       </c>
-      <c r="V139" s="2">
+      <c r="X139" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W139" s="1">
+      <c r="Y139" s="1">
         <v>1.0960000000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:23">
+    <row r="140" spans="1:25">
       <c r="A140" s="1" t="s">
         <v>55</v>
       </c>
@@ -7278,15 +7370,15 @@
       <c r="M140" s="1">
         <v>5</v>
       </c>
-      <c r="V140" s="2">
+      <c r="X140" s="2">
         <f t="shared" si="1"/>
         <v>4.9000000000000044E-2</v>
       </c>
-      <c r="W140" s="1">
+      <c r="Y140" s="1">
         <v>0.95099999999999996</v>
       </c>
     </row>
-    <row r="141" spans="1:23">
+    <row r="141" spans="1:25">
       <c r="A141" s="1" t="s">
         <v>55</v>
       </c>
@@ -7317,15 +7409,15 @@
       <c r="M141" s="1">
         <v>10</v>
       </c>
-      <c r="V141" s="2">
+      <c r="X141" s="2">
         <f t="shared" si="1"/>
         <v>0.253</v>
       </c>
-      <c r="W141" s="1">
+      <c r="Y141" s="1">
         <v>0.747</v>
       </c>
     </row>
-    <row r="142" spans="1:23">
+    <row r="142" spans="1:25">
       <c r="A142" s="1" t="s">
         <v>55</v>
       </c>
@@ -7356,15 +7448,15 @@
       <c r="M142" s="1">
         <v>-10</v>
       </c>
-      <c r="V142" s="2">
+      <c r="X142" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W142" s="1">
+      <c r="Y142" s="1">
         <v>1.149</v>
       </c>
     </row>
-    <row r="143" spans="1:23">
+    <row r="143" spans="1:25">
       <c r="A143" s="1" t="s">
         <v>55</v>
       </c>
@@ -7395,15 +7487,15 @@
       <c r="M143" s="1">
         <v>-5</v>
       </c>
-      <c r="V143" s="2">
+      <c r="X143" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W143" s="1">
+      <c r="Y143" s="1">
         <v>1.093</v>
       </c>
     </row>
-    <row r="144" spans="1:23">
+    <row r="144" spans="1:25">
       <c r="A144" s="1" t="s">
         <v>55</v>
       </c>
@@ -7434,15 +7526,15 @@
       <c r="M144" s="1">
         <v>0</v>
       </c>
-      <c r="V144" s="2">
+      <c r="X144" s="2">
         <f t="shared" si="1"/>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="W144" s="1">
+      <c r="Y144" s="1">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="145" spans="1:23">
+    <row r="145" spans="1:25">
       <c r="A145" s="1" t="s">
         <v>55</v>
       </c>
@@ -7473,15 +7565,15 @@
       <c r="M145" s="1">
         <v>5</v>
       </c>
-      <c r="V145" s="2">
+      <c r="X145" s="2">
         <f t="shared" si="1"/>
         <v>0.23199999999999998</v>
       </c>
-      <c r="W145" s="1">
+      <c r="Y145" s="1">
         <v>0.76800000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:23">
+    <row r="146" spans="1:25">
       <c r="A146" s="1" t="s">
         <v>55</v>
       </c>
@@ -7512,15 +7604,15 @@
       <c r="M146" s="1">
         <v>10</v>
       </c>
-      <c r="V146" s="2">
+      <c r="X146" s="2">
         <f t="shared" si="1"/>
         <v>0.41399999999999992</v>
       </c>
-      <c r="W146" s="1">
+      <c r="Y146" s="1">
         <v>0.58600000000000008</v>
       </c>
     </row>
-    <row r="147" spans="1:23">
+    <row r="147" spans="1:25">
       <c r="A147" s="1" t="s">
         <v>55</v>
       </c>
@@ -7551,15 +7643,15 @@
       <c r="M147" s="1">
         <v>-10</v>
       </c>
-      <c r="V147" s="2">
+      <c r="X147" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W147" s="1">
+      <c r="Y147" s="1">
         <v>1.218</v>
       </c>
     </row>
-    <row r="148" spans="1:23">
+    <row r="148" spans="1:25">
       <c r="A148" s="1" t="s">
         <v>55</v>
       </c>
@@ -7590,15 +7682,15 @@
       <c r="M148" s="1">
         <v>-5</v>
       </c>
-      <c r="V148" s="2">
+      <c r="X148" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W148" s="1">
+      <c r="Y148" s="1">
         <v>1.1559999999999999</v>
       </c>
     </row>
-    <row r="149" spans="1:23">
+    <row r="149" spans="1:25">
       <c r="A149" s="1" t="s">
         <v>55</v>
       </c>
@@ -7629,15 +7721,15 @@
       <c r="M149" s="1">
         <v>0</v>
       </c>
-      <c r="V149" s="2">
+      <c r="X149" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W149" s="1">
+      <c r="Y149" s="1">
         <v>1.0069999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:23">
+    <row r="150" spans="1:25">
       <c r="A150" s="1" t="s">
         <v>55</v>
       </c>
@@ -7668,15 +7760,15 @@
       <c r="M150" s="1">
         <v>5</v>
       </c>
-      <c r="V150" s="2">
+      <c r="X150" s="2">
         <f t="shared" si="1"/>
         <v>0.19599999999999995</v>
       </c>
-      <c r="W150" s="1">
+      <c r="Y150" s="1">
         <v>0.80400000000000005</v>
       </c>
     </row>
-    <row r="151" spans="1:23">
+    <row r="151" spans="1:25">
       <c r="A151" s="1" t="s">
         <v>55</v>
       </c>
@@ -7707,15 +7799,15 @@
       <c r="M151" s="1">
         <v>10</v>
       </c>
-      <c r="V151" s="2">
+      <c r="X151" s="2">
         <f t="shared" si="1"/>
         <v>0.38100000000000001</v>
       </c>
-      <c r="W151" s="1">
+      <c r="Y151" s="1">
         <v>0.61899999999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:23">
+    <row r="152" spans="1:25">
       <c r="A152" s="1" t="s">
         <v>55</v>
       </c>
@@ -7746,15 +7838,15 @@
       <c r="M152" s="1">
         <v>-10</v>
       </c>
-      <c r="V152" s="2">
+      <c r="X152" s="2">
         <f t="shared" si="1"/>
         <v>5.7000000000000051E-2</v>
       </c>
-      <c r="W152" s="1">
+      <c r="Y152" s="1">
         <v>0.94299999999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:23">
+    <row r="153" spans="1:25">
       <c r="A153" s="1" t="s">
         <v>55</v>
       </c>
@@ -7785,15 +7877,15 @@
       <c r="M153" s="1">
         <v>-5</v>
       </c>
-      <c r="V153" s="2">
+      <c r="X153" s="2">
         <f t="shared" si="1"/>
         <v>6.6000000000000059E-2</v>
       </c>
-      <c r="W153" s="1">
+      <c r="Y153" s="1">
         <v>0.93399999999999994</v>
       </c>
     </row>
-    <row r="154" spans="1:23">
+    <row r="154" spans="1:25">
       <c r="A154" s="1" t="s">
         <v>55</v>
       </c>
@@ -7824,15 +7916,15 @@
       <c r="M154" s="1">
         <v>0</v>
       </c>
-      <c r="V154" s="2">
+      <c r="X154" s="2">
         <f t="shared" si="1"/>
         <v>0.13100000000000001</v>
       </c>
-      <c r="W154" s="1">
+      <c r="Y154" s="1">
         <v>0.86899999999999999</v>
       </c>
     </row>
-    <row r="155" spans="1:23">
+    <row r="155" spans="1:25">
       <c r="A155" s="1" t="s">
         <v>55</v>
       </c>
@@ -7863,15 +7955,15 @@
       <c r="M155" s="1">
         <v>5</v>
       </c>
-      <c r="V155" s="2">
+      <c r="X155" s="2">
         <f t="shared" si="1"/>
         <v>0.18700000000000006</v>
       </c>
-      <c r="W155" s="1">
+      <c r="Y155" s="1">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="156" spans="1:23">
+    <row r="156" spans="1:25">
       <c r="A156" s="1" t="s">
         <v>55</v>
       </c>
@@ -7902,15 +7994,15 @@
       <c r="M156" s="1">
         <v>10</v>
       </c>
-      <c r="V156" s="2">
+      <c r="X156" s="2">
         <f t="shared" si="1"/>
         <v>0.29600000000000004</v>
       </c>
-      <c r="W156" s="1">
+      <c r="Y156" s="1">
         <v>0.70399999999999996</v>
       </c>
     </row>
-    <row r="157" spans="1:23">
+    <row r="157" spans="1:25">
       <c r="A157" s="1" t="s">
         <v>55</v>
       </c>
@@ -7941,15 +8033,15 @@
       <c r="M157" s="1">
         <v>-10</v>
       </c>
-      <c r="V157" s="2">
+      <c r="X157" s="2">
         <f t="shared" si="1"/>
         <v>2.9000000000000026E-2</v>
       </c>
-      <c r="W157" s="1">
+      <c r="Y157" s="1">
         <v>0.97099999999999997</v>
       </c>
     </row>
-    <row r="158" spans="1:23">
+    <row r="158" spans="1:25">
       <c r="A158" s="1" t="s">
         <v>55</v>
       </c>
@@ -7980,15 +8072,15 @@
       <c r="M158" s="1">
         <v>-5</v>
       </c>
-      <c r="V158" s="2">
+      <c r="X158" s="2">
         <f t="shared" si="1"/>
         <v>3.6000000000000032E-2</v>
       </c>
-      <c r="W158" s="1">
+      <c r="Y158" s="1">
         <v>0.96399999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:23">
+    <row r="159" spans="1:25">
       <c r="A159" s="1" t="s">
         <v>55</v>
       </c>
@@ -8019,15 +8111,15 @@
       <c r="M159" s="1">
         <v>0</v>
       </c>
-      <c r="V159" s="2">
+      <c r="X159" s="2">
         <f t="shared" si="1"/>
         <v>0.11299999999999999</v>
       </c>
-      <c r="W159" s="1">
+      <c r="Y159" s="1">
         <v>0.88700000000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:23">
+    <row r="160" spans="1:25">
       <c r="A160" s="1" t="s">
         <v>55</v>
       </c>
@@ -8058,15 +8150,15 @@
       <c r="M160" s="1">
         <v>5</v>
       </c>
-      <c r="V160" s="2">
+      <c r="X160" s="2">
         <f t="shared" si="1"/>
         <v>0.43199999999999994</v>
       </c>
-      <c r="W160" s="1">
+      <c r="Y160" s="1">
         <v>0.56800000000000006</v>
       </c>
     </row>
-    <row r="161" spans="1:23">
+    <row r="161" spans="1:25">
       <c r="A161" s="1" t="s">
         <v>55</v>
       </c>
@@ -8097,15 +8189,15 @@
       <c r="M161" s="1">
         <v>10</v>
       </c>
-      <c r="V161" s="2">
+      <c r="X161" s="2">
         <f t="shared" si="1"/>
         <v>0.64700000000000002</v>
       </c>
-      <c r="W161" s="1">
+      <c r="Y161" s="1">
         <v>0.35299999999999998</v>
       </c>
     </row>
-    <row r="162" spans="1:23">
+    <row r="162" spans="1:25">
       <c r="A162" s="1" t="s">
         <v>55</v>
       </c>
@@ -8136,15 +8228,15 @@
       <c r="M162" s="1">
         <v>-10</v>
       </c>
-      <c r="V162" s="2">
+      <c r="X162" s="2">
         <f t="shared" si="1"/>
         <v>4.2000000000000037E-2</v>
       </c>
-      <c r="W162" s="1">
+      <c r="Y162" s="1">
         <v>0.95799999999999996</v>
       </c>
     </row>
-    <row r="163" spans="1:23">
+    <row r="163" spans="1:25">
       <c r="A163" s="1" t="s">
         <v>55</v>
       </c>
@@ -8175,15 +8267,15 @@
       <c r="M163" s="1">
         <v>-5</v>
       </c>
-      <c r="V163" s="2">
+      <c r="X163" s="2">
         <f t="shared" si="1"/>
         <v>9.2999999999999972E-2</v>
       </c>
-      <c r="W163" s="1">
+      <c r="Y163" s="1">
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="164" spans="1:23">
+    <row r="164" spans="1:25">
       <c r="A164" s="1" t="s">
         <v>55</v>
       </c>
@@ -8214,15 +8306,15 @@
       <c r="M164" s="1">
         <v>0</v>
       </c>
-      <c r="V164" s="2">
+      <c r="X164" s="2">
         <f t="shared" si="1"/>
         <v>0.18700000000000006</v>
       </c>
-      <c r="W164" s="1">
+      <c r="Y164" s="1">
         <v>0.81299999999999994</v>
       </c>
     </row>
-    <row r="165" spans="1:23">
+    <row r="165" spans="1:25">
       <c r="A165" s="1" t="s">
         <v>55</v>
       </c>
@@ -8253,15 +8345,15 @@
       <c r="M165" s="1">
         <v>5</v>
       </c>
-      <c r="V165" s="2">
+      <c r="X165" s="2">
         <f t="shared" si="1"/>
         <v>0.48799999999999999</v>
       </c>
-      <c r="W165" s="1">
+      <c r="Y165" s="1">
         <v>0.51200000000000001</v>
       </c>
     </row>
-    <row r="166" spans="1:23">
+    <row r="166" spans="1:25">
       <c r="A166" s="1" t="s">
         <v>55</v>
       </c>
@@ -8292,15 +8384,15 @@
       <c r="M166" s="1">
         <v>10</v>
       </c>
-      <c r="V166" s="2">
+      <c r="X166" s="2">
         <f t="shared" si="1"/>
         <v>0.74099999999999999</v>
       </c>
-      <c r="W166" s="1">
+      <c r="Y166" s="1">
         <v>0.25900000000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:23">
+    <row r="167" spans="1:25">
       <c r="A167" s="1" t="s">
         <v>55</v>
       </c>
@@ -8331,15 +8423,15 @@
       <c r="M167" s="1">
         <v>-10</v>
       </c>
-      <c r="V167" s="2">
+      <c r="X167" s="2">
         <f t="shared" si="1"/>
         <v>5.0000000000000044E-2</v>
       </c>
-      <c r="W167" s="1">
+      <c r="Y167" s="1">
         <v>0.95</v>
       </c>
     </row>
-    <row r="168" spans="1:23">
+    <row r="168" spans="1:25">
       <c r="A168" s="1" t="s">
         <v>55</v>
       </c>
@@ -8370,15 +8462,15 @@
       <c r="M168" s="1">
         <v>-5</v>
       </c>
-      <c r="V168" s="2">
+      <c r="X168" s="2">
         <f t="shared" si="1"/>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="W168" s="1">
+      <c r="Y168" s="1">
         <v>0.996</v>
       </c>
     </row>
-    <row r="169" spans="1:23">
+    <row r="169" spans="1:25">
       <c r="A169" s="1" t="s">
         <v>55</v>
       </c>
@@ -8409,15 +8501,15 @@
       <c r="M169" s="1">
         <v>0</v>
       </c>
-      <c r="V169" s="2">
+      <c r="X169" s="2">
         <f t="shared" si="1"/>
         <v>7.5999999999999956E-2</v>
       </c>
-      <c r="W169" s="1">
+      <c r="Y169" s="1">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="170" spans="1:23">
+    <row r="170" spans="1:25">
       <c r="A170" s="1" t="s">
         <v>55</v>
       </c>
@@ -8448,15 +8540,15 @@
       <c r="M170" s="1">
         <v>5</v>
       </c>
-      <c r="V170" s="2">
+      <c r="X170" s="2">
         <f t="shared" si="1"/>
         <v>0.10399999999999998</v>
       </c>
-      <c r="W170" s="1">
+      <c r="Y170" s="1">
         <v>0.89600000000000002</v>
       </c>
     </row>
-    <row r="171" spans="1:23">
+    <row r="171" spans="1:25">
       <c r="A171" s="1" t="s">
         <v>55</v>
       </c>
@@ -8487,15 +8579,15 @@
       <c r="M171" s="1">
         <v>10</v>
       </c>
-      <c r="V171" s="2">
+      <c r="X171" s="2">
         <f t="shared" si="1"/>
         <v>0.11799999999999999</v>
       </c>
-      <c r="W171" s="1">
+      <c r="Y171" s="1">
         <v>0.88200000000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:23">
+    <row r="172" spans="1:25">
       <c r="A172" s="1" t="s">
         <v>55</v>
       </c>
@@ -8526,15 +8618,15 @@
       <c r="M172" s="1">
         <v>-10</v>
       </c>
-      <c r="V172" s="2">
+      <c r="X172" s="2">
         <f t="shared" si="1"/>
         <v>1.3000000000000012E-2</v>
       </c>
-      <c r="W172" s="1">
+      <c r="Y172" s="1">
         <v>0.98699999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:23">
+    <row r="173" spans="1:25">
       <c r="A173" s="1" t="s">
         <v>55</v>
       </c>
@@ -8565,15 +8657,15 @@
       <c r="M173" s="1">
         <v>-5</v>
       </c>
-      <c r="V173" s="2">
+      <c r="X173" s="2">
         <f t="shared" si="1"/>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="W173" s="1">
+      <c r="Y173" s="1">
         <v>0.997</v>
       </c>
     </row>
-    <row r="174" spans="1:23">
+    <row r="174" spans="1:25">
       <c r="A174" s="1" t="s">
         <v>55</v>
       </c>
@@ -8604,15 +8696,15 @@
       <c r="M174" s="1">
         <v>0</v>
       </c>
-      <c r="V174" s="2">
+      <c r="X174" s="2">
         <f t="shared" si="1"/>
         <v>4.7000000000000042E-2</v>
       </c>
-      <c r="W174" s="1">
+      <c r="Y174" s="1">
         <v>0.95299999999999996</v>
       </c>
     </row>
-    <row r="175" spans="1:23">
+    <row r="175" spans="1:25">
       <c r="A175" s="1" t="s">
         <v>55</v>
       </c>
@@ -8643,15 +8735,15 @@
       <c r="M175" s="1">
         <v>5</v>
       </c>
-      <c r="V175" s="2">
+      <c r="X175" s="2">
         <f t="shared" si="1"/>
         <v>0.18799999999999994</v>
       </c>
-      <c r="W175" s="1">
+      <c r="Y175" s="1">
         <v>0.81200000000000006</v>
       </c>
     </row>
-    <row r="176" spans="1:23">
+    <row r="176" spans="1:25">
       <c r="A176" s="1" t="s">
         <v>55</v>
       </c>
@@ -8682,15 +8774,15 @@
       <c r="M176" s="1">
         <v>10</v>
       </c>
-      <c r="V176" s="2">
+      <c r="X176" s="2">
         <f t="shared" si="1"/>
         <v>0.34599999999999997</v>
       </c>
-      <c r="W176" s="1">
+      <c r="Y176" s="1">
         <v>0.65400000000000003</v>
       </c>
     </row>
-    <row r="177" spans="1:23">
+    <row r="177" spans="1:25">
       <c r="A177" s="1" t="s">
         <v>55</v>
       </c>
@@ -8721,15 +8813,15 @@
       <c r="M177" s="1">
         <v>-10</v>
       </c>
-      <c r="V177" s="2">
+      <c r="X177" s="2">
         <f t="shared" si="1"/>
         <v>7.5999999999999956E-2</v>
       </c>
-      <c r="W177" s="1">
+      <c r="Y177" s="1">
         <v>0.92400000000000004</v>
       </c>
     </row>
-    <row r="178" spans="1:23">
+    <row r="178" spans="1:25">
       <c r="A178" s="1" t="s">
         <v>55</v>
       </c>
@@ -8760,15 +8852,15 @@
       <c r="M178" s="1">
         <v>-5</v>
       </c>
-      <c r="V178" s="2">
+      <c r="X178" s="2">
         <f t="shared" si="1"/>
         <v>0.11099999999999999</v>
       </c>
-      <c r="W178" s="1">
+      <c r="Y178" s="1">
         <v>0.88900000000000001</v>
       </c>
     </row>
-    <row r="179" spans="1:23">
+    <row r="179" spans="1:25">
       <c r="A179" s="1" t="s">
         <v>55</v>
       </c>
@@ -8799,15 +8891,15 @@
       <c r="M179" s="1">
         <v>0</v>
       </c>
-      <c r="V179" s="2">
+      <c r="X179" s="2">
         <f t="shared" si="1"/>
         <v>0.246</v>
       </c>
-      <c r="W179" s="1">
+      <c r="Y179" s="1">
         <v>0.754</v>
       </c>
     </row>
-    <row r="180" spans="1:23">
+    <row r="180" spans="1:25">
       <c r="A180" s="1" t="s">
         <v>55</v>
       </c>
@@ -8838,15 +8930,15 @@
       <c r="M180" s="1">
         <v>5</v>
       </c>
-      <c r="V180" s="2">
+      <c r="X180" s="2">
         <f t="shared" si="1"/>
         <v>0.51400000000000001</v>
       </c>
-      <c r="W180" s="1">
+      <c r="Y180" s="1">
         <v>0.48599999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:23">
+    <row r="181" spans="1:25">
       <c r="A181" s="1" t="s">
         <v>55</v>
       </c>
@@ -8877,15 +8969,15 @@
       <c r="M181" s="1">
         <v>10</v>
       </c>
-      <c r="V181" s="2">
+      <c r="X181" s="2">
         <f t="shared" si="1"/>
         <v>0.74199999999999999</v>
       </c>
-      <c r="W181" s="1">
+      <c r="Y181" s="1">
         <v>0.25800000000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:23">
+    <row r="182" spans="1:25">
       <c r="A182" s="1" t="s">
         <v>61</v>
       </c>
@@ -8913,15 +9005,15 @@
       <c r="M182" s="1">
         <v>-9</v>
       </c>
-      <c r="V182" s="2">
+      <c r="X182" s="2">
         <f t="shared" si="1"/>
         <v>0.32040816326530708</v>
       </c>
-      <c r="W182" s="1">
+      <c r="Y182" s="1">
         <v>0.67959183673469292</v>
       </c>
     </row>
-    <row r="183" spans="1:23">
+    <row r="183" spans="1:25">
       <c r="A183" s="1" t="s">
         <v>61</v>
       </c>
@@ -8949,15 +9041,15 @@
       <c r="M183" s="1">
         <v>-6</v>
       </c>
-      <c r="V183" s="2">
+      <c r="X183" s="2">
         <f t="shared" si="1"/>
         <v>0.45918367346938804</v>
       </c>
-      <c r="W183" s="1">
+      <c r="Y183" s="1">
         <v>0.54081632653061196</v>
       </c>
     </row>
-    <row r="184" spans="1:23">
+    <row r="184" spans="1:25">
       <c r="A184" s="1" t="s">
         <v>61</v>
       </c>
@@ -8985,15 +9077,15 @@
       <c r="M184" s="1">
         <v>-3</v>
       </c>
-      <c r="V184" s="2">
+      <c r="X184" s="2">
         <f t="shared" si="1"/>
         <v>0.56040816326530707</v>
       </c>
-      <c r="W184" s="1">
+      <c r="Y184" s="1">
         <v>0.43959183673469299</v>
       </c>
     </row>
-    <row r="185" spans="1:23">
+    <row r="185" spans="1:25">
       <c r="A185" s="1" t="s">
         <v>61</v>
       </c>
@@ -9021,15 +9113,15 @@
       <c r="M185" s="1">
         <v>0</v>
       </c>
-      <c r="V185" s="2">
+      <c r="X185" s="2">
         <f t="shared" si="1"/>
         <v>0.64857142857142902</v>
       </c>
-      <c r="W185" s="1">
+      <c r="Y185" s="1">
         <v>0.35142857142857103</v>
       </c>
     </row>
-    <row r="186" spans="1:23">
+    <row r="186" spans="1:25">
       <c r="A186" s="1" t="s">
         <v>61</v>
       </c>
@@ -9057,15 +9149,15 @@
       <c r="M186" s="1">
         <v>3</v>
       </c>
-      <c r="V186" s="2">
+      <c r="X186" s="2">
         <f t="shared" si="1"/>
         <v>0.74979591836734794</v>
       </c>
-      <c r="W186" s="1">
+      <c r="Y186" s="1">
         <v>0.25020408163265201</v>
       </c>
     </row>
-    <row r="187" spans="1:23">
+    <row r="187" spans="1:25">
       <c r="A187" s="1" t="s">
         <v>61</v>
       </c>
@@ -9093,15 +9185,15 @@
       <c r="M187" s="1">
         <v>6</v>
       </c>
-      <c r="V187" s="2">
-        <f t="shared" ref="V187:V229" si="2">IF(W187&gt;1,0,1-W187)</f>
+      <c r="X187" s="2">
+        <f t="shared" ref="X187:X229" si="2">IF(Y187&gt;1,0,1-Y187)</f>
         <v>0.77918367346938799</v>
       </c>
-      <c r="W187" s="1">
+      <c r="Y187" s="1">
         <v>0.22081632653061198</v>
       </c>
     </row>
-    <row r="188" spans="1:23">
+    <row r="188" spans="1:25">
       <c r="A188" s="1" t="s">
         <v>61</v>
       </c>
@@ -9129,15 +9221,15 @@
       <c r="M188" s="1">
         <v>-9</v>
       </c>
-      <c r="V188" s="2">
+      <c r="X188" s="2">
         <f t="shared" si="2"/>
         <v>0.480408163265307</v>
       </c>
-      <c r="W188" s="1">
+      <c r="Y188" s="1">
         <v>0.519591836734693</v>
       </c>
     </row>
-    <row r="189" spans="1:23">
+    <row r="189" spans="1:25">
       <c r="A189" s="1" t="s">
         <v>61</v>
       </c>
@@ -9165,15 +9257,15 @@
       <c r="M189" s="1">
         <v>-6</v>
       </c>
-      <c r="V189" s="2">
+      <c r="X189" s="2">
         <f t="shared" si="2"/>
         <v>0.58000000000000096</v>
       </c>
-      <c r="W189" s="1">
+      <c r="Y189" s="1">
         <v>0.41999999999999899</v>
       </c>
     </row>
-    <row r="190" spans="1:23">
+    <row r="190" spans="1:25">
       <c r="A190" s="1" t="s">
         <v>61</v>
       </c>
@@ -9201,15 +9293,15 @@
       <c r="M190" s="1">
         <v>-3</v>
       </c>
-      <c r="V190" s="2">
+      <c r="X190" s="2">
         <f t="shared" si="2"/>
         <v>0.67959183673469403</v>
       </c>
-      <c r="W190" s="1">
+      <c r="Y190" s="1">
         <v>0.32040816326530602</v>
       </c>
     </row>
-    <row r="191" spans="1:23">
+    <row r="191" spans="1:25">
       <c r="A191" s="1" t="s">
         <v>61</v>
       </c>
@@ -9237,15 +9329,15 @@
       <c r="M191" s="1">
         <v>0</v>
       </c>
-      <c r="V191" s="2">
+      <c r="X191" s="2">
         <f t="shared" si="2"/>
         <v>0.75959183673469399</v>
       </c>
-      <c r="W191" s="1">
+      <c r="Y191" s="1">
         <v>0.24040816326530601</v>
       </c>
     </row>
-    <row r="192" spans="1:23">
+    <row r="192" spans="1:25">
       <c r="A192" s="1" t="s">
         <v>61</v>
       </c>
@@ -9273,15 +9365,15 @@
       <c r="M192" s="1">
         <v>3</v>
       </c>
-      <c r="V192" s="2">
+      <c r="X192" s="2">
         <f t="shared" si="2"/>
         <v>0.81020408163265401</v>
       </c>
-      <c r="W192" s="1">
+      <c r="Y192" s="1">
         <v>0.18979591836734599</v>
       </c>
     </row>
-    <row r="193" spans="1:23">
+    <row r="193" spans="1:25">
       <c r="A193" s="1" t="s">
         <v>61</v>
       </c>
@@ -9309,15 +9401,15 @@
       <c r="M193" s="1">
         <v>6</v>
       </c>
-      <c r="V193" s="2">
+      <c r="X193" s="2">
         <f t="shared" si="2"/>
         <v>0.85918367346938795</v>
       </c>
-      <c r="W193" s="1">
+      <c r="Y193" s="1">
         <v>0.14081632653061202</v>
       </c>
     </row>
-    <row r="194" spans="1:23">
+    <row r="194" spans="1:25">
       <c r="A194" s="1" t="s">
         <v>61</v>
       </c>
@@ -9345,15 +9437,15 @@
       <c r="M194" s="1">
         <v>-9</v>
       </c>
-      <c r="V194" s="2">
+      <c r="X194" s="2">
         <f t="shared" si="2"/>
         <v>0.18000000000000005</v>
       </c>
-      <c r="W194" s="1">
+      <c r="Y194" s="1">
         <v>0.82</v>
       </c>
     </row>
-    <row r="195" spans="1:23">
+    <row r="195" spans="1:25">
       <c r="A195" s="1" t="s">
         <v>61</v>
       </c>
@@ -9381,15 +9473,15 @@
       <c r="M195" s="1">
         <v>-6</v>
       </c>
-      <c r="V195" s="2">
+      <c r="X195" s="2">
         <f t="shared" si="2"/>
         <v>0.31061224489796002</v>
       </c>
-      <c r="W195" s="1">
+      <c r="Y195" s="1">
         <v>0.68938775510203998</v>
       </c>
     </row>
-    <row r="196" spans="1:23">
+    <row r="196" spans="1:25">
       <c r="A196" s="1" t="s">
         <v>61</v>
       </c>
@@ -9417,15 +9509,15 @@
       <c r="M196" s="1">
         <v>-3</v>
       </c>
-      <c r="V196" s="2">
+      <c r="X196" s="2">
         <f t="shared" si="2"/>
         <v>0.43959183673469393</v>
       </c>
-      <c r="W196" s="1">
+      <c r="Y196" s="1">
         <v>0.56040816326530607</v>
       </c>
     </row>
-    <row r="197" spans="1:23">
+    <row r="197" spans="1:25">
       <c r="A197" s="1" t="s">
         <v>61</v>
       </c>
@@ -9453,15 +9545,15 @@
       <c r="M197" s="1">
         <v>0</v>
       </c>
-      <c r="V197" s="2">
+      <c r="X197" s="2">
         <f t="shared" si="2"/>
         <v>0.58979591836734802</v>
       </c>
-      <c r="W197" s="1">
+      <c r="Y197" s="1">
         <v>0.41020408163265204</v>
       </c>
     </row>
-    <row r="198" spans="1:23">
+    <row r="198" spans="1:25">
       <c r="A198" s="1" t="s">
         <v>61</v>
       </c>
@@ -9489,15 +9581,15 @@
       <c r="M198" s="1">
         <v>3</v>
       </c>
-      <c r="V198" s="2">
+      <c r="X198" s="2">
         <f t="shared" si="2"/>
         <v>0.67959183673469492</v>
       </c>
-      <c r="W198" s="1">
+      <c r="Y198" s="1">
         <v>0.32040816326530502</v>
       </c>
     </row>
-    <row r="199" spans="1:23">
+    <row r="199" spans="1:25">
       <c r="A199" s="1" t="s">
         <v>61</v>
       </c>
@@ -9525,15 +9617,15 @@
       <c r="M199" s="1">
         <v>6</v>
       </c>
-      <c r="V199" s="2">
+      <c r="X199" s="2">
         <f t="shared" si="2"/>
         <v>0.74979591836734794</v>
       </c>
-      <c r="W199" s="1">
+      <c r="Y199" s="1">
         <v>0.25020408163265201</v>
       </c>
     </row>
-    <row r="200" spans="1:23">
+    <row r="200" spans="1:25">
       <c r="A200" s="1" t="s">
         <v>61</v>
       </c>
@@ -9561,15 +9653,15 @@
       <c r="M200" s="1">
         <v>-9</v>
       </c>
-      <c r="V200" s="2">
+      <c r="X200" s="2">
         <f t="shared" si="2"/>
         <v>0.33999999999999997</v>
       </c>
-      <c r="W200" s="1">
+      <c r="Y200" s="1">
         <v>0.66</v>
       </c>
     </row>
-    <row r="201" spans="1:23">
+    <row r="201" spans="1:25">
       <c r="A201" s="1" t="s">
         <v>61</v>
       </c>
@@ -9597,15 +9689,15 @@
       <c r="M201" s="1">
         <v>-6</v>
       </c>
-      <c r="V201" s="2">
+      <c r="X201" s="2">
         <f t="shared" si="2"/>
         <v>0.480408163265307</v>
       </c>
-      <c r="W201" s="1">
+      <c r="Y201" s="1">
         <v>0.519591836734693</v>
       </c>
     </row>
-    <row r="202" spans="1:23">
+    <row r="202" spans="1:25">
       <c r="A202" s="1" t="s">
         <v>61</v>
       </c>
@@ -9633,15 +9725,15 @@
       <c r="M202" s="1">
         <v>-3</v>
       </c>
-      <c r="V202" s="2">
+      <c r="X202" s="2">
         <f t="shared" si="2"/>
         <v>0.59959183673469496</v>
       </c>
-      <c r="W202" s="1">
+      <c r="Y202" s="1">
         <v>0.40040816326530504</v>
       </c>
     </row>
-    <row r="203" spans="1:23">
+    <row r="203" spans="1:25">
       <c r="A203" s="1" t="s">
         <v>61</v>
       </c>
@@ -9669,15 +9761,15 @@
       <c r="M203" s="1">
         <v>0</v>
       </c>
-      <c r="V203" s="2">
+      <c r="X203" s="2">
         <f t="shared" si="2"/>
         <v>0.65183673469387804</v>
       </c>
-      <c r="W203" s="1">
+      <c r="Y203" s="1">
         <v>0.34816326530612202</v>
       </c>
     </row>
-    <row r="204" spans="1:23">
+    <row r="204" spans="1:25">
       <c r="A204" s="1" t="s">
         <v>61</v>
       </c>
@@ -9705,15 +9797,15 @@
       <c r="M204" s="1">
         <v>3</v>
       </c>
-      <c r="V204" s="2">
+      <c r="X204" s="2">
         <f t="shared" si="2"/>
         <v>0.70897959183673498</v>
       </c>
-      <c r="W204" s="1">
+      <c r="Y204" s="1">
         <v>0.29102040816326502</v>
       </c>
     </row>
-    <row r="205" spans="1:23">
+    <row r="205" spans="1:25">
       <c r="A205" s="1" t="s">
         <v>61</v>
       </c>
@@ -9741,15 +9833,15 @@
       <c r="M205" s="1">
         <v>6</v>
       </c>
-      <c r="V205" s="2">
+      <c r="X205" s="2">
         <f t="shared" si="2"/>
         <v>0.80040816326530695</v>
       </c>
-      <c r="W205" s="1">
+      <c r="Y205" s="1">
         <v>0.19959183673469302</v>
       </c>
     </row>
-    <row r="206" spans="1:23">
+    <row r="206" spans="1:25">
       <c r="A206" s="1" t="s">
         <v>61</v>
       </c>
@@ -9777,15 +9869,15 @@
       <c r="M206" s="1">
         <v>-9</v>
       </c>
-      <c r="V206" s="2">
+      <c r="X206" s="2">
         <f t="shared" si="2"/>
         <v>0.53102040816326601</v>
       </c>
-      <c r="W206" s="1">
+      <c r="Y206" s="1">
         <v>0.46897959183673399</v>
       </c>
     </row>
-    <row r="207" spans="1:23">
+    <row r="207" spans="1:25">
       <c r="A207" s="1" t="s">
         <v>61</v>
       </c>
@@ -9813,15 +9905,15 @@
       <c r="M207" s="1">
         <v>-6</v>
       </c>
-      <c r="V207" s="2">
+      <c r="X207" s="2">
         <f t="shared" si="2"/>
         <v>0.66979591836734798</v>
       </c>
-      <c r="W207" s="1">
+      <c r="Y207" s="1">
         <v>0.33020408163265202</v>
       </c>
     </row>
-    <row r="208" spans="1:23">
+    <row r="208" spans="1:25">
       <c r="A208" s="1" t="s">
         <v>61</v>
       </c>
@@ -9849,15 +9941,15 @@
       <c r="M208" s="1">
         <v>-3</v>
       </c>
-      <c r="V208" s="2">
+      <c r="X208" s="2">
         <f t="shared" si="2"/>
         <v>0.74979591836734794</v>
       </c>
-      <c r="W208" s="1">
+      <c r="Y208" s="1">
         <v>0.25020408163265201</v>
       </c>
     </row>
-    <row r="209" spans="1:23">
+    <row r="209" spans="1:25">
       <c r="A209" s="1" t="s">
         <v>61</v>
       </c>
@@ -9885,15 +9977,15 @@
       <c r="M209" s="1">
         <v>0</v>
       </c>
-      <c r="V209" s="2">
+      <c r="X209" s="2">
         <f t="shared" si="2"/>
         <v>0.80040816326530695</v>
       </c>
-      <c r="W209" s="1">
+      <c r="Y209" s="1">
         <v>0.19959183673469302</v>
       </c>
     </row>
-    <row r="210" spans="1:23">
+    <row r="210" spans="1:25">
       <c r="A210" s="1" t="s">
         <v>61</v>
       </c>
@@ -9921,15 +10013,15 @@
       <c r="M210" s="1">
         <v>3</v>
       </c>
-      <c r="V210" s="2">
+      <c r="X210" s="2">
         <f t="shared" si="2"/>
         <v>0.82979591836734701</v>
       </c>
-      <c r="W210" s="1">
+      <c r="Y210" s="1">
         <v>0.17020408163265302</v>
       </c>
     </row>
-    <row r="211" spans="1:23">
+    <row r="211" spans="1:25">
       <c r="A211" s="1" t="s">
         <v>61</v>
       </c>
@@ -9957,15 +10049,15 @@
       <c r="M211" s="1">
         <v>6</v>
       </c>
-      <c r="V211" s="2">
+      <c r="X211" s="2">
         <f t="shared" si="2"/>
         <v>0.88040816326530702</v>
       </c>
-      <c r="W211" s="1">
+      <c r="Y211" s="1">
         <v>0.11959183673469299</v>
       </c>
     </row>
-    <row r="212" spans="1:23">
+    <row r="212" spans="1:25">
       <c r="A212" s="1" t="s">
         <v>61</v>
       </c>
@@ -9993,15 +10085,15 @@
       <c r="M212" s="1">
         <v>-9</v>
       </c>
-      <c r="V212" s="2">
+      <c r="X212" s="2">
         <f t="shared" si="2"/>
         <v>0.60122448979591903</v>
       </c>
-      <c r="W212" s="1">
+      <c r="Y212" s="1">
         <v>0.39877551020408097</v>
       </c>
     </row>
-    <row r="213" spans="1:23">
+    <row r="213" spans="1:25">
       <c r="A213" s="1" t="s">
         <v>61</v>
       </c>
@@ -10029,15 +10121,15 @@
       <c r="M213" s="1">
         <v>-6</v>
       </c>
-      <c r="V213" s="2">
+      <c r="X213" s="2">
         <f t="shared" si="2"/>
         <v>0.72040816326530699</v>
       </c>
-      <c r="W213" s="1">
+      <c r="Y213" s="1">
         <v>0.27959183673469301</v>
       </c>
     </row>
-    <row r="214" spans="1:23">
+    <row r="214" spans="1:25">
       <c r="A214" s="1" t="s">
         <v>61</v>
       </c>
@@ -10065,15 +10157,15 @@
       <c r="M214" s="1">
         <v>-3</v>
       </c>
-      <c r="V214" s="2">
+      <c r="X214" s="2">
         <f t="shared" si="2"/>
         <v>0.80040816326530695</v>
       </c>
-      <c r="W214" s="1">
+      <c r="Y214" s="1">
         <v>0.19959183673469302</v>
       </c>
     </row>
-    <row r="215" spans="1:23">
+    <row r="215" spans="1:25">
       <c r="A215" s="1" t="s">
         <v>61</v>
       </c>
@@ -10101,15 +10193,15 @@
       <c r="M215" s="1">
         <v>0</v>
       </c>
-      <c r="V215" s="2">
+      <c r="X215" s="2">
         <f t="shared" si="2"/>
         <v>0.85102040816326596</v>
       </c>
-      <c r="W215" s="1">
+      <c r="Y215" s="1">
         <v>0.14897959183673401</v>
       </c>
     </row>
-    <row r="216" spans="1:23">
+    <row r="216" spans="1:25">
       <c r="A216" s="1" t="s">
         <v>61</v>
       </c>
@@ -10137,15 +10229,15 @@
       <c r="M216" s="1">
         <v>3</v>
       </c>
-      <c r="V216" s="2">
+      <c r="X216" s="2">
         <f t="shared" si="2"/>
         <v>0.87061224489795996</v>
       </c>
-      <c r="W216" s="1">
+      <c r="Y216" s="1">
         <v>0.12938775510204001</v>
       </c>
     </row>
-    <row r="217" spans="1:23">
+    <row r="217" spans="1:25">
       <c r="A217" s="1" t="s">
         <v>61</v>
       </c>
@@ -10173,15 +10265,15 @@
       <c r="M217" s="1">
         <v>6</v>
       </c>
-      <c r="V217" s="2">
+      <c r="X217" s="2">
         <f t="shared" si="2"/>
         <v>0.86897959183673501</v>
       </c>
-      <c r="W217" s="1">
+      <c r="Y217" s="1">
         <v>0.13102040816326499</v>
       </c>
     </row>
-    <row r="218" spans="1:23">
+    <row r="218" spans="1:25">
       <c r="A218" s="1" t="s">
         <v>61</v>
       </c>
@@ -10209,15 +10301,15 @@
       <c r="M218" s="1">
         <v>-9</v>
       </c>
-      <c r="V218" s="2">
+      <c r="X218" s="2">
         <f t="shared" si="2"/>
         <v>0.32040816326530708</v>
       </c>
-      <c r="W218" s="1">
+      <c r="Y218" s="1">
         <v>0.67959183673469292</v>
       </c>
     </row>
-    <row r="219" spans="1:23">
+    <row r="219" spans="1:25">
       <c r="A219" s="1" t="s">
         <v>61</v>
       </c>
@@ -10245,15 +10337,15 @@
       <c r="M219" s="1">
         <v>-6</v>
       </c>
-      <c r="V219" s="2">
+      <c r="X219" s="2">
         <f t="shared" si="2"/>
         <v>0.36938775510204103</v>
       </c>
-      <c r="W219" s="1">
+      <c r="Y219" s="1">
         <v>0.63061224489795897</v>
       </c>
     </row>
-    <row r="220" spans="1:23">
+    <row r="220" spans="1:25">
       <c r="A220" s="1" t="s">
         <v>61</v>
       </c>
@@ -10281,15 +10373,15 @@
       <c r="M220" s="1">
         <v>-3</v>
       </c>
-      <c r="V220" s="2">
+      <c r="X220" s="2">
         <f t="shared" si="2"/>
         <v>0.44122448979591899</v>
       </c>
-      <c r="W220" s="1">
+      <c r="Y220" s="1">
         <v>0.55877551020408101</v>
       </c>
     </row>
-    <row r="221" spans="1:23">
+    <row r="221" spans="1:25">
       <c r="A221" s="1" t="s">
         <v>61</v>
       </c>
@@ -10317,15 +10409,15 @@
       <c r="M221" s="1">
         <v>0</v>
       </c>
-      <c r="V221" s="2">
+      <c r="X221" s="2">
         <f t="shared" si="2"/>
         <v>0.519591836734695</v>
       </c>
-      <c r="W221" s="1">
+      <c r="Y221" s="1">
         <v>0.48040816326530505</v>
       </c>
     </row>
-    <row r="222" spans="1:23">
+    <row r="222" spans="1:25">
       <c r="A222" s="1" t="s">
         <v>61</v>
       </c>
@@ -10353,15 +10445,15 @@
       <c r="M222" s="1">
         <v>3</v>
       </c>
-      <c r="V222" s="2">
+      <c r="X222" s="2">
         <f t="shared" si="2"/>
         <v>0.57020408163265401</v>
       </c>
-      <c r="W222" s="1">
+      <c r="Y222" s="1">
         <v>0.42979591836734599</v>
       </c>
     </row>
-    <row r="223" spans="1:23">
+    <row r="223" spans="1:25">
       <c r="A223" s="1" t="s">
         <v>61</v>
       </c>
@@ -10389,15 +10481,15 @@
       <c r="M223" s="1">
         <v>6</v>
       </c>
-      <c r="V223" s="2">
+      <c r="X223" s="2">
         <f t="shared" si="2"/>
         <v>0.59959183673469396</v>
       </c>
-      <c r="W223" s="1">
+      <c r="Y223" s="1">
         <v>0.40040816326530604</v>
       </c>
     </row>
-    <row r="224" spans="1:23">
+    <row r="224" spans="1:25">
       <c r="A224" s="1" t="s">
         <v>61</v>
       </c>
@@ -10425,15 +10517,15 @@
       <c r="M224" s="1">
         <v>-9</v>
       </c>
-      <c r="V224" s="2">
+      <c r="X224" s="2">
         <f t="shared" si="2"/>
         <v>0.41020408163265398</v>
       </c>
-      <c r="W224" s="1">
+      <c r="Y224" s="1">
         <v>0.58979591836734602</v>
       </c>
     </row>
-    <row r="225" spans="1:23">
+    <row r="225" spans="1:25">
       <c r="A225" s="1" t="s">
         <v>61</v>
       </c>
@@ -10461,15 +10553,15 @@
       <c r="M225" s="1">
         <v>-6</v>
       </c>
-      <c r="V225" s="2">
+      <c r="X225" s="2">
         <f t="shared" si="2"/>
         <v>0.539183673469388</v>
       </c>
-      <c r="W225" s="1">
+      <c r="Y225" s="1">
         <v>0.460816326530612</v>
       </c>
     </row>
-    <row r="226" spans="1:23">
+    <row r="226" spans="1:25">
       <c r="A226" s="1" t="s">
         <v>61</v>
       </c>
@@ -10497,15 +10589,15 @@
       <c r="M226" s="1">
         <v>-3</v>
       </c>
-      <c r="V226" s="2">
+      <c r="X226" s="2">
         <f t="shared" si="2"/>
         <v>0.63061224489795997</v>
       </c>
-      <c r="W226" s="1">
+      <c r="Y226" s="1">
         <v>0.36938775510204003</v>
       </c>
     </row>
-    <row r="227" spans="1:23">
+    <row r="227" spans="1:25">
       <c r="A227" s="1" t="s">
         <v>61</v>
       </c>
@@ -10533,15 +10625,15 @@
       <c r="M227" s="1">
         <v>0</v>
       </c>
-      <c r="V227" s="2">
+      <c r="X227" s="2">
         <f t="shared" si="2"/>
         <v>0.70897959183673498</v>
       </c>
-      <c r="W227" s="1">
+      <c r="Y227" s="1">
         <v>0.29102040816326502</v>
       </c>
     </row>
-    <row r="228" spans="1:23">
+    <row r="228" spans="1:25">
       <c r="A228" s="1" t="s">
         <v>61</v>
       </c>
@@ -10569,15 +10661,15 @@
       <c r="M228" s="1">
         <v>3</v>
       </c>
-      <c r="V228" s="2">
+      <c r="X228" s="2">
         <f t="shared" si="2"/>
         <v>0.72040816326530699</v>
       </c>
-      <c r="W228" s="1">
+      <c r="Y228" s="1">
         <v>0.27959183673469301</v>
       </c>
     </row>
-    <row r="229" spans="1:23">
+    <row r="229" spans="1:25">
       <c r="A229" s="1" t="s">
         <v>61</v>
       </c>
@@ -10605,15 +10697,15 @@
       <c r="M229" s="1">
         <v>6</v>
       </c>
-      <c r="V229" s="2">
+      <c r="X229" s="2">
         <f t="shared" si="2"/>
         <v>0.73020408163265405</v>
       </c>
-      <c r="W229" s="1">
+      <c r="Y229" s="1">
         <v>0.26979591836734601</v>
       </c>
     </row>
-    <row r="230" spans="1:23">
+    <row r="230" spans="1:25">
       <c r="A230" s="1" t="s">
         <v>67</v>
       </c>
@@ -10651,7 +10743,7 @@
         <v>1.5556994818652801</v>
       </c>
     </row>
-    <row r="231" spans="1:23">
+    <row r="231" spans="1:25">
       <c r="A231" s="1" t="s">
         <v>67</v>
       </c>
@@ -10689,7 +10781,7 @@
         <v>1.65932642487046</v>
       </c>
     </row>
-    <row r="232" spans="1:23">
+    <row r="232" spans="1:25">
       <c r="A232" s="1" t="s">
         <v>67</v>
       </c>
@@ -10727,7 +10819,7 @@
         <v>1.69170984455958</v>
       </c>
     </row>
-    <row r="233" spans="1:23">
+    <row r="233" spans="1:25">
       <c r="A233" s="1" t="s">
         <v>67</v>
       </c>
@@ -10765,7 +10857,7 @@
         <v>1.7435233160621699</v>
       </c>
     </row>
-    <row r="234" spans="1:23">
+    <row r="234" spans="1:25">
       <c r="A234" s="1" t="s">
         <v>67</v>
       </c>
@@ -10803,7 +10895,7 @@
         <v>1.7953367875647599</v>
       </c>
     </row>
-    <row r="235" spans="1:23">
+    <row r="235" spans="1:25">
       <c r="A235" s="1" t="s">
         <v>67</v>
       </c>
@@ -10841,7 +10933,7 @@
         <v>1.8147668393782299</v>
       </c>
     </row>
-    <row r="236" spans="1:23">
+    <row r="236" spans="1:25">
       <c r="A236" s="1" t="s">
         <v>67</v>
       </c>
@@ -10879,7 +10971,7 @@
         <v>1.82124352331606</v>
       </c>
     </row>
-    <row r="237" spans="1:23">
+    <row r="237" spans="1:25">
       <c r="A237" s="1" t="s">
         <v>67</v>
       </c>
@@ -10917,7 +11009,7 @@
         <v>1.8471502590673501</v>
       </c>
     </row>
-    <row r="238" spans="1:23">
+    <row r="238" spans="1:25">
       <c r="A238" s="1" t="s">
         <v>67</v>
       </c>
@@ -10955,7 +11047,7 @@
         <v>1.8860103626942899</v>
       </c>
     </row>
-    <row r="239" spans="1:23">
+    <row r="239" spans="1:25">
       <c r="A239" s="1" t="s">
         <v>67</v>
       </c>
@@ -10993,7 +11085,7 @@
         <v>1.6111111111111101</v>
       </c>
     </row>
-    <row r="240" spans="1:23">
+    <row r="240" spans="1:25">
       <c r="A240" s="1" t="s">
         <v>67</v>
       </c>
@@ -11639,7 +11731,7 @@
         <v>1.91772151898734</v>
       </c>
     </row>
-    <row r="257" spans="1:25">
+    <row r="257" spans="1:27">
       <c r="A257" s="1" t="s">
         <v>76</v>
       </c>
@@ -11674,15 +11766,15 @@
       <c r="S257" s="1">
         <v>1.4416</v>
       </c>
-      <c r="T257" s="1">
-        <f>U257-0.5454</f>
+      <c r="V257" s="1">
+        <f>W257-0.5454</f>
         <v>0.121</v>
       </c>
-      <c r="U257" s="1">
+      <c r="W257" s="1">
         <v>0.66639999999999999</v>
       </c>
     </row>
-    <row r="258" spans="1:25">
+    <row r="258" spans="1:27">
       <c r="A258" s="1" t="s">
         <v>76</v>
       </c>
@@ -11717,15 +11809,15 @@
       <c r="S258" s="1">
         <v>1.8193999999999999</v>
       </c>
-      <c r="T258" s="1">
-        <f>U258-0.6561</f>
+      <c r="V258" s="1">
+        <f>W258-0.6561</f>
         <v>0.11880000000000002</v>
       </c>
-      <c r="U258" s="1">
+      <c r="W258" s="1">
         <v>0.77490000000000003</v>
       </c>
     </row>
-    <row r="259" spans="1:25">
+    <row r="259" spans="1:27">
       <c r="A259" s="1" t="s">
         <v>76</v>
       </c>
@@ -11760,15 +11852,15 @@
       <c r="S259" s="1">
         <v>1.8444</v>
       </c>
-      <c r="T259" s="1">
-        <f>U259-0.5454</f>
+      <c r="V259" s="1">
+        <f>W259-0.5454</f>
         <v>0.15820000000000001</v>
       </c>
-      <c r="U259" s="1">
+      <c r="W259" s="1">
         <v>0.7036</v>
       </c>
     </row>
-    <row r="260" spans="1:25">
+    <row r="260" spans="1:27">
       <c r="A260" s="1" t="s">
         <v>76</v>
       </c>
@@ -11803,15 +11895,15 @@
       <c r="S260" s="1">
         <v>2.1627999999999998</v>
       </c>
-      <c r="T260" s="1">
-        <f>U260-0.6561</f>
+      <c r="V260" s="1">
+        <f>W260-0.6561</f>
         <v>0.1512</v>
       </c>
-      <c r="U260" s="1">
+      <c r="W260" s="1">
         <v>0.80730000000000002</v>
       </c>
     </row>
-    <row r="261" spans="1:25">
+    <row r="261" spans="1:27">
       <c r="A261" s="1" t="s">
         <v>76</v>
       </c>
@@ -11846,15 +11938,15 @@
       <c r="S261" s="1">
         <v>1.6535</v>
       </c>
-      <c r="T261" s="1">
-        <f>U261-0.5454</f>
+      <c r="V261" s="1">
+        <f>W261-0.5454</f>
         <v>3.6800000000000055E-2</v>
       </c>
-      <c r="U261" s="1">
+      <c r="W261" s="1">
         <v>0.58220000000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:25">
+    <row r="262" spans="1:27">
       <c r="A262" s="1" t="s">
         <v>76</v>
       </c>
@@ -11889,15 +11981,15 @@
       <c r="S262" s="1">
         <v>1.9682999999999999</v>
       </c>
-      <c r="T262" s="1">
-        <f>U262-0.6561</f>
+      <c r="V262" s="1">
+        <f>W262-0.6561</f>
         <v>4.0599999999999969E-2</v>
       </c>
-      <c r="U262" s="1">
+      <c r="W262" s="1">
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="263" spans="1:25">
+    <row r="263" spans="1:27">
       <c r="A263" s="1" t="s">
         <v>76</v>
       </c>
@@ -11932,15 +12024,15 @@
       <c r="S263" s="1">
         <v>1.5127999999999999</v>
       </c>
-      <c r="T263" s="1">
-        <f>U263-0.5454</f>
+      <c r="V263" s="1">
+        <f>W263-0.5454</f>
         <v>1.8199999999999994E-2</v>
       </c>
-      <c r="U263" s="1">
+      <c r="W263" s="1">
         <v>0.56359999999999999</v>
       </c>
     </row>
-    <row r="264" spans="1:25">
+    <row r="264" spans="1:27">
       <c r="A264" s="1" t="s">
         <v>76</v>
       </c>
@@ -11975,15 +12067,15 @@
       <c r="S264" s="1">
         <v>1.7997000000000001</v>
       </c>
-      <c r="T264" s="1">
-        <f>U264-0.6561</f>
+      <c r="V264" s="1">
+        <f>W264-0.6561</f>
         <v>2.1900000000000031E-2</v>
       </c>
-      <c r="U264" s="1">
+      <c r="W264" s="1">
         <v>0.67800000000000005</v>
       </c>
     </row>
-    <row r="265" spans="1:25">
+    <row r="265" spans="1:27">
       <c r="A265" s="1" t="s">
         <v>90</v>
       </c>
@@ -12015,15 +12107,15 @@
       <c r="S265" s="1">
         <v>1.78</v>
       </c>
-      <c r="X265" s="1">
-        <f>Y265-0.1411</f>
+      <c r="Z265" s="1">
+        <f>AA265-0.1411</f>
         <v>0.11299999999999999</v>
       </c>
-      <c r="Y265" s="1">
+      <c r="AA265" s="1">
         <v>0.25409999999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:25">
+    <row r="266" spans="1:27">
       <c r="A266" s="1" t="s">
         <v>90</v>
       </c>
@@ -12055,15 +12147,15 @@
       <c r="S266" s="1">
         <v>1.61</v>
       </c>
-      <c r="X266" s="1">
-        <f>Y266-0.1411</f>
+      <c r="Z266" s="1">
+        <f>AA266-0.1411</f>
         <v>2.1500000000000019E-2</v>
       </c>
-      <c r="Y266" s="1">
+      <c r="AA266" s="1">
         <v>0.16260000000000002</v>
       </c>
     </row>
-    <row r="267" spans="1:25">
+    <row r="267" spans="1:27">
       <c r="A267" s="1" t="s">
         <v>90</v>
       </c>
@@ -12095,15 +12187,15 @@
       <c r="S267" s="1">
         <v>1.61</v>
       </c>
-      <c r="X267" s="1">
-        <f>Y267-0.1411</f>
+      <c r="Z267" s="1">
+        <f>AA267-0.1411</f>
         <v>1.6399999999999998E-2</v>
       </c>
-      <c r="Y267" s="1">
+      <c r="AA267" s="1">
         <v>0.1575</v>
       </c>
     </row>
-    <row r="268" spans="1:25">
+    <row r="268" spans="1:27">
       <c r="A268" s="1" t="s">
         <v>90</v>
       </c>
@@ -12135,15 +12227,15 @@
       <c r="S268" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="X268" s="1">
-        <f t="shared" ref="X268:X280" si="4">Y268-0.1411</f>
+      <c r="Z268" s="1">
+        <f t="shared" ref="Z268:Z280" si="4">AA268-0.1411</f>
         <v>0.1678</v>
       </c>
-      <c r="Y268" s="1">
+      <c r="AA268" s="1">
         <v>0.30890000000000001</v>
       </c>
     </row>
-    <row r="269" spans="1:25">
+    <row r="269" spans="1:27">
       <c r="A269" s="1" t="s">
         <v>90</v>
       </c>
@@ -12175,15 +12267,15 @@
       <c r="S269" s="1">
         <v>1.78</v>
       </c>
-      <c r="X269" s="1">
+      <c r="Z269" s="1">
         <f t="shared" si="4"/>
         <v>-5.3400000000000003E-2</v>
       </c>
-      <c r="Y269" s="1">
+      <c r="AA269" s="1">
         <v>8.77E-2</v>
       </c>
     </row>
-    <row r="270" spans="1:25">
+    <row r="270" spans="1:27">
       <c r="A270" s="1" t="s">
         <v>90</v>
       </c>
@@ -12215,15 +12307,15 @@
       <c r="S270" s="1">
         <v>2.04</v>
       </c>
-      <c r="X270" s="1">
+      <c r="Z270" s="1">
         <f t="shared" si="4"/>
         <v>8.9900000000000008E-2</v>
       </c>
-      <c r="Y270" s="1">
+      <c r="AA270" s="1">
         <v>0.23100000000000001</v>
       </c>
     </row>
-    <row r="271" spans="1:25">
+    <row r="271" spans="1:27">
       <c r="A271" s="1" t="s">
         <v>90</v>
       </c>
@@ -12255,15 +12347,15 @@
       <c r="S271" s="1">
         <v>2.14</v>
       </c>
-      <c r="X271" s="1">
+      <c r="Z271" s="1">
         <f t="shared" si="4"/>
         <v>0.18459999999999999</v>
       </c>
-      <c r="Y271" s="1">
+      <c r="AA271" s="1">
         <v>0.32569999999999999</v>
       </c>
     </row>
-    <row r="272" spans="1:25">
+    <row r="272" spans="1:27">
       <c r="A272" s="1" t="s">
         <v>90</v>
       </c>
@@ -12277,7 +12369,7 @@
         <v>102</v>
       </c>
       <c r="E272" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F272" s="1" t="s">
         <v>87</v>
@@ -12295,15 +12387,15 @@
       <c r="S272" s="1">
         <v>2.13</v>
       </c>
-      <c r="X272" s="1">
+      <c r="Z272" s="1">
         <f t="shared" si="4"/>
         <v>0.1346</v>
       </c>
-      <c r="Y272" s="1">
+      <c r="AA272" s="1">
         <v>0.2757</v>
       </c>
     </row>
-    <row r="273" spans="1:25">
+    <row r="273" spans="1:27">
       <c r="A273" s="1" t="s">
         <v>90</v>
       </c>
@@ -12317,7 +12409,7 @@
         <v>103</v>
       </c>
       <c r="E273" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F273" s="1" t="s">
         <v>87</v>
@@ -12335,15 +12427,15 @@
       <c r="S273" s="1">
         <v>1.96</v>
       </c>
-      <c r="X273" s="1">
+      <c r="Z273" s="1">
         <f t="shared" si="4"/>
         <v>0.19140000000000001</v>
       </c>
-      <c r="Y273" s="1">
+      <c r="AA273" s="1">
         <v>0.33250000000000002</v>
       </c>
     </row>
-    <row r="274" spans="1:25">
+    <row r="274" spans="1:27">
       <c r="A274" s="1" t="s">
         <v>90</v>
       </c>
@@ -12357,7 +12449,7 @@
         <v>104</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F274" s="1" t="s">
         <v>87</v>
@@ -12375,15 +12467,15 @@
       <c r="S274" s="1">
         <v>1.94</v>
       </c>
-      <c r="X274" s="1">
+      <c r="Z274" s="1">
         <f t="shared" si="4"/>
         <v>0.18020000000000003</v>
       </c>
-      <c r="Y274" s="1">
+      <c r="AA274" s="1">
         <v>0.32130000000000003</v>
       </c>
     </row>
-    <row r="275" spans="1:25">
+    <row r="275" spans="1:27">
       <c r="A275" s="1" t="s">
         <v>90</v>
       </c>
@@ -12397,7 +12489,7 @@
         <v>105</v>
       </c>
       <c r="E275" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F275" s="1" t="s">
         <v>87</v>
@@ -12415,15 +12507,15 @@
       <c r="S275" s="1">
         <v>2.11</v>
       </c>
-      <c r="X275" s="1">
+      <c r="Z275" s="1">
         <f t="shared" si="4"/>
         <v>0.18780000000000002</v>
       </c>
-      <c r="Y275" s="1">
+      <c r="AA275" s="1">
         <v>0.32890000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:25">
+    <row r="276" spans="1:27">
       <c r="A276" s="1" t="s">
         <v>90</v>
       </c>
@@ -12437,7 +12529,7 @@
         <v>106</v>
       </c>
       <c r="E276" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F276" s="1" t="s">
         <v>87</v>
@@ -12455,15 +12547,15 @@
       <c r="S276" s="1">
         <v>1.65</v>
       </c>
-      <c r="X276" s="1">
+      <c r="Z276" s="1">
         <f t="shared" si="4"/>
         <v>0.15359999999999996</v>
       </c>
-      <c r="Y276" s="1">
+      <c r="AA276" s="1">
         <v>0.29469999999999996</v>
       </c>
     </row>
-    <row r="277" spans="1:25">
+    <row r="277" spans="1:27">
       <c r="A277" s="1" t="s">
         <v>90</v>
       </c>
@@ -12477,7 +12569,7 @@
         <v>107</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>87</v>
@@ -12495,15 +12587,15 @@
       <c r="S277" s="1">
         <v>2.11</v>
       </c>
-      <c r="X277" s="1">
+      <c r="Z277" s="1">
         <f t="shared" si="4"/>
         <v>0.18549999999999994</v>
       </c>
-      <c r="Y277" s="1">
+      <c r="AA277" s="1">
         <v>0.32659999999999995</v>
       </c>
     </row>
-    <row r="278" spans="1:25">
+    <row r="278" spans="1:27">
       <c r="A278" s="1" t="s">
         <v>90</v>
       </c>
@@ -12517,7 +12609,7 @@
         <v>108</v>
       </c>
       <c r="E278" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F278" s="1" t="s">
         <v>87</v>
@@ -12535,15 +12627,15 @@
       <c r="S278" s="1">
         <v>2.15</v>
       </c>
-      <c r="X278" s="1">
+      <c r="Z278" s="1">
         <f t="shared" si="4"/>
         <v>0.21950000000000003</v>
       </c>
-      <c r="Y278" s="1">
+      <c r="AA278" s="1">
         <v>0.36060000000000003</v>
       </c>
     </row>
-    <row r="279" spans="1:25">
+    <row r="279" spans="1:27">
       <c r="A279" s="1" t="s">
         <v>90</v>
       </c>
@@ -12575,15 +12667,15 @@
       <c r="S279" s="1">
         <v>2.17</v>
       </c>
-      <c r="X279" s="1">
+      <c r="Z279" s="1">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="Y279" s="1">
+      <c r="AA279" s="1">
         <v>0.2051</v>
       </c>
     </row>
-    <row r="280" spans="1:25">
+    <row r="280" spans="1:27">
       <c r="A280" s="1" t="s">
         <v>90</v>
       </c>
@@ -12615,15 +12707,15 @@
       <c r="S280" s="1">
         <v>1.97</v>
       </c>
-      <c r="X280" s="1">
+      <c r="Z280" s="1">
         <f t="shared" si="4"/>
         <v>0.18149999999999999</v>
       </c>
-      <c r="Y280" s="1">
+      <c r="AA280" s="1">
         <v>0.3226</v>
       </c>
     </row>
-    <row r="281" spans="1:25">
+    <row r="281" spans="1:27">
       <c r="A281" s="1" t="s">
         <v>90</v>
       </c>
@@ -12655,15 +12747,15 @@
       <c r="S281" s="1">
         <v>2.29</v>
       </c>
-      <c r="X281" s="1">
-        <f>Y281-0.2216</f>
+      <c r="Z281" s="1">
+        <f>AA281-0.2216</f>
         <v>0.14720000000000003</v>
       </c>
-      <c r="Y281" s="1">
+      <c r="AA281" s="1">
         <v>0.36880000000000002</v>
       </c>
     </row>
-    <row r="282" spans="1:25">
+    <row r="282" spans="1:27">
       <c r="A282" s="1" t="s">
         <v>90</v>
       </c>
@@ -12695,15 +12787,15 @@
       <c r="S282" s="1">
         <v>2.08</v>
       </c>
-      <c r="X282" s="1">
-        <f t="shared" ref="X282:X296" si="6">Y282-0.2216</f>
+      <c r="Z282" s="1">
+        <f t="shared" ref="Z282:Z296" si="6">AA282-0.2216</f>
         <v>3.2800000000000024E-2</v>
       </c>
-      <c r="Y282" s="1">
+      <c r="AA282" s="1">
         <v>0.25440000000000002</v>
       </c>
     </row>
-    <row r="283" spans="1:25">
+    <row r="283" spans="1:27">
       <c r="A283" s="1" t="s">
         <v>90</v>
       </c>
@@ -12735,15 +12827,15 @@
       <c r="S283" s="1">
         <v>2</v>
       </c>
-      <c r="X283" s="1">
+      <c r="Z283" s="1">
         <f t="shared" si="6"/>
         <v>2.6700000000000002E-2</v>
       </c>
-      <c r="Y283" s="1">
+      <c r="AA283" s="1">
         <v>0.24829999999999999</v>
       </c>
     </row>
-    <row r="284" spans="1:25">
+    <row r="284" spans="1:27">
       <c r="A284" s="1" t="s">
         <v>90</v>
       </c>
@@ -12775,15 +12867,15 @@
       <c r="S284" s="1">
         <v>2.42</v>
       </c>
-      <c r="X284" s="1">
+      <c r="Z284" s="1">
         <f t="shared" si="6"/>
         <v>0.21049999999999999</v>
       </c>
-      <c r="Y284" s="1">
+      <c r="AA284" s="1">
         <v>0.43209999999999998</v>
       </c>
     </row>
-    <row r="285" spans="1:25">
+    <row r="285" spans="1:27">
       <c r="A285" s="1" t="s">
         <v>90</v>
       </c>
@@ -12815,15 +12907,15 @@
       <c r="S285" s="1">
         <v>2.23</v>
       </c>
-      <c r="X285" s="1">
+      <c r="Z285" s="1">
         <f t="shared" si="6"/>
         <v>-5.3999999999999965E-2</v>
       </c>
-      <c r="Y285" s="1">
+      <c r="AA285" s="1">
         <v>0.16760000000000003</v>
       </c>
     </row>
-    <row r="286" spans="1:25">
+    <row r="286" spans="1:27">
       <c r="A286" s="1" t="s">
         <v>90</v>
       </c>
@@ -12855,15 +12947,15 @@
       <c r="S286" s="1">
         <v>2.41</v>
       </c>
-      <c r="X286" s="1">
+      <c r="Z286" s="1">
         <f t="shared" si="6"/>
         <v>0.10529999999999998</v>
       </c>
-      <c r="Y286" s="1">
+      <c r="AA286" s="1">
         <v>0.32689999999999997</v>
       </c>
     </row>
-    <row r="287" spans="1:25">
+    <row r="287" spans="1:27">
       <c r="A287" s="1" t="s">
         <v>90</v>
       </c>
@@ -12895,15 +12987,15 @@
       <c r="S287" s="1">
         <v>2.57</v>
       </c>
-      <c r="X287" s="1">
+      <c r="Z287" s="1">
         <f t="shared" si="6"/>
         <v>0.22490000000000002</v>
       </c>
-      <c r="Y287" s="1">
+      <c r="AA287" s="1">
         <v>0.44650000000000001</v>
       </c>
     </row>
-    <row r="288" spans="1:25">
+    <row r="288" spans="1:27">
       <c r="A288" s="1" t="s">
         <v>90</v>
       </c>
@@ -12917,7 +13009,7 @@
         <v>102</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F288" s="1" t="s">
         <v>87</v>
@@ -12935,15 +13027,15 @@
       <c r="S288" s="1">
         <v>2.54</v>
       </c>
-      <c r="X288" s="1">
+      <c r="Z288" s="1">
         <f t="shared" si="6"/>
         <v>0.17889999999999998</v>
       </c>
-      <c r="Y288" s="1">
+      <c r="AA288" s="1">
         <v>0.40049999999999997</v>
       </c>
     </row>
-    <row r="289" spans="1:25">
+    <row r="289" spans="1:27">
       <c r="A289" s="1" t="s">
         <v>90</v>
       </c>
@@ -12957,7 +13049,7 @@
         <v>103</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F289" s="1" t="s">
         <v>87</v>
@@ -12975,15 +13067,15 @@
       <c r="S289" s="1">
         <v>2.42</v>
       </c>
-      <c r="X289" s="1">
+      <c r="Z289" s="1">
         <f t="shared" si="6"/>
         <v>0.20699999999999999</v>
       </c>
-      <c r="Y289" s="1">
+      <c r="AA289" s="1">
         <v>0.42859999999999998</v>
       </c>
     </row>
-    <row r="290" spans="1:25">
+    <row r="290" spans="1:27">
       <c r="A290" s="1" t="s">
         <v>90</v>
       </c>
@@ -12997,7 +13089,7 @@
         <v>104</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F290" s="1" t="s">
         <v>87</v>
@@ -13015,15 +13107,15 @@
       <c r="S290" s="1">
         <v>2.39</v>
       </c>
-      <c r="X290" s="1">
+      <c r="Z290" s="1">
         <f t="shared" si="6"/>
         <v>0.20040000000000005</v>
       </c>
-      <c r="Y290" s="1">
+      <c r="AA290" s="1">
         <v>0.42200000000000004</v>
       </c>
     </row>
-    <row r="291" spans="1:25">
+    <row r="291" spans="1:27">
       <c r="A291" s="1" t="s">
         <v>90</v>
       </c>
@@ -13037,7 +13129,7 @@
         <v>105</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F291" s="1" t="s">
         <v>87</v>
@@ -13055,15 +13147,15 @@
       <c r="S291" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="X291" s="1">
+      <c r="Z291" s="1">
         <f t="shared" si="6"/>
         <v>0.20819999999999997</v>
       </c>
-      <c r="Y291" s="1">
+      <c r="AA291" s="1">
         <v>0.42979999999999996</v>
       </c>
     </row>
-    <row r="292" spans="1:25">
+    <row r="292" spans="1:27">
       <c r="A292" s="1" t="s">
         <v>90</v>
       </c>
@@ -13077,7 +13169,7 @@
         <v>106</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F292" s="1" t="s">
         <v>87</v>
@@ -13095,15 +13187,15 @@
       <c r="S292" s="1">
         <v>2.15</v>
       </c>
-      <c r="X292" s="1">
+      <c r="Z292" s="1">
         <f t="shared" si="6"/>
         <v>0.14959999999999998</v>
       </c>
-      <c r="Y292" s="1">
+      <c r="AA292" s="1">
         <v>0.37119999999999997</v>
       </c>
     </row>
-    <row r="293" spans="1:25">
+    <row r="293" spans="1:27">
       <c r="A293" s="1" t="s">
         <v>90</v>
       </c>
@@ -13117,7 +13209,7 @@
         <v>107</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F293" s="1" t="s">
         <v>87</v>
@@ -13135,15 +13227,15 @@
       <c r="S293" s="1">
         <v>2.52</v>
       </c>
-      <c r="X293" s="1">
+      <c r="Z293" s="1">
         <f t="shared" si="6"/>
         <v>0.20730000000000001</v>
       </c>
-      <c r="Y293" s="1">
+      <c r="AA293" s="1">
         <v>0.4289</v>
       </c>
     </row>
-    <row r="294" spans="1:25">
+    <row r="294" spans="1:27">
       <c r="A294" s="1" t="s">
         <v>90</v>
       </c>
@@ -13157,7 +13249,7 @@
         <v>108</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F294" s="1" t="s">
         <v>87</v>
@@ -13175,15 +13267,15 @@
       <c r="S294" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="X294" s="1">
+      <c r="Z294" s="1">
         <f t="shared" si="6"/>
         <v>0.2392</v>
       </c>
-      <c r="Y294" s="1">
+      <c r="AA294" s="1">
         <v>0.46079999999999999</v>
       </c>
     </row>
-    <row r="295" spans="1:25">
+    <row r="295" spans="1:27">
       <c r="A295" s="1" t="s">
         <v>90</v>
       </c>
@@ -13215,15 +13307,15 @@
       <c r="S295" s="1">
         <v>2.6</v>
       </c>
-      <c r="X295" s="1">
+      <c r="Z295" s="1">
         <f t="shared" si="6"/>
         <v>9.080000000000002E-2</v>
       </c>
-      <c r="Y295" s="1">
+      <c r="AA295" s="1">
         <v>0.31240000000000001</v>
       </c>
     </row>
-    <row r="296" spans="1:25">
+    <row r="296" spans="1:27">
       <c r="A296" s="1" t="s">
         <v>90</v>
       </c>
@@ -13255,15 +13347,15 @@
       <c r="S296" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="X296" s="1">
+      <c r="Z296" s="1">
         <f t="shared" si="6"/>
         <v>0.18139999999999998</v>
       </c>
-      <c r="Y296" s="1">
+      <c r="AA296" s="1">
         <v>0.40299999999999997</v>
       </c>
     </row>
-    <row r="297" spans="1:25">
+    <row r="297" spans="1:27">
       <c r="A297" s="1" t="s">
         <v>90</v>
       </c>
@@ -13295,15 +13387,15 @@
       <c r="S297" s="1">
         <v>2.72</v>
       </c>
-      <c r="X297" s="1">
-        <f>Y297-0.33</f>
+      <c r="Z297" s="1">
+        <f>AA297-0.33</f>
         <v>0.13250000000000001</v>
       </c>
-      <c r="Y297" s="1">
+      <c r="AA297" s="1">
         <v>0.46250000000000002</v>
       </c>
     </row>
-    <row r="298" spans="1:25">
+    <row r="298" spans="1:27">
       <c r="A298" s="1" t="s">
         <v>90</v>
       </c>
@@ -13335,15 +13427,15 @@
       <c r="S298" s="1">
         <v>2.58</v>
       </c>
-      <c r="X298" s="1">
-        <f>Y298-0.33</f>
+      <c r="Z298" s="1">
+        <f>AA298-0.33</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="Y298" s="1">
+      <c r="AA298" s="1">
         <v>0.37840000000000001</v>
       </c>
     </row>
-    <row r="299" spans="1:25">
+    <row r="299" spans="1:27">
       <c r="A299" s="1" t="s">
         <v>90</v>
       </c>
@@ -13375,15 +13467,15 @@
       <c r="S299" s="1">
         <v>2.41</v>
       </c>
-      <c r="X299" s="1">
-        <f>Y299-0.33</f>
+      <c r="Z299" s="1">
+        <f>AA299-0.33</f>
         <v>3.4999999999999976E-2</v>
       </c>
-      <c r="Y299" s="1">
+      <c r="AA299" s="1">
         <v>0.36499999999999999</v>
       </c>
     </row>
-    <row r="300" spans="1:25">
+    <row r="300" spans="1:27">
       <c r="A300" s="1" t="s">
         <v>90</v>
       </c>
@@ -13415,15 +13507,15 @@
       <c r="S300" s="1">
         <v>2.79</v>
       </c>
-      <c r="X300" s="1">
-        <f t="shared" ref="X300:X312" si="8">Y300-0.33</f>
+      <c r="Z300" s="1">
+        <f t="shared" ref="Z300:Z312" si="8">AA300-0.33</f>
         <v>0.2152</v>
       </c>
-      <c r="Y300" s="1">
+      <c r="AA300" s="1">
         <v>0.54520000000000002</v>
       </c>
     </row>
-    <row r="301" spans="1:25">
+    <row r="301" spans="1:27">
       <c r="A301" s="1" t="s">
         <v>90</v>
       </c>
@@ -13455,15 +13547,15 @@
       <c r="S301" s="1">
         <v>2.64</v>
       </c>
-      <c r="X301" s="1">
+      <c r="Z301" s="1">
         <f t="shared" si="8"/>
         <v>-3.3999999999999975E-2</v>
       </c>
-      <c r="Y301" s="1">
+      <c r="AA301" s="1">
         <v>0.29600000000000004</v>
       </c>
     </row>
-    <row r="302" spans="1:25">
+    <row r="302" spans="1:27">
       <c r="A302" s="1" t="s">
         <v>90</v>
       </c>
@@ -13495,15 +13587,15 @@
       <c r="S302" s="1">
         <v>2.74</v>
       </c>
-      <c r="X302" s="1">
+      <c r="Z302" s="1">
         <f t="shared" si="8"/>
         <v>0.10609999999999997</v>
       </c>
-      <c r="Y302" s="1">
+      <c r="AA302" s="1">
         <v>0.43609999999999999</v>
       </c>
     </row>
-    <row r="303" spans="1:25">
+    <row r="303" spans="1:27">
       <c r="A303" s="1" t="s">
         <v>90</v>
       </c>
@@ -13535,15 +13627,15 @@
       <c r="S303" s="1">
         <v>2.93</v>
       </c>
-      <c r="X303" s="1">
+      <c r="Z303" s="1">
         <f t="shared" si="8"/>
         <v>0.22189999999999993</v>
       </c>
-      <c r="Y303" s="1">
+      <c r="AA303" s="1">
         <v>0.55189999999999995</v>
       </c>
     </row>
-    <row r="304" spans="1:25">
+    <row r="304" spans="1:27">
       <c r="A304" s="1" t="s">
         <v>90</v>
       </c>
@@ -13557,7 +13649,7 @@
         <v>102</v>
       </c>
       <c r="E304" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F304" s="1" t="s">
         <v>87</v>
@@ -13575,15 +13667,15 @@
       <c r="S304" s="1">
         <v>2.88</v>
       </c>
-      <c r="X304" s="1">
+      <c r="Z304" s="1">
         <f t="shared" si="8"/>
         <v>0.17740000000000006</v>
       </c>
-      <c r="Y304" s="1">
+      <c r="AA304" s="1">
         <v>0.50740000000000007</v>
       </c>
     </row>
-    <row r="305" spans="1:25">
+    <row r="305" spans="1:27">
       <c r="A305" s="1" t="s">
         <v>90</v>
       </c>
@@ -13597,7 +13689,7 @@
         <v>103</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F305" s="1" t="s">
         <v>87</v>
@@ -13615,15 +13707,15 @@
       <c r="S305" s="1">
         <v>2.84</v>
       </c>
-      <c r="X305" s="1">
+      <c r="Z305" s="1">
         <f t="shared" si="8"/>
         <v>0.19039999999999996</v>
       </c>
-      <c r="Y305" s="1">
+      <c r="AA305" s="1">
         <v>0.52039999999999997</v>
       </c>
     </row>
-    <row r="306" spans="1:25">
+    <row r="306" spans="1:27">
       <c r="A306" s="1" t="s">
         <v>90</v>
       </c>
@@ -13637,7 +13729,7 @@
         <v>104</v>
       </c>
       <c r="E306" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F306" s="1" t="s">
         <v>87</v>
@@ -13655,15 +13747,15 @@
       <c r="S306" s="1">
         <v>2.81</v>
       </c>
-      <c r="X306" s="1">
+      <c r="Z306" s="1">
         <f t="shared" si="8"/>
         <v>0.18869999999999992</v>
       </c>
-      <c r="Y306" s="1">
+      <c r="AA306" s="1">
         <v>0.51869999999999994</v>
       </c>
     </row>
-    <row r="307" spans="1:25">
+    <row r="307" spans="1:27">
       <c r="A307" s="1" t="s">
         <v>90</v>
       </c>
@@ -13677,7 +13769,7 @@
         <v>105</v>
       </c>
       <c r="E307" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F307" s="1" t="s">
         <v>87</v>
@@ -13695,15 +13787,15 @@
       <c r="S307" s="1">
         <v>2.9</v>
       </c>
-      <c r="X307" s="1">
+      <c r="Z307" s="1">
         <f t="shared" si="8"/>
         <v>0.20359999999999995</v>
       </c>
-      <c r="Y307" s="1">
+      <c r="AA307" s="1">
         <v>0.53359999999999996</v>
       </c>
     </row>
-    <row r="308" spans="1:25">
+    <row r="308" spans="1:27">
       <c r="A308" s="1" t="s">
         <v>90</v>
       </c>
@@ -13717,7 +13809,7 @@
         <v>106</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F308" s="1" t="s">
         <v>87</v>
@@ -13735,15 +13827,15 @@
       <c r="S308" s="1">
         <v>2.54</v>
       </c>
-      <c r="X308" s="1">
+      <c r="Z308" s="1">
         <f t="shared" si="8"/>
         <v>0.13109999999999999</v>
       </c>
-      <c r="Y308" s="1">
+      <c r="AA308" s="1">
         <v>0.46110000000000001</v>
       </c>
     </row>
-    <row r="309" spans="1:25">
+    <row r="309" spans="1:27">
       <c r="A309" s="1" t="s">
         <v>90</v>
       </c>
@@ -13757,7 +13849,7 @@
         <v>107</v>
       </c>
       <c r="E309" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F309" s="1" t="s">
         <v>87</v>
@@ -13775,15 +13867,15 @@
       <c r="S309" s="1">
         <v>2.88</v>
       </c>
-      <c r="X309" s="1">
+      <c r="Z309" s="1">
         <f t="shared" si="8"/>
         <v>0.21299999999999991</v>
       </c>
-      <c r="Y309" s="1">
+      <c r="AA309" s="1">
         <v>0.54299999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:25">
+    <row r="310" spans="1:27">
       <c r="A310" s="1" t="s">
         <v>90</v>
       </c>
@@ -13797,7 +13889,7 @@
         <v>108</v>
       </c>
       <c r="E310" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F310" s="1" t="s">
         <v>87</v>
@@ -13815,15 +13907,15 @@
       <c r="S310" s="1">
         <v>2.87</v>
       </c>
-      <c r="X310" s="1">
+      <c r="Z310" s="1">
         <f t="shared" si="8"/>
         <v>0.21789999999999993</v>
       </c>
-      <c r="Y310" s="1">
+      <c r="AA310" s="1">
         <v>0.54789999999999994</v>
       </c>
     </row>
-    <row r="311" spans="1:25">
+    <row r="311" spans="1:27">
       <c r="A311" s="1" t="s">
         <v>90</v>
       </c>
@@ -13855,15 +13947,15 @@
       <c r="S311" s="1">
         <v>2.97</v>
       </c>
-      <c r="X311" s="1">
+      <c r="Z311" s="1">
         <f t="shared" si="8"/>
         <v>9.7599999999999965E-2</v>
       </c>
-      <c r="Y311" s="1">
+      <c r="AA311" s="1">
         <v>0.42759999999999998</v>
       </c>
     </row>
-    <row r="312" spans="1:25">
+    <row r="312" spans="1:27">
       <c r="A312" s="1" t="s">
         <v>90</v>
       </c>
@@ -13895,15 +13987,15 @@
       <c r="S312" s="1">
         <v>2.64</v>
       </c>
-      <c r="X312" s="1">
+      <c r="Z312" s="1">
         <f t="shared" si="8"/>
         <v>0.15649999999999997</v>
       </c>
-      <c r="Y312" s="1">
+      <c r="AA312" s="1">
         <v>0.48649999999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:25">
+    <row r="313" spans="1:27">
       <c r="A313" s="1" t="s">
         <v>90</v>
       </c>
@@ -13935,15 +14027,15 @@
       <c r="S313" s="1">
         <v>3.17</v>
       </c>
-      <c r="X313" s="1">
-        <f>Y313-0.4531</f>
+      <c r="Z313" s="1">
+        <f>AA313-0.4531</f>
         <v>0.11300000000000004</v>
       </c>
-      <c r="Y313" s="1">
+      <c r="AA313" s="1">
         <v>0.56610000000000005</v>
       </c>
     </row>
-    <row r="314" spans="1:25">
+    <row r="314" spans="1:27">
       <c r="A314" s="1" t="s">
         <v>90</v>
       </c>
@@ -13975,15 +14067,15 @@
       <c r="S314" s="1">
         <v>2.97</v>
       </c>
-      <c r="X314" s="1">
-        <f t="shared" ref="X314" si="10">Y314-0.4531</f>
+      <c r="Z314" s="1">
+        <f t="shared" ref="Z314" si="10">AA314-0.4531</f>
         <v>6.750000000000006E-2</v>
       </c>
-      <c r="Y314" s="1">
+      <c r="AA314" s="1">
         <v>0.52060000000000006</v>
       </c>
     </row>
-    <row r="315" spans="1:25">
+    <row r="315" spans="1:27">
       <c r="A315" s="1" t="s">
         <v>90</v>
       </c>
@@ -14015,15 +14107,15 @@
       <c r="S315" s="1">
         <v>2.82</v>
       </c>
-      <c r="X315" s="1">
-        <f t="shared" ref="X315" si="11">Y315-0.4531</f>
+      <c r="Z315" s="1">
+        <f t="shared" ref="Z315" si="11">AA315-0.4531</f>
         <v>4.5099999999999973E-2</v>
       </c>
-      <c r="Y315" s="1">
+      <c r="AA315" s="1">
         <v>0.49819999999999998</v>
       </c>
     </row>
-    <row r="316" spans="1:25">
+    <row r="316" spans="1:27">
       <c r="A316" s="1" t="s">
         <v>90</v>
       </c>
@@ -14055,15 +14147,15 @@
       <c r="S316" s="1">
         <v>3.12</v>
       </c>
-      <c r="X316" s="1">
-        <f t="shared" ref="X316" si="12">Y316-0.4531</f>
+      <c r="Z316" s="1">
+        <f t="shared" ref="Z316" si="12">AA316-0.4531</f>
         <v>0.17829999999999996</v>
       </c>
-      <c r="Y316" s="1">
+      <c r="AA316" s="1">
         <v>0.63139999999999996</v>
       </c>
     </row>
-    <row r="317" spans="1:25">
+    <row r="317" spans="1:27">
       <c r="A317" s="1" t="s">
         <v>90</v>
       </c>
@@ -14095,15 +14187,15 @@
       <c r="S317" s="1">
         <v>3.07</v>
       </c>
-      <c r="X317" s="1">
-        <f t="shared" ref="X317" si="13">Y317-0.4531</f>
+      <c r="Z317" s="1">
+        <f t="shared" ref="Z317" si="13">AA317-0.4531</f>
         <v>-1.1399999999999966E-2</v>
       </c>
-      <c r="Y317" s="1">
+      <c r="AA317" s="1">
         <v>0.44170000000000004</v>
       </c>
     </row>
-    <row r="318" spans="1:25">
+    <row r="318" spans="1:27">
       <c r="A318" s="1" t="s">
         <v>90</v>
       </c>
@@ -14135,15 +14227,15 @@
       <c r="S318" s="1">
         <v>3.05</v>
       </c>
-      <c r="X318" s="1">
-        <f t="shared" ref="X318" si="14">Y318-0.4531</f>
+      <c r="Z318" s="1">
+        <f t="shared" ref="Z318" si="14">AA318-0.4531</f>
         <v>9.7299999999999998E-2</v>
       </c>
-      <c r="Y318" s="1">
+      <c r="AA318" s="1">
         <v>0.5504</v>
       </c>
     </row>
-    <row r="319" spans="1:25">
+    <row r="319" spans="1:27">
       <c r="A319" s="1" t="s">
         <v>90</v>
       </c>
@@ -14175,15 +14267,15 @@
       <c r="S319" s="1">
         <v>3.25</v>
       </c>
-      <c r="X319" s="1">
-        <f t="shared" ref="X319" si="15">Y319-0.4531</f>
+      <c r="Z319" s="1">
+        <f t="shared" ref="Z319" si="15">AA319-0.4531</f>
         <v>0.18209999999999998</v>
       </c>
-      <c r="Y319" s="1">
+      <c r="AA319" s="1">
         <v>0.63519999999999999</v>
       </c>
     </row>
-    <row r="320" spans="1:25">
+    <row r="320" spans="1:27">
       <c r="A320" s="1" t="s">
         <v>90</v>
       </c>
@@ -14197,7 +14289,7 @@
         <v>102</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F320" s="1" t="s">
         <v>87</v>
@@ -14215,15 +14307,15 @@
       <c r="S320" s="1">
         <v>3.17</v>
       </c>
-      <c r="X320" s="1">
-        <f t="shared" ref="X320" si="16">Y320-0.4531</f>
+      <c r="Z320" s="1">
+        <f t="shared" ref="Z320" si="16">AA320-0.4531</f>
         <v>0.15160000000000001</v>
       </c>
-      <c r="Y320" s="1">
+      <c r="AA320" s="1">
         <v>0.60470000000000002</v>
       </c>
     </row>
-    <row r="321" spans="1:25">
+    <row r="321" spans="1:27">
       <c r="A321" s="1" t="s">
         <v>90</v>
       </c>
@@ -14237,7 +14329,7 @@
         <v>103</v>
       </c>
       <c r="E321" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F321" s="1" t="s">
         <v>87</v>
@@ -14255,15 +14347,15 @@
       <c r="S321" s="1">
         <v>3.21</v>
       </c>
-      <c r="X321" s="1">
-        <f t="shared" ref="X321" si="17">Y321-0.4531</f>
+      <c r="Z321" s="1">
+        <f t="shared" ref="Z321" si="17">AA321-0.4531</f>
         <v>0.11890000000000006</v>
       </c>
-      <c r="Y321" s="1">
+      <c r="AA321" s="1">
         <v>0.57200000000000006</v>
       </c>
     </row>
-    <row r="322" spans="1:25">
+    <row r="322" spans="1:27">
       <c r="A322" s="1" t="s">
         <v>90</v>
       </c>
@@ -14277,7 +14369,7 @@
         <v>104</v>
       </c>
       <c r="E322" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F322" s="1" t="s">
         <v>87</v>
@@ -14295,15 +14387,15 @@
       <c r="S322" s="1">
         <v>3.2</v>
       </c>
-      <c r="X322" s="1">
-        <f t="shared" ref="X322" si="18">Y322-0.4531</f>
+      <c r="Z322" s="1">
+        <f t="shared" ref="Z322" si="18">AA322-0.4531</f>
         <v>0.11459999999999998</v>
       </c>
-      <c r="Y322" s="1">
+      <c r="AA322" s="1">
         <v>0.56769999999999998</v>
       </c>
     </row>
-    <row r="323" spans="1:25">
+    <row r="323" spans="1:27">
       <c r="A323" s="1" t="s">
         <v>90</v>
       </c>
@@ -14317,7 +14409,7 @@
         <v>105</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>87</v>
@@ -14335,15 +14427,15 @@
       <c r="S323" s="1">
         <v>3.25</v>
       </c>
-      <c r="X323" s="1">
-        <f t="shared" ref="X323" si="19">Y323-0.4531</f>
+      <c r="Z323" s="1">
+        <f t="shared" ref="Z323" si="19">AA323-0.4531</f>
         <v>0.14299999999999996</v>
       </c>
-      <c r="Y323" s="1">
+      <c r="AA323" s="1">
         <v>0.59609999999999996</v>
       </c>
     </row>
-    <row r="324" spans="1:25">
+    <row r="324" spans="1:27">
       <c r="A324" s="1" t="s">
         <v>90</v>
       </c>
@@ -14357,7 +14449,7 @@
         <v>106</v>
       </c>
       <c r="E324" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F324" s="1" t="s">
         <v>87</v>
@@ -14375,15 +14467,15 @@
       <c r="S324" s="1">
         <v>2.88</v>
       </c>
-      <c r="X324" s="1">
-        <f t="shared" ref="X324" si="20">Y324-0.4531</f>
+      <c r="Z324" s="1">
+        <f t="shared" ref="Z324" si="20">AA324-0.4531</f>
         <v>8.4199999999999997E-2</v>
       </c>
-      <c r="Y324" s="1">
+      <c r="AA324" s="1">
         <v>0.5373</v>
       </c>
     </row>
-    <row r="325" spans="1:25">
+    <row r="325" spans="1:27">
       <c r="A325" s="1" t="s">
         <v>90</v>
       </c>
@@ -14397,7 +14489,7 @@
         <v>107</v>
       </c>
       <c r="E325" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F325" s="1" t="s">
         <v>87</v>
@@ -14415,15 +14507,15 @@
       <c r="S325" s="1">
         <v>3.2</v>
       </c>
-      <c r="X325" s="1">
-        <f t="shared" ref="X325" si="21">Y325-0.4531</f>
+      <c r="Z325" s="1">
+        <f t="shared" ref="Z325" si="21">AA325-0.4531</f>
         <v>0.16820000000000007</v>
       </c>
-      <c r="Y325" s="1">
+      <c r="AA325" s="1">
         <v>0.62130000000000007</v>
       </c>
     </row>
-    <row r="326" spans="1:25">
+    <row r="326" spans="1:27">
       <c r="A326" s="1" t="s">
         <v>90</v>
       </c>
@@ -14437,7 +14529,7 @@
         <v>108</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F326" s="1" t="s">
         <v>87</v>
@@ -14455,15 +14547,15 @@
       <c r="S326" s="1">
         <v>3.2</v>
       </c>
-      <c r="X326" s="1">
-        <f t="shared" ref="X326" si="22">Y326-0.4531</f>
+      <c r="Z326" s="1">
+        <f t="shared" ref="Z326" si="22">AA326-0.4531</f>
         <v>0.16499999999999998</v>
       </c>
-      <c r="Y326" s="1">
+      <c r="AA326" s="1">
         <v>0.61809999999999998</v>
       </c>
     </row>
-    <row r="327" spans="1:25">
+    <row r="327" spans="1:27">
       <c r="A327" s="1" t="s">
         <v>90</v>
       </c>
@@ -14495,15 +14587,15 @@
       <c r="S327" s="1">
         <v>3.34</v>
       </c>
-      <c r="X327" s="1">
-        <f t="shared" ref="X327" si="23">Y327-0.4531</f>
+      <c r="Z327" s="1">
+        <f t="shared" ref="Z327" si="23">AA327-0.4531</f>
         <v>6.5399999999999958E-2</v>
       </c>
-      <c r="Y327" s="1">
+      <c r="AA327" s="1">
         <v>0.51849999999999996</v>
       </c>
     </row>
-    <row r="328" spans="1:25">
+    <row r="328" spans="1:27">
       <c r="A328" s="1" t="s">
         <v>90</v>
       </c>
@@ -14535,15 +14627,15 @@
       <c r="S328" s="1">
         <v>3.02</v>
       </c>
-      <c r="X328" s="1">
-        <f t="shared" ref="X328" si="24">Y328-0.4531</f>
+      <c r="Z328" s="1">
+        <f t="shared" ref="Z328" si="24">AA328-0.4531</f>
         <v>0.11049999999999999</v>
       </c>
-      <c r="Y328" s="1">
+      <c r="AA328" s="1">
         <v>0.56359999999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:25">
+    <row r="329" spans="1:27">
       <c r="A329" s="1" t="s">
         <v>90</v>
       </c>
@@ -14575,15 +14667,15 @@
       <c r="S329" s="1">
         <v>3.58</v>
       </c>
-      <c r="X329" s="1">
-        <f>Y329-0.5595</f>
+      <c r="Z329" s="1">
+        <f>AA329-0.5595</f>
         <v>7.569999999999999E-2</v>
       </c>
-      <c r="Y329" s="1">
+      <c r="AA329" s="1">
         <v>0.63519999999999999</v>
       </c>
     </row>
-    <row r="330" spans="1:25">
+    <row r="330" spans="1:27">
       <c r="A330" s="1" t="s">
         <v>90</v>
       </c>
@@ -14615,15 +14707,15 @@
       <c r="S330" s="1">
         <v>3.21</v>
       </c>
-      <c r="X330" s="1">
-        <f t="shared" ref="X330" si="26">Y330-0.5595</f>
+      <c r="Z330" s="1">
+        <f t="shared" ref="Z330" si="26">AA330-0.5595</f>
         <v>4.930000000000001E-2</v>
       </c>
-      <c r="Y330" s="1">
+      <c r="AA330" s="1">
         <v>0.60880000000000001</v>
       </c>
     </row>
-    <row r="331" spans="1:25">
+    <row r="331" spans="1:27">
       <c r="A331" s="1" t="s">
         <v>90</v>
       </c>
@@ -14655,15 +14747,15 @@
       <c r="S331" s="1">
         <v>3.21</v>
       </c>
-      <c r="X331" s="1">
-        <f t="shared" ref="X331" si="27">Y331-0.5595</f>
+      <c r="Z331" s="1">
+        <f t="shared" ref="Z331" si="27">AA331-0.5595</f>
         <v>6.1499999999999999E-2</v>
       </c>
-      <c r="Y331" s="1">
+      <c r="AA331" s="1">
         <v>0.621</v>
       </c>
     </row>
-    <row r="332" spans="1:25">
+    <row r="332" spans="1:27">
       <c r="A332" s="1" t="s">
         <v>90</v>
       </c>
@@ -14695,15 +14787,15 @@
       <c r="S332" s="1">
         <v>3.43</v>
       </c>
-      <c r="X332" s="1">
-        <f t="shared" ref="X332" si="28">Y332-0.5595</f>
+      <c r="Z332" s="1">
+        <f t="shared" ref="Z332" si="28">AA332-0.5595</f>
         <v>0.12239999999999995</v>
       </c>
-      <c r="Y332" s="1">
+      <c r="AA332" s="1">
         <v>0.68189999999999995</v>
       </c>
     </row>
-    <row r="333" spans="1:25">
+    <row r="333" spans="1:27">
       <c r="A333" s="1" t="s">
         <v>90</v>
       </c>
@@ -14735,15 +14827,15 @@
       <c r="S333" s="1">
         <v>3.45</v>
       </c>
-      <c r="X333" s="1">
-        <f t="shared" ref="X333" si="29">Y333-0.5595</f>
+      <c r="Z333" s="1">
+        <f t="shared" ref="Z333" si="29">AA333-0.5595</f>
         <v>2.8000000000000247E-3</v>
       </c>
-      <c r="Y333" s="1">
+      <c r="AA333" s="1">
         <v>0.56230000000000002</v>
       </c>
     </row>
-    <row r="334" spans="1:25">
+    <row r="334" spans="1:27">
       <c r="A334" s="1" t="s">
         <v>90</v>
       </c>
@@ -14775,15 +14867,15 @@
       <c r="S334" s="1">
         <v>3.33</v>
       </c>
-      <c r="X334" s="1">
-        <f t="shared" ref="X334" si="30">Y334-0.5595</f>
+      <c r="Z334" s="1">
+        <f t="shared" ref="Z334" si="30">AA334-0.5595</f>
         <v>7.7200000000000046E-2</v>
       </c>
-      <c r="Y334" s="1">
+      <c r="AA334" s="1">
         <v>0.63670000000000004</v>
       </c>
     </row>
-    <row r="335" spans="1:25">
+    <row r="335" spans="1:27">
       <c r="A335" s="1" t="s">
         <v>90</v>
       </c>
@@ -14815,15 +14907,15 @@
       <c r="S335" s="1">
         <v>3.58</v>
       </c>
-      <c r="X335" s="1">
-        <f t="shared" ref="X335" si="31">Y335-0.5595</f>
+      <c r="Z335" s="1">
+        <f t="shared" ref="Z335" si="31">AA335-0.5595</f>
         <v>0.12080000000000002</v>
       </c>
-      <c r="Y335" s="1">
+      <c r="AA335" s="1">
         <v>0.68030000000000002</v>
       </c>
     </row>
-    <row r="336" spans="1:25">
+    <row r="336" spans="1:27">
       <c r="A336" s="1" t="s">
         <v>90</v>
       </c>
@@ -14837,7 +14929,7 @@
         <v>102</v>
       </c>
       <c r="E336" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F336" s="1" t="s">
         <v>87</v>
@@ -14855,15 +14947,15 @@
       <c r="S336" s="1">
         <v>3.45</v>
       </c>
-      <c r="X336" s="1">
-        <f t="shared" ref="X336" si="32">Y336-0.5595</f>
+      <c r="Z336" s="1">
+        <f t="shared" ref="Z336" si="32">AA336-0.5595</f>
         <v>0.10980000000000012</v>
       </c>
-      <c r="Y336" s="1">
+      <c r="AA336" s="1">
         <v>0.66930000000000012</v>
       </c>
     </row>
-    <row r="337" spans="1:25">
+    <row r="337" spans="1:27">
       <c r="A337" s="1" t="s">
         <v>90</v>
       </c>
@@ -14877,7 +14969,7 @@
         <v>103</v>
       </c>
       <c r="E337" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F337" s="1" t="s">
         <v>87</v>
@@ -14895,15 +14987,15 @@
       <c r="S337" s="1">
         <v>3.54</v>
       </c>
-      <c r="X337" s="1">
-        <f t="shared" ref="X337" si="33">Y337-0.5595</f>
+      <c r="Z337" s="1">
+        <f t="shared" ref="Z337" si="33">AA337-0.5595</f>
         <v>5.8099999999999929E-2</v>
       </c>
-      <c r="Y337" s="1">
+      <c r="AA337" s="1">
         <v>0.61759999999999993</v>
       </c>
     </row>
-    <row r="338" spans="1:25">
+    <row r="338" spans="1:27">
       <c r="A338" s="1" t="s">
         <v>90</v>
       </c>
@@ -14917,7 +15009,7 @@
         <v>104</v>
       </c>
       <c r="E338" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F338" s="1" t="s">
         <v>87</v>
@@ -14935,15 +15027,15 @@
       <c r="S338" s="1">
         <v>3.52</v>
       </c>
-      <c r="X338" s="1">
-        <f t="shared" ref="X338" si="34">Y338-0.5595</f>
+      <c r="Z338" s="1">
+        <f t="shared" ref="Z338" si="34">AA338-0.5595</f>
         <v>5.1100000000000034E-2</v>
       </c>
-      <c r="Y338" s="1">
+      <c r="AA338" s="1">
         <v>0.61060000000000003</v>
       </c>
     </row>
-    <row r="339" spans="1:25">
+    <row r="339" spans="1:27">
       <c r="A339" s="1" t="s">
         <v>90</v>
       </c>
@@ -14957,7 +15049,7 @@
         <v>105</v>
       </c>
       <c r="E339" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F339" s="1" t="s">
         <v>87</v>
@@ -14975,15 +15067,15 @@
       <c r="S339" s="1">
         <v>3.55</v>
       </c>
-      <c r="X339" s="1">
-        <f t="shared" ref="X339" si="35">Y339-0.5595</f>
+      <c r="Z339" s="1">
+        <f t="shared" ref="Z339" si="35">AA339-0.5595</f>
         <v>9.0300000000000047E-2</v>
       </c>
-      <c r="Y339" s="1">
+      <c r="AA339" s="1">
         <v>0.64980000000000004</v>
       </c>
     </row>
-    <row r="340" spans="1:25">
+    <row r="340" spans="1:27">
       <c r="A340" s="1" t="s">
         <v>90</v>
       </c>
@@ -14997,7 +15089,7 @@
         <v>106</v>
       </c>
       <c r="E340" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F340" s="1" t="s">
         <v>87</v>
@@ -15015,15 +15107,15 @@
       <c r="S340" s="1">
         <v>3.26</v>
       </c>
-      <c r="X340" s="1">
-        <f t="shared" ref="X340" si="36">Y340-0.5595</f>
+      <c r="Z340" s="1">
+        <f t="shared" ref="Z340" si="36">AA340-0.5595</f>
         <v>6.4100000000000046E-2</v>
       </c>
-      <c r="Y340" s="1">
+      <c r="AA340" s="1">
         <v>0.62360000000000004</v>
       </c>
     </row>
-    <row r="341" spans="1:25">
+    <row r="341" spans="1:27">
       <c r="A341" s="1" t="s">
         <v>90</v>
       </c>
@@ -15037,7 +15129,7 @@
         <v>107</v>
       </c>
       <c r="E341" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F341" s="1" t="s">
         <v>87</v>
@@ -15055,15 +15147,15 @@
       <c r="S341" s="1">
         <v>3.51</v>
       </c>
-      <c r="X341" s="1">
-        <f t="shared" ref="X341" si="37">Y341-0.5595</f>
+      <c r="Z341" s="1">
+        <f t="shared" ref="Z341" si="37">AA341-0.5595</f>
         <v>0.1070000000000001</v>
       </c>
-      <c r="Y341" s="1">
+      <c r="AA341" s="1">
         <v>0.66650000000000009</v>
       </c>
     </row>
-    <row r="342" spans="1:25">
+    <row r="342" spans="1:27">
       <c r="A342" s="1" t="s">
         <v>90</v>
       </c>
@@ -15077,7 +15169,7 @@
         <v>108</v>
       </c>
       <c r="E342" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F342" s="1" t="s">
         <v>87</v>
@@ -15095,15 +15187,15 @@
       <c r="S342" s="1">
         <v>3.51</v>
       </c>
-      <c r="X342" s="1">
-        <f t="shared" ref="X342" si="38">Y342-0.5595</f>
+      <c r="Z342" s="1">
+        <f t="shared" ref="Z342" si="38">AA342-0.5595</f>
         <v>9.5700000000000007E-2</v>
       </c>
-      <c r="Y342" s="1">
+      <c r="AA342" s="1">
         <v>0.6552</v>
       </c>
     </row>
-    <row r="343" spans="1:25">
+    <row r="343" spans="1:27">
       <c r="A343" s="1" t="s">
         <v>90</v>
       </c>
@@ -15135,15 +15227,15 @@
       <c r="S343" s="1">
         <v>3.66</v>
       </c>
-      <c r="X343" s="1">
-        <f t="shared" ref="X343" si="39">Y343-0.5595</f>
+      <c r="Z343" s="1">
+        <f t="shared" ref="Z343" si="39">AA343-0.5595</f>
         <v>4.6300000000000008E-2</v>
       </c>
-      <c r="Y343" s="1">
+      <c r="AA343" s="1">
         <v>0.60580000000000001</v>
       </c>
     </row>
-    <row r="344" spans="1:25">
+    <row r="344" spans="1:27">
       <c r="A344" s="1" t="s">
         <v>90</v>
       </c>
@@ -15175,15 +15267,15 @@
       <c r="S344" s="1">
         <v>3.4</v>
       </c>
-      <c r="X344" s="1">
-        <f t="shared" ref="X344" si="40">Y344-0.5595</f>
+      <c r="Z344" s="1">
+        <f t="shared" ref="Z344" si="40">AA344-0.5595</f>
         <v>6.4400000000000013E-2</v>
       </c>
-      <c r="Y344" s="1">
+      <c r="AA344" s="1">
         <v>0.62390000000000001</v>
       </c>
     </row>
-    <row r="345" spans="1:25">
+    <row r="345" spans="1:27">
       <c r="A345" s="1" t="s">
         <v>90</v>
       </c>
@@ -15215,15 +15307,15 @@
       <c r="S345" s="1">
         <v>3.9</v>
       </c>
-      <c r="X345" s="1">
-        <f>Y345-0.6473</f>
+      <c r="Z345" s="1">
+        <f>AA345-0.6473</f>
         <v>4.1000000000000036E-2</v>
       </c>
-      <c r="Y345" s="1">
+      <c r="AA345" s="1">
         <v>0.68830000000000002</v>
       </c>
     </row>
-    <row r="346" spans="1:25">
+    <row r="346" spans="1:27">
       <c r="A346" s="1" t="s">
         <v>90</v>
       </c>
@@ -15255,15 +15347,15 @@
       <c r="S346" s="1">
         <v>3.38</v>
       </c>
-      <c r="X346" s="1">
-        <f t="shared" ref="X346" si="42">Y346-0.6473</f>
+      <c r="Z346" s="1">
+        <f t="shared" ref="Z346" si="42">AA346-0.6473</f>
         <v>1.8800000000000039E-2</v>
       </c>
-      <c r="Y346" s="1">
+      <c r="AA346" s="1">
         <v>0.66610000000000003</v>
       </c>
     </row>
-    <row r="347" spans="1:25">
+    <row r="347" spans="1:27">
       <c r="A347" s="1" t="s">
         <v>90</v>
       </c>
@@ -15295,15 +15387,15 @@
       <c r="S347" s="1">
         <v>3.58</v>
       </c>
-      <c r="X347" s="1">
-        <f t="shared" ref="X347" si="43">Y347-0.6473</f>
+      <c r="Z347" s="1">
+        <f t="shared" ref="Z347" si="43">AA347-0.6473</f>
         <v>5.3200000000000025E-2</v>
       </c>
-      <c r="Y347" s="1">
+      <c r="AA347" s="1">
         <v>0.70050000000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:25">
+    <row r="348" spans="1:27">
       <c r="A348" s="1" t="s">
         <v>90</v>
       </c>
@@ -15335,15 +15427,15 @@
       <c r="S348" s="1">
         <v>3.72</v>
       </c>
-      <c r="X348" s="1">
-        <f t="shared" ref="X348" si="44">Y348-0.6473</f>
+      <c r="Z348" s="1">
+        <f t="shared" ref="Z348" si="44">AA348-0.6473</f>
         <v>7.46E-2</v>
       </c>
-      <c r="Y348" s="1">
+      <c r="AA348" s="1">
         <v>0.72189999999999999</v>
       </c>
     </row>
-    <row r="349" spans="1:25">
+    <row r="349" spans="1:27">
       <c r="A349" s="1" t="s">
         <v>90</v>
       </c>
@@ -15375,15 +15467,15 @@
       <c r="S349" s="1">
         <v>3.79</v>
       </c>
-      <c r="X349" s="1">
-        <f t="shared" ref="X349" si="45">Y349-0.6473</f>
+      <c r="Z349" s="1">
+        <f t="shared" ref="Z349" si="45">AA349-0.6473</f>
         <v>-1.1399999999999966E-2</v>
       </c>
-      <c r="Y349" s="1">
+      <c r="AA349" s="1">
         <v>0.63590000000000002</v>
       </c>
     </row>
-    <row r="350" spans="1:25">
+    <row r="350" spans="1:27">
       <c r="A350" s="1" t="s">
         <v>90</v>
       </c>
@@ -15415,15 +15507,15 @@
       <c r="S350" s="1">
         <v>3.61</v>
       </c>
-      <c r="X350" s="1">
-        <f t="shared" ref="X350" si="46">Y350-0.6473</f>
+      <c r="Z350" s="1">
+        <f t="shared" ref="Z350" si="46">AA350-0.6473</f>
         <v>4.8399999999999999E-2</v>
       </c>
-      <c r="Y350" s="1">
+      <c r="AA350" s="1">
         <v>0.69569999999999999</v>
       </c>
     </row>
-    <row r="351" spans="1:25">
+    <row r="351" spans="1:27">
       <c r="A351" s="1" t="s">
         <v>90</v>
       </c>
@@ -15455,15 +15547,15 @@
       <c r="S351" s="1">
         <v>3.87</v>
       </c>
-      <c r="X351" s="1">
-        <f t="shared" ref="X351" si="47">Y351-0.6473</f>
+      <c r="Z351" s="1">
+        <f t="shared" ref="Z351" si="47">AA351-0.6473</f>
         <v>6.140000000000001E-2</v>
       </c>
-      <c r="Y351" s="1">
+      <c r="AA351" s="1">
         <v>0.7087</v>
       </c>
     </row>
-    <row r="352" spans="1:25">
+    <row r="352" spans="1:27">
       <c r="A352" s="1" t="s">
         <v>90</v>
       </c>
@@ -15477,7 +15569,7 @@
         <v>102</v>
       </c>
       <c r="E352" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F352" s="1" t="s">
         <v>87</v>
@@ -15495,15 +15587,15 @@
       <c r="S352" s="1">
         <v>3.71</v>
       </c>
-      <c r="X352" s="1">
-        <f t="shared" ref="X352" si="48">Y352-0.6473</f>
+      <c r="Z352" s="1">
+        <f t="shared" ref="Z352" si="48">AA352-0.6473</f>
         <v>6.5200000000000036E-2</v>
       </c>
-      <c r="Y352" s="1">
+      <c r="AA352" s="1">
         <v>0.71250000000000002</v>
       </c>
     </row>
-    <row r="353" spans="1:25">
+    <row r="353" spans="1:27">
       <c r="A353" s="1" t="s">
         <v>90</v>
       </c>
@@ -15517,7 +15609,7 @@
         <v>103</v>
       </c>
       <c r="E353" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F353" s="1" t="s">
         <v>87</v>
@@ -15535,15 +15627,15 @@
       <c r="S353" s="1">
         <v>3.8</v>
       </c>
-      <c r="X353" s="1">
-        <f t="shared" ref="X353" si="49">Y353-0.6473</f>
+      <c r="Z353" s="1">
+        <f t="shared" ref="Z353" si="49">AA353-0.6473</f>
         <v>1.0099999999999998E-2</v>
       </c>
-      <c r="Y353" s="1">
+      <c r="AA353" s="1">
         <v>0.65739999999999998</v>
       </c>
     </row>
-    <row r="354" spans="1:25">
+    <row r="354" spans="1:27">
       <c r="A354" s="1" t="s">
         <v>90</v>
       </c>
@@ -15557,7 +15649,7 @@
         <v>104</v>
       </c>
       <c r="E354" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F354" s="1" t="s">
         <v>87</v>
@@ -15575,15 +15667,15 @@
       <c r="S354" s="1">
         <v>3.78</v>
       </c>
-      <c r="X354" s="1">
-        <f t="shared" ref="X354" si="50">Y354-0.6473</f>
+      <c r="Z354" s="1">
+        <f t="shared" ref="Z354" si="50">AA354-0.6473</f>
         <v>1.1999999999999789E-3</v>
       </c>
-      <c r="Y354" s="1">
+      <c r="AA354" s="1">
         <v>0.64849999999999997</v>
       </c>
     </row>
-    <row r="355" spans="1:25">
+    <row r="355" spans="1:27">
       <c r="A355" s="1" t="s">
         <v>90</v>
       </c>
@@ -15597,7 +15689,7 @@
         <v>105</v>
       </c>
       <c r="E355" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F355" s="1" t="s">
         <v>87</v>
@@ -15615,15 +15707,15 @@
       <c r="S355" s="1">
         <v>3.82</v>
       </c>
-      <c r="X355" s="1">
-        <f t="shared" ref="X355" si="51">Y355-0.6473</f>
+      <c r="Z355" s="1">
+        <f t="shared" ref="Z355" si="51">AA355-0.6473</f>
         <v>4.0899999999999936E-2</v>
       </c>
-      <c r="Y355" s="1">
+      <c r="AA355" s="1">
         <v>0.68819999999999992</v>
       </c>
     </row>
-    <row r="356" spans="1:25">
+    <row r="356" spans="1:27">
       <c r="A356" s="1" t="s">
         <v>90</v>
       </c>
@@ -15637,7 +15729,7 @@
         <v>106</v>
       </c>
       <c r="E356" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F356" s="1" t="s">
         <v>87</v>
@@ -15655,15 +15747,15 @@
       <c r="S356" s="1">
         <v>3.6</v>
       </c>
-      <c r="X356" s="1">
-        <f t="shared" ref="X356" si="52">Y356-0.6473</f>
+      <c r="Z356" s="1">
+        <f t="shared" ref="Z356" si="52">AA356-0.6473</f>
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="Y356" s="1">
+      <c r="AA356" s="1">
         <v>0.68159999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:25">
+    <row r="357" spans="1:27">
       <c r="A357" s="1" t="s">
         <v>90</v>
       </c>
@@ -15677,7 +15769,7 @@
         <v>107</v>
       </c>
       <c r="E357" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F357" s="1" t="s">
         <v>87</v>
@@ -15695,15 +15787,15 @@
       <c r="S357" s="1">
         <v>3.78</v>
       </c>
-      <c r="X357" s="1">
-        <f t="shared" ref="X357" si="53">Y357-0.6473</f>
+      <c r="Z357" s="1">
+        <f t="shared" ref="Z357" si="53">AA357-0.6473</f>
         <v>4.9399999999999999E-2</v>
       </c>
-      <c r="Y357" s="1">
+      <c r="AA357" s="1">
         <v>0.69669999999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:25">
+    <row r="358" spans="1:27">
       <c r="A358" s="1" t="s">
         <v>90</v>
       </c>
@@ -15717,7 +15809,7 @@
         <v>108</v>
       </c>
       <c r="E358" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F358" s="1" t="s">
         <v>87</v>
@@ -15735,15 +15827,15 @@
       <c r="S358" s="1">
         <v>3.79</v>
       </c>
-      <c r="X358" s="1">
-        <f t="shared" ref="X358" si="54">Y358-0.6473</f>
+      <c r="Z358" s="1">
+        <f t="shared" ref="Z358" si="54">AA358-0.6473</f>
         <v>3.9100000000000024E-2</v>
       </c>
-      <c r="Y358" s="1">
+      <c r="AA358" s="1">
         <v>0.68640000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:25">
+    <row r="359" spans="1:27">
       <c r="A359" s="1" t="s">
         <v>90</v>
       </c>
@@ -15775,15 +15867,15 @@
       <c r="S359" s="1">
         <v>3.92</v>
       </c>
-      <c r="X359" s="1">
-        <f t="shared" ref="X359" si="55">Y359-0.6473</f>
+      <c r="Z359" s="1">
+        <f t="shared" ref="Z359" si="55">AA359-0.6473</f>
         <v>1.6600000000000059E-2</v>
       </c>
-      <c r="Y359" s="1">
+      <c r="AA359" s="1">
         <v>0.66390000000000005</v>
       </c>
     </row>
-    <row r="360" spans="1:25">
+    <row r="360" spans="1:27">
       <c r="A360" s="1" t="s">
         <v>90</v>
       </c>
@@ -15815,15 +15907,15 @@
       <c r="S360" s="1">
         <v>3.73</v>
       </c>
-      <c r="X360" s="1">
-        <f t="shared" ref="X360" si="56">Y360-0.6473</f>
+      <c r="Z360" s="1">
+        <f t="shared" ref="Z360" si="56">AA360-0.6473</f>
         <v>1.7900000000000027E-2</v>
       </c>
-      <c r="Y360" s="1">
+      <c r="AA360" s="1">
         <v>0.66520000000000001</v>
       </c>
     </row>
-    <row r="361" spans="1:25">
+    <row r="361" spans="1:27">
       <c r="A361" s="1" t="s">
         <v>90</v>
       </c>
@@ -15855,15 +15947,15 @@
       <c r="S361" s="1">
         <v>4.12</v>
       </c>
-      <c r="X361" s="1">
-        <f>Y361-0.7052</f>
+      <c r="Z361" s="1">
+        <f>AA361-0.7052</f>
         <v>2.4999999999999911E-2</v>
       </c>
-      <c r="Y361" s="1">
+      <c r="AA361" s="1">
         <v>0.73019999999999996</v>
       </c>
     </row>
-    <row r="362" spans="1:25">
+    <row r="362" spans="1:27">
       <c r="A362" s="1" t="s">
         <v>90</v>
       </c>
@@ -15895,15 +15987,15 @@
       <c r="S362" s="1">
         <v>3.49</v>
       </c>
-      <c r="X362" s="1">
-        <f t="shared" ref="X362" si="58">Y362-0.7052</f>
+      <c r="Z362" s="1">
+        <f t="shared" ref="Z362" si="58">AA362-0.7052</f>
         <v>-2.4600000000000066E-2</v>
       </c>
-      <c r="Y362" s="1">
+      <c r="AA362" s="1">
         <v>0.68059999999999998</v>
       </c>
     </row>
-    <row r="363" spans="1:25">
+    <row r="363" spans="1:27">
       <c r="A363" s="1" t="s">
         <v>90</v>
       </c>
@@ -15935,15 +16027,15 @@
       <c r="S363" s="1">
         <v>3.93</v>
       </c>
-      <c r="X363" s="1">
-        <f t="shared" ref="X363" si="59">Y363-0.7052</f>
+      <c r="Z363" s="1">
+        <f t="shared" ref="Z363" si="59">AA363-0.7052</f>
         <v>3.5399999999999987E-2</v>
       </c>
-      <c r="Y363" s="1">
+      <c r="AA363" s="1">
         <v>0.74060000000000004</v>
       </c>
     </row>
-    <row r="364" spans="1:25">
+    <row r="364" spans="1:27">
       <c r="A364" s="1" t="s">
         <v>90</v>
       </c>
@@ -15975,15 +16067,15 @@
       <c r="S364" s="1">
         <v>3.99</v>
       </c>
-      <c r="X364" s="1">
-        <f t="shared" ref="X364" si="60">Y364-0.7052</f>
+      <c r="Z364" s="1">
+        <f t="shared" ref="Z364" si="60">AA364-0.7052</f>
         <v>4.3399999999999994E-2</v>
       </c>
-      <c r="Y364" s="1">
+      <c r="AA364" s="1">
         <v>0.74860000000000004</v>
       </c>
     </row>
-    <row r="365" spans="1:25">
+    <row r="365" spans="1:27">
       <c r="A365" s="1" t="s">
         <v>90</v>
       </c>
@@ -16015,15 +16107,15 @@
       <c r="S365" s="1">
         <v>4.03</v>
       </c>
-      <c r="X365" s="1">
-        <f t="shared" ref="X365" si="61">Y365-0.7052</f>
+      <c r="Z365" s="1">
+        <f t="shared" ref="Z365" si="61">AA365-0.7052</f>
         <v>-1.319999999999999E-2</v>
       </c>
-      <c r="Y365" s="1">
+      <c r="AA365" s="1">
         <v>0.69200000000000006</v>
       </c>
     </row>
-    <row r="366" spans="1:25">
+    <row r="366" spans="1:27">
       <c r="A366" s="1" t="s">
         <v>90</v>
       </c>
@@ -16055,15 +16147,15 @@
       <c r="S366" s="1">
         <v>3.87</v>
       </c>
-      <c r="X366" s="1">
-        <f t="shared" ref="X366" si="62">Y366-0.7052</f>
+      <c r="Z366" s="1">
+        <f t="shared" ref="Z366" si="62">AA366-0.7052</f>
         <v>3.1299999999999994E-2</v>
       </c>
-      <c r="Y366" s="1">
+      <c r="AA366" s="1">
         <v>0.73650000000000004</v>
       </c>
     </row>
-    <row r="367" spans="1:25">
+    <row r="367" spans="1:27">
       <c r="A367" s="1" t="s">
         <v>90</v>
       </c>
@@ -16095,15 +16187,15 @@
       <c r="S367" s="1">
         <v>4.09</v>
       </c>
-      <c r="X367" s="1">
-        <f t="shared" ref="X367" si="63">Y367-0.7052</f>
+      <c r="Z367" s="1">
+        <f t="shared" ref="Z367" si="63">AA367-0.7052</f>
         <v>1.6799999999999926E-2</v>
       </c>
-      <c r="Y367" s="1">
+      <c r="AA367" s="1">
         <v>0.72199999999999998</v>
       </c>
     </row>
-    <row r="368" spans="1:25">
+    <row r="368" spans="1:27">
       <c r="A368" s="1" t="s">
         <v>90</v>
       </c>
@@ -16117,7 +16209,7 @@
         <v>102</v>
       </c>
       <c r="E368" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F368" s="1" t="s">
         <v>87</v>
@@ -16135,15 +16227,15 @@
       <c r="S368" s="1">
         <v>3.96</v>
       </c>
-      <c r="X368" s="1">
-        <f t="shared" ref="X368" si="64">Y368-0.7052</f>
+      <c r="Z368" s="1">
+        <f t="shared" ref="Z368" si="64">AA368-0.7052</f>
         <v>3.1999999999999917E-2</v>
       </c>
-      <c r="Y368" s="1">
+      <c r="AA368" s="1">
         <v>0.73719999999999997</v>
       </c>
     </row>
-    <row r="369" spans="1:25">
+    <row r="369" spans="1:27">
       <c r="A369" s="1" t="s">
         <v>90</v>
       </c>
@@ -16157,7 +16249,7 @@
         <v>103</v>
       </c>
       <c r="E369" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F369" s="1" t="s">
         <v>87</v>
@@ -16175,15 +16267,15 @@
       <c r="S369" s="1">
         <v>3.99</v>
       </c>
-      <c r="X369" s="1">
-        <f t="shared" ref="X369" si="65">Y369-0.7052</f>
+      <c r="Z369" s="1">
+        <f t="shared" ref="Z369" si="65">AA369-0.7052</f>
         <v>-2.5399999999999978E-2</v>
       </c>
-      <c r="Y369" s="1">
+      <c r="AA369" s="1">
         <v>0.67980000000000007</v>
       </c>
     </row>
-    <row r="370" spans="1:25">
+    <row r="370" spans="1:27">
       <c r="A370" s="1" t="s">
         <v>90</v>
       </c>
@@ -16197,7 +16289,7 @@
         <v>104</v>
       </c>
       <c r="E370" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F370" s="1" t="s">
         <v>87</v>
@@ -16215,15 +16307,15 @@
       <c r="S370" s="1">
         <v>3.98</v>
       </c>
-      <c r="X370" s="1">
-        <f t="shared" ref="X370" si="66">Y370-0.7052</f>
+      <c r="Z370" s="1">
+        <f t="shared" ref="Z370" si="66">AA370-0.7052</f>
         <v>-2.6700000000000057E-2</v>
       </c>
-      <c r="Y370" s="1">
+      <c r="AA370" s="1">
         <v>0.67849999999999999</v>
       </c>
     </row>
-    <row r="371" spans="1:25">
+    <row r="371" spans="1:27">
       <c r="A371" s="1" t="s">
         <v>90</v>
       </c>
@@ -16237,7 +16329,7 @@
         <v>105</v>
       </c>
       <c r="E371" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F371" s="1" t="s">
         <v>87</v>
@@ -16255,15 +16347,15 @@
       <c r="S371" s="1">
         <v>4.03</v>
       </c>
-      <c r="X371" s="1">
-        <f t="shared" ref="X371" si="67">Y371-0.7052</f>
+      <c r="Z371" s="1">
+        <f t="shared" ref="Z371" si="67">AA371-0.7052</f>
         <v>3.1999999999999806E-3</v>
       </c>
-      <c r="Y371" s="1">
+      <c r="AA371" s="1">
         <v>0.70840000000000003</v>
       </c>
     </row>
-    <row r="372" spans="1:25">
+    <row r="372" spans="1:27">
       <c r="A372" s="1" t="s">
         <v>90</v>
       </c>
@@ -16277,7 +16369,7 @@
         <v>106</v>
       </c>
       <c r="E372" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F372" s="1" t="s">
         <v>87</v>
@@ -16295,15 +16387,15 @@
       <c r="S372" s="1">
         <v>3.9</v>
       </c>
-      <c r="X372" s="1">
-        <f t="shared" ref="X372" si="68">Y372-0.7052</f>
+      <c r="Z372" s="1">
+        <f t="shared" ref="Z372" si="68">AA372-0.7052</f>
         <v>1.0499999999999843E-2</v>
       </c>
-      <c r="Y372" s="1">
+      <c r="AA372" s="1">
         <v>0.71569999999999989</v>
       </c>
     </row>
-    <row r="373" spans="1:25">
+    <row r="373" spans="1:27">
       <c r="A373" s="1" t="s">
         <v>90</v>
       </c>
@@ -16317,7 +16409,7 @@
         <v>107</v>
       </c>
       <c r="E373" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F373" s="1" t="s">
         <v>87</v>
@@ -16335,15 +16427,15 @@
       <c r="S373" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="X373" s="1">
-        <f t="shared" ref="X373" si="69">Y373-0.7052</f>
+      <c r="Z373" s="1">
+        <f t="shared" ref="Z373" si="69">AA373-0.7052</f>
         <v>8.599999999999941E-3</v>
       </c>
-      <c r="Y373" s="1">
+      <c r="AA373" s="1">
         <v>0.71379999999999999</v>
       </c>
     </row>
-    <row r="374" spans="1:25">
+    <row r="374" spans="1:27">
       <c r="A374" s="1" t="s">
         <v>90</v>
       </c>
@@ -16357,7 +16449,7 @@
         <v>108</v>
       </c>
       <c r="E374" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F374" s="1" t="s">
         <v>87</v>
@@ -16375,15 +16467,15 @@
       <c r="S374" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="X374" s="1">
-        <f t="shared" ref="X374" si="70">Y374-0.7052</f>
+      <c r="Z374" s="1">
+        <f t="shared" ref="Z374" si="70">AA374-0.7052</f>
         <v>4.0999999999999925E-3</v>
       </c>
-      <c r="Y374" s="1">
+      <c r="AA374" s="1">
         <v>0.70930000000000004</v>
       </c>
     </row>
-    <row r="375" spans="1:25">
+    <row r="375" spans="1:27">
       <c r="A375" s="1" t="s">
         <v>90</v>
       </c>
@@ -16415,15 +16507,15 @@
       <c r="S375" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="X375" s="1">
-        <f t="shared" ref="X375" si="71">Y375-0.7052</f>
+      <c r="Z375" s="1">
+        <f t="shared" ref="Z375" si="71">AA375-0.7052</f>
         <v>4.1999999999999815E-3</v>
       </c>
-      <c r="Y375" s="1">
+      <c r="AA375" s="1">
         <v>0.70940000000000003</v>
       </c>
     </row>
-    <row r="376" spans="1:25">
+    <row r="376" spans="1:27">
       <c r="A376" s="1" t="s">
         <v>90</v>
       </c>
@@ -16455,15 +16547,15 @@
       <c r="S376" s="1">
         <v>3.99</v>
       </c>
-      <c r="X376" s="1">
-        <f t="shared" ref="X376" si="72">Y376-0.7052</f>
+      <c r="Z376" s="1">
+        <f t="shared" ref="Z376" si="72">AA376-0.7052</f>
         <v>-7.4000000000000732E-3</v>
       </c>
-      <c r="Y376" s="1">
+      <c r="AA376" s="1">
         <v>0.69779999999999998</v>
       </c>
     </row>
-    <row r="377" spans="1:25">
+    <row r="377" spans="1:27">
       <c r="A377" s="1" t="s">
         <v>90</v>
       </c>
@@ -16495,15 +16587,15 @@
       <c r="S377" s="1">
         <v>1.68</v>
       </c>
-      <c r="X377" s="1">
-        <f>Y377-0.2427</f>
+      <c r="Z377" s="1">
+        <f>AA377-0.2427</f>
         <v>5.2999999999999992E-3</v>
       </c>
-      <c r="Y377" s="1">
+      <c r="AA377" s="1">
         <v>0.248</v>
       </c>
     </row>
-    <row r="378" spans="1:25">
+    <row r="378" spans="1:27">
       <c r="A378" s="1" t="s">
         <v>90</v>
       </c>
@@ -16535,15 +16627,15 @@
       <c r="S378" s="1">
         <v>2</v>
       </c>
-      <c r="X378" s="1">
-        <f>Y378-0.2427</f>
+      <c r="Z378" s="1">
+        <f>AA378-0.2427</f>
         <v>6.7600000000000021E-2</v>
       </c>
-      <c r="Y378" s="1">
+      <c r="AA378" s="1">
         <v>0.31030000000000002</v>
       </c>
     </row>
-    <row r="379" spans="1:25">
+    <row r="379" spans="1:27">
       <c r="A379" s="1" t="s">
         <v>90</v>
       </c>
@@ -16575,15 +16667,15 @@
       <c r="S379" s="1">
         <v>1.74</v>
       </c>
-      <c r="X379" s="1">
-        <f t="shared" ref="X379:X392" si="74">Y379-0.2427</f>
+      <c r="Z379" s="1">
+        <f t="shared" ref="Z379:Z392" si="74">AA379-0.2427</f>
         <v>3.4400000000000014E-2</v>
       </c>
-      <c r="Y379" s="1">
+      <c r="AA379" s="1">
         <v>0.27710000000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:25">
+    <row r="380" spans="1:27">
       <c r="A380" s="1" t="s">
         <v>90</v>
       </c>
@@ -16615,15 +16707,15 @@
       <c r="S380" s="1">
         <v>1.86</v>
       </c>
-      <c r="X380" s="1">
+      <c r="Z380" s="1">
         <f t="shared" si="74"/>
         <v>7.4499999999999983E-2</v>
       </c>
-      <c r="Y380" s="1">
+      <c r="AA380" s="1">
         <v>0.31719999999999998</v>
       </c>
     </row>
-    <row r="381" spans="1:25">
+    <row r="381" spans="1:27">
       <c r="A381" s="1" t="s">
         <v>90</v>
       </c>
@@ -16655,15 +16747,15 @@
       <c r="S381" s="1">
         <v>1.34</v>
       </c>
-      <c r="X381" s="1">
+      <c r="Z381" s="1">
         <f t="shared" si="74"/>
         <v>2.1499999999999991E-2</v>
       </c>
-      <c r="Y381" s="1">
+      <c r="AA381" s="1">
         <v>0.26419999999999999</v>
       </c>
     </row>
-    <row r="382" spans="1:25">
+    <row r="382" spans="1:27">
       <c r="A382" s="1" t="s">
         <v>90</v>
       </c>
@@ -16695,15 +16787,15 @@
       <c r="S382" s="1">
         <v>1.94</v>
       </c>
-      <c r="X382" s="1">
+      <c r="Z382" s="1">
         <f t="shared" si="74"/>
         <v>4.8500000000000015E-2</v>
       </c>
-      <c r="Y382" s="1">
+      <c r="AA382" s="1">
         <v>0.29120000000000001</v>
       </c>
     </row>
-    <row r="383" spans="1:25">
+    <row r="383" spans="1:27">
       <c r="A383" s="1" t="s">
         <v>90</v>
       </c>
@@ -16735,15 +16827,15 @@
       <c r="S383" s="1">
         <v>1.92</v>
       </c>
-      <c r="X383" s="1">
+      <c r="Z383" s="1">
         <f t="shared" si="74"/>
         <v>9.0599999999999986E-2</v>
       </c>
-      <c r="Y383" s="1">
+      <c r="AA383" s="1">
         <v>0.33329999999999999</v>
       </c>
     </row>
-    <row r="384" spans="1:25">
+    <row r="384" spans="1:27">
       <c r="A384" s="1" t="s">
         <v>90</v>
       </c>
@@ -16757,7 +16849,7 @@
         <v>102</v>
       </c>
       <c r="E384" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F384" s="1" t="s">
         <v>87</v>
@@ -16775,15 +16867,15 @@
       <c r="S384" s="1">
         <v>1.94</v>
       </c>
-      <c r="X384" s="1">
+      <c r="Z384" s="1">
         <f t="shared" si="74"/>
         <v>8.1800000000000012E-2</v>
       </c>
-      <c r="Y384" s="1">
+      <c r="AA384" s="1">
         <v>0.32450000000000001</v>
       </c>
     </row>
-    <row r="385" spans="1:25">
+    <row r="385" spans="1:27">
       <c r="A385" s="1" t="s">
         <v>90</v>
       </c>
@@ -16797,7 +16889,7 @@
         <v>103</v>
       </c>
       <c r="E385" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F385" s="1" t="s">
         <v>87</v>
@@ -16815,15 +16907,15 @@
       <c r="S385" s="1">
         <v>1.77</v>
       </c>
-      <c r="X385" s="1">
+      <c r="Z385" s="1">
         <f t="shared" si="74"/>
         <v>5.4900000000000032E-2</v>
       </c>
-      <c r="Y385" s="1">
+      <c r="AA385" s="1">
         <v>0.29760000000000003</v>
       </c>
     </row>
-    <row r="386" spans="1:25">
+    <row r="386" spans="1:27">
       <c r="A386" s="1" t="s">
         <v>90</v>
       </c>
@@ -16837,7 +16929,7 @@
         <v>104</v>
       </c>
       <c r="E386" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F386" s="1" t="s">
         <v>87</v>
@@ -16855,15 +16947,15 @@
       <c r="S386" s="1">
         <v>1.78</v>
       </c>
-      <c r="X386" s="1">
+      <c r="Z386" s="1">
         <f t="shared" si="74"/>
         <v>5.460000000000001E-2</v>
       </c>
-      <c r="Y386" s="1">
+      <c r="AA386" s="1">
         <v>0.29730000000000001</v>
       </c>
     </row>
-    <row r="387" spans="1:25">
+    <row r="387" spans="1:27">
       <c r="A387" s="1" t="s">
         <v>90</v>
       </c>
@@ -16877,7 +16969,7 @@
         <v>105</v>
       </c>
       <c r="E387" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F387" s="1" t="s">
         <v>87</v>
@@ -16895,15 +16987,15 @@
       <c r="S387" s="1">
         <v>1.81</v>
       </c>
-      <c r="X387" s="1">
+      <c r="Z387" s="1">
         <f t="shared" si="74"/>
         <v>6.5700000000000008E-2</v>
       </c>
-      <c r="Y387" s="1">
+      <c r="AA387" s="1">
         <v>0.30840000000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:25">
+    <row r="388" spans="1:27">
       <c r="A388" s="1" t="s">
         <v>90</v>
       </c>
@@ -16917,7 +17009,7 @@
         <v>106</v>
       </c>
       <c r="E388" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F388" s="1" t="s">
         <v>87</v>
@@ -16935,15 +17027,15 @@
       <c r="S388" s="1">
         <v>1.56</v>
       </c>
-      <c r="X388" s="1">
+      <c r="Z388" s="1">
         <f t="shared" si="74"/>
         <v>4.9799999999999983E-2</v>
       </c>
-      <c r="Y388" s="1">
+      <c r="AA388" s="1">
         <v>0.29249999999999998</v>
       </c>
     </row>
-    <row r="389" spans="1:25">
+    <row r="389" spans="1:27">
       <c r="A389" s="1" t="s">
         <v>90</v>
       </c>
@@ -16957,7 +17049,7 @@
         <v>107</v>
       </c>
       <c r="E389" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F389" s="1" t="s">
         <v>87</v>
@@ -16975,15 +17067,15 @@
       <c r="S389" s="1">
         <v>1.92</v>
       </c>
-      <c r="X389" s="1">
+      <c r="Z389" s="1">
         <f t="shared" si="74"/>
         <v>8.5800000000000015E-2</v>
       </c>
-      <c r="Y389" s="1">
+      <c r="AA389" s="1">
         <v>0.32850000000000001</v>
       </c>
     </row>
-    <row r="390" spans="1:25">
+    <row r="390" spans="1:27">
       <c r="A390" s="1" t="s">
         <v>90</v>
       </c>
@@ -16997,7 +17089,7 @@
         <v>108</v>
       </c>
       <c r="E390" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F390" s="1" t="s">
         <v>87</v>
@@ -17015,15 +17107,15 @@
       <c r="S390" s="1">
         <v>1.86</v>
       </c>
-      <c r="X390" s="1">
+      <c r="Z390" s="1">
         <f t="shared" si="74"/>
         <v>6.9700000000000012E-2</v>
       </c>
-      <c r="Y390" s="1">
+      <c r="AA390" s="1">
         <v>0.31240000000000001</v>
       </c>
     </row>
-    <row r="391" spans="1:25">
+    <row r="391" spans="1:27">
       <c r="A391" s="1" t="s">
         <v>90</v>
       </c>
@@ -17055,15 +17147,15 @@
       <c r="S391" s="1">
         <v>1.7</v>
       </c>
-      <c r="X391" s="1">
+      <c r="Z391" s="1">
         <f t="shared" si="74"/>
         <v>3.2400000000000012E-2</v>
       </c>
-      <c r="Y391" s="1">
+      <c r="AA391" s="1">
         <v>0.27510000000000001</v>
       </c>
     </row>
-    <row r="392" spans="1:25">
+    <row r="392" spans="1:27">
       <c r="A392" s="1" t="s">
         <v>90</v>
       </c>
@@ -17095,15 +17187,15 @@
       <c r="S392" s="1">
         <v>1.44</v>
       </c>
-      <c r="X392" s="1">
+      <c r="Z392" s="1">
         <f t="shared" si="74"/>
         <v>8.299999999999999E-2</v>
       </c>
-      <c r="Y392" s="1">
+      <c r="AA392" s="1">
         <v>0.32569999999999999</v>
       </c>
     </row>
-    <row r="393" spans="1:25">
+    <row r="393" spans="1:27">
       <c r="A393" s="1" t="s">
         <v>90</v>
       </c>
@@ -17135,15 +17227,15 @@
       <c r="S393" s="1">
         <v>2.13</v>
       </c>
-      <c r="X393" s="1">
-        <f>Y393-0.3332</f>
+      <c r="Z393" s="1">
+        <f>AA393-0.3332</f>
         <v>6.5999999999999948E-3</v>
       </c>
-      <c r="Y393" s="1">
+      <c r="AA393" s="1">
         <v>0.33979999999999999</v>
       </c>
     </row>
-    <row r="394" spans="1:25">
+    <row r="394" spans="1:27">
       <c r="A394" s="1" t="s">
         <v>90</v>
       </c>
@@ -17175,15 +17267,15 @@
       <c r="S394" s="1">
         <v>2.36</v>
       </c>
-      <c r="X394" s="1">
-        <f>Y394-0.3332</f>
+      <c r="Z394" s="1">
+        <f>AA394-0.3332</f>
         <v>8.6799999999999988E-2</v>
       </c>
-      <c r="Y394" s="1">
+      <c r="AA394" s="1">
         <v>0.42</v>
       </c>
     </row>
-    <row r="395" spans="1:25">
+    <row r="395" spans="1:27">
       <c r="A395" s="1" t="s">
         <v>90</v>
       </c>
@@ -17215,15 +17307,15 @@
       <c r="S395" s="1">
         <v>2.13</v>
       </c>
-      <c r="X395" s="1">
-        <f t="shared" ref="X395:X408" si="76">Y395-0.3332</f>
+      <c r="Z395" s="1">
+        <f t="shared" ref="Z395:Z408" si="76">AA395-0.3332</f>
         <v>4.6700000000000019E-2</v>
       </c>
-      <c r="Y395" s="1">
+      <c r="AA395" s="1">
         <v>0.37990000000000002</v>
       </c>
     </row>
-    <row r="396" spans="1:25">
+    <row r="396" spans="1:27">
       <c r="A396" s="1" t="s">
         <v>90</v>
       </c>
@@ -17255,15 +17347,15 @@
       <c r="S396" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="X396" s="1">
+      <c r="Z396" s="1">
         <f t="shared" si="76"/>
         <v>7.350000000000001E-2</v>
       </c>
-      <c r="Y396" s="1">
+      <c r="AA396" s="1">
         <v>0.40670000000000001</v>
       </c>
     </row>
-    <row r="397" spans="1:25">
+    <row r="397" spans="1:27">
       <c r="A397" s="1" t="s">
         <v>90</v>
       </c>
@@ -17295,15 +17387,15 @@
       <c r="S397" s="1">
         <v>1.88</v>
       </c>
-      <c r="X397" s="1">
+      <c r="Z397" s="1">
         <f t="shared" si="76"/>
         <v>2.899999999999997E-2</v>
       </c>
-      <c r="Y397" s="1">
+      <c r="AA397" s="1">
         <v>0.36219999999999997</v>
       </c>
     </row>
-    <row r="398" spans="1:25">
+    <row r="398" spans="1:27">
       <c r="A398" s="1" t="s">
         <v>90</v>
       </c>
@@ -17335,15 +17427,15 @@
       <c r="S398" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="X398" s="1">
+      <c r="Z398" s="1">
         <f t="shared" si="76"/>
         <v>5.5499999999999994E-2</v>
       </c>
-      <c r="Y398" s="1">
+      <c r="AA398" s="1">
         <v>0.38869999999999999</v>
       </c>
     </row>
-    <row r="399" spans="1:25">
+    <row r="399" spans="1:27">
       <c r="A399" s="1" t="s">
         <v>90</v>
       </c>
@@ -17375,15 +17467,15 @@
       <c r="S399" s="1">
         <v>2.29</v>
       </c>
-      <c r="X399" s="1">
+      <c r="Z399" s="1">
         <f t="shared" si="76"/>
         <v>9.4099999999999961E-2</v>
       </c>
-      <c r="Y399" s="1">
+      <c r="AA399" s="1">
         <v>0.42729999999999996</v>
       </c>
     </row>
-    <row r="400" spans="1:25">
+    <row r="400" spans="1:27">
       <c r="A400" s="1" t="s">
         <v>90</v>
       </c>
@@ -17397,7 +17489,7 @@
         <v>102</v>
       </c>
       <c r="E400" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F400" s="1" t="s">
         <v>87</v>
@@ -17415,15 +17507,15 @@
       <c r="S400" s="1">
         <v>2.31</v>
       </c>
-      <c r="X400" s="1">
+      <c r="Z400" s="1">
         <f t="shared" si="76"/>
         <v>8.4600000000000009E-2</v>
       </c>
-      <c r="Y400" s="1">
+      <c r="AA400" s="1">
         <v>0.4178</v>
       </c>
     </row>
-    <row r="401" spans="1:25">
+    <row r="401" spans="1:27">
       <c r="A401" s="1" t="s">
         <v>90</v>
       </c>
@@ -17437,7 +17529,7 @@
         <v>103</v>
       </c>
       <c r="E401" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F401" s="1" t="s">
         <v>87</v>
@@ -17455,15 +17547,15 @@
       <c r="S401" s="1">
         <v>2.19</v>
       </c>
-      <c r="X401" s="1">
+      <c r="Z401" s="1">
         <f t="shared" si="76"/>
         <v>4.4300000000000006E-2</v>
       </c>
-      <c r="Y401" s="1">
+      <c r="AA401" s="1">
         <v>0.3775</v>
       </c>
     </row>
-    <row r="402" spans="1:25">
+    <row r="402" spans="1:27">
       <c r="A402" s="1" t="s">
         <v>90</v>
       </c>
@@ -17477,7 +17569,7 @@
         <v>104</v>
       </c>
       <c r="E402" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F402" s="1" t="s">
         <v>87</v>
@@ -17495,15 +17587,15 @@
       <c r="S402" s="1">
         <v>2.19</v>
       </c>
-      <c r="X402" s="1">
+      <c r="Z402" s="1">
         <f t="shared" si="76"/>
         <v>4.2100000000000026E-2</v>
       </c>
-      <c r="Y402" s="1">
+      <c r="AA402" s="1">
         <v>0.37530000000000002</v>
       </c>
     </row>
-    <row r="403" spans="1:25">
+    <row r="403" spans="1:27">
       <c r="A403" s="1" t="s">
         <v>90</v>
       </c>
@@ -17517,7 +17609,7 @@
         <v>105</v>
       </c>
       <c r="E403" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F403" s="1" t="s">
         <v>87</v>
@@ -17535,15 +17627,15 @@
       <c r="S403" s="1">
         <v>2.23</v>
       </c>
-      <c r="X403" s="1">
+      <c r="Z403" s="1">
         <f t="shared" si="76"/>
         <v>6.3699999999999979E-2</v>
       </c>
-      <c r="Y403" s="1">
+      <c r="AA403" s="1">
         <v>0.39689999999999998</v>
       </c>
     </row>
-    <row r="404" spans="1:25">
+    <row r="404" spans="1:27">
       <c r="A404" s="1" t="s">
         <v>90</v>
       </c>
@@ -17557,7 +17649,7 @@
         <v>106</v>
       </c>
       <c r="E404" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F404" s="1" t="s">
         <v>87</v>
@@ -17575,15 +17667,15 @@
       <c r="S404" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="X404" s="1">
+      <c r="Z404" s="1">
         <f t="shared" si="76"/>
         <v>5.4200000000000026E-2</v>
       </c>
-      <c r="Y404" s="1">
+      <c r="AA404" s="1">
         <v>0.38740000000000002</v>
       </c>
     </row>
-    <row r="405" spans="1:25">
+    <row r="405" spans="1:27">
       <c r="A405" s="1" t="s">
         <v>90</v>
       </c>
@@ -17597,7 +17689,7 @@
         <v>107</v>
       </c>
       <c r="E405" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F405" s="1" t="s">
         <v>87</v>
@@ -17615,15 +17707,15 @@
       <c r="S405" s="1">
         <v>2.29</v>
       </c>
-      <c r="X405" s="1">
+      <c r="Z405" s="1">
         <f t="shared" si="76"/>
         <v>9.0899999999999981E-2</v>
       </c>
-      <c r="Y405" s="1">
+      <c r="AA405" s="1">
         <v>0.42409999999999998</v>
       </c>
     </row>
-    <row r="406" spans="1:25">
+    <row r="406" spans="1:27">
       <c r="A406" s="1" t="s">
         <v>90</v>
       </c>
@@ -17637,7 +17729,7 @@
         <v>108</v>
       </c>
       <c r="E406" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F406" s="1" t="s">
         <v>87</v>
@@ -17655,15 +17747,15 @@
       <c r="S406" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="X406" s="1">
+      <c r="Z406" s="1">
         <f t="shared" si="76"/>
         <v>6.3500000000000001E-2</v>
       </c>
-      <c r="Y406" s="1">
+      <c r="AA406" s="1">
         <v>0.3967</v>
       </c>
     </row>
-    <row r="407" spans="1:25">
+    <row r="407" spans="1:27">
       <c r="A407" s="1" t="s">
         <v>90</v>
       </c>
@@ -17695,15 +17787,15 @@
       <c r="S407" s="1">
         <v>2.16</v>
       </c>
-      <c r="X407" s="1">
+      <c r="Z407" s="1">
         <f t="shared" si="76"/>
         <v>2.250000000000002E-2</v>
       </c>
-      <c r="Y407" s="1">
+      <c r="AA407" s="1">
         <v>0.35570000000000002</v>
       </c>
     </row>
-    <row r="408" spans="1:25">
+    <row r="408" spans="1:27">
       <c r="A408" s="1" t="s">
         <v>90</v>
       </c>
@@ -17735,15 +17827,15 @@
       <c r="S408" s="1">
         <v>1.94</v>
       </c>
-      <c r="X408" s="1">
+      <c r="Z408" s="1">
         <f t="shared" si="76"/>
         <v>7.8199999999999992E-2</v>
       </c>
-      <c r="Y408" s="1">
+      <c r="AA408" s="1">
         <v>0.41139999999999999</v>
       </c>
     </row>
-    <row r="409" spans="1:25">
+    <row r="409" spans="1:27">
       <c r="A409" s="1" t="s">
         <v>90</v>
       </c>
@@ -17775,15 +17867,15 @@
       <c r="S409" s="1">
         <v>2.56</v>
       </c>
-      <c r="X409" s="1">
-        <f>Y409-0.4529</f>
+      <c r="Z409" s="1">
+        <f>AA409-0.4529</f>
         <v>-1.3000000000000012E-2</v>
       </c>
-      <c r="Y409" s="1">
+      <c r="AA409" s="1">
         <v>0.43990000000000001</v>
       </c>
     </row>
-    <row r="410" spans="1:25">
+    <row r="410" spans="1:27">
       <c r="A410" s="1" t="s">
         <v>90</v>
       </c>
@@ -17815,15 +17907,15 @@
       <c r="S410" s="1">
         <v>2.69</v>
       </c>
-      <c r="X410" s="1">
-        <f>Y410-0.4529</f>
+      <c r="Z410" s="1">
+        <f>AA410-0.4529</f>
         <v>7.6600000000000057E-2</v>
       </c>
-      <c r="Y410" s="1">
+      <c r="AA410" s="1">
         <v>0.52950000000000008</v>
       </c>
     </row>
-    <row r="411" spans="1:25">
+    <row r="411" spans="1:27">
       <c r="A411" s="1" t="s">
         <v>90</v>
       </c>
@@ -17855,15 +17947,15 @@
       <c r="S411" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="X411" s="1">
-        <f t="shared" ref="X411:X424" si="78">Y411-0.4529</f>
+      <c r="Z411" s="1">
+        <f t="shared" ref="Z411:Z424" si="78">AA411-0.4529</f>
         <v>5.1099999999999979E-2</v>
       </c>
-      <c r="Y411" s="1">
+      <c r="AA411" s="1">
         <v>0.504</v>
       </c>
     </row>
-    <row r="412" spans="1:25">
+    <row r="412" spans="1:27">
       <c r="A412" s="1" t="s">
         <v>90</v>
       </c>
@@ -17895,15 +17987,15 @@
       <c r="S412" s="1">
         <v>2.61</v>
       </c>
-      <c r="X412" s="1">
+      <c r="Z412" s="1">
         <f t="shared" si="78"/>
         <v>5.6199999999999972E-2</v>
       </c>
-      <c r="Y412" s="1">
+      <c r="AA412" s="1">
         <v>0.5091</v>
       </c>
     </row>
-    <row r="413" spans="1:25">
+    <row r="413" spans="1:27">
       <c r="A413" s="1" t="s">
         <v>90</v>
       </c>
@@ -17935,15 +18027,15 @@
       <c r="S413" s="1">
         <v>2.38</v>
       </c>
-      <c r="X413" s="1">
+      <c r="Z413" s="1">
         <f t="shared" si="78"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="Y413" s="1">
+      <c r="AA413" s="1">
         <v>0.47590000000000005</v>
       </c>
     </row>
-    <row r="414" spans="1:25">
+    <row r="414" spans="1:27">
       <c r="A414" s="1" t="s">
         <v>90</v>
       </c>
@@ -17975,15 +18067,15 @@
       <c r="S414" s="1">
         <v>2.64</v>
       </c>
-      <c r="X414" s="1">
+      <c r="Z414" s="1">
         <f t="shared" si="78"/>
         <v>5.0500000000000045E-2</v>
       </c>
-      <c r="Y414" s="1">
+      <c r="AA414" s="1">
         <v>0.50340000000000007</v>
       </c>
     </row>
-    <row r="415" spans="1:25">
+    <row r="415" spans="1:27">
       <c r="A415" s="1" t="s">
         <v>90</v>
       </c>
@@ -18015,15 +18107,15 @@
       <c r="S415" s="1">
         <v>2.68</v>
       </c>
-      <c r="X415" s="1">
+      <c r="Z415" s="1">
         <f t="shared" si="78"/>
         <v>7.1899999999999908E-2</v>
       </c>
-      <c r="Y415" s="1">
+      <c r="AA415" s="1">
         <v>0.52479999999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:25">
+    <row r="416" spans="1:27">
       <c r="A416" s="1" t="s">
         <v>90</v>
       </c>
@@ -18037,7 +18129,7 @@
         <v>102</v>
       </c>
       <c r="E416" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F416" s="1" t="s">
         <v>87</v>
@@ -18055,15 +18147,15 @@
       <c r="S416" s="1">
         <v>2.67</v>
       </c>
-      <c r="X416" s="1">
+      <c r="Z416" s="1">
         <f t="shared" si="78"/>
         <v>6.5900000000000014E-2</v>
       </c>
-      <c r="Y416" s="1">
+      <c r="AA416" s="1">
         <v>0.51880000000000004</v>
       </c>
     </row>
-    <row r="417" spans="1:25">
+    <row r="417" spans="1:27">
       <c r="A417" s="1" t="s">
         <v>90</v>
       </c>
@@ -18077,7 +18169,7 @@
         <v>103</v>
       </c>
       <c r="E417" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F417" s="1" t="s">
         <v>87</v>
@@ -18095,15 +18187,15 @@
       <c r="S417" s="1">
         <v>2.59</v>
       </c>
-      <c r="X417" s="1">
+      <c r="Z417" s="1">
         <f t="shared" si="78"/>
         <v>3.7700000000000011E-2</v>
       </c>
-      <c r="Y417" s="1">
+      <c r="AA417" s="1">
         <v>0.49060000000000004</v>
       </c>
     </row>
-    <row r="418" spans="1:25">
+    <row r="418" spans="1:27">
       <c r="A418" s="1" t="s">
         <v>90</v>
       </c>
@@ -18117,7 +18209,7 @@
         <v>104</v>
       </c>
       <c r="E418" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F418" s="1" t="s">
         <v>87</v>
@@ -18135,15 +18227,15 @@
       <c r="S418" s="1">
         <v>2.6</v>
       </c>
-      <c r="X418" s="1">
+      <c r="Z418" s="1">
         <f t="shared" si="78"/>
         <v>2.8699999999999948E-2</v>
       </c>
-      <c r="Y418" s="1">
+      <c r="AA418" s="1">
         <v>0.48159999999999997</v>
       </c>
     </row>
-    <row r="419" spans="1:25">
+    <row r="419" spans="1:27">
       <c r="A419" s="1" t="s">
         <v>90</v>
       </c>
@@ -18157,7 +18249,7 @@
         <v>105</v>
       </c>
       <c r="E419" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F419" s="1" t="s">
         <v>87</v>
@@ -18175,15 +18267,15 @@
       <c r="S419" s="1">
         <v>2.62</v>
       </c>
-      <c r="X419" s="1">
+      <c r="Z419" s="1">
         <f t="shared" si="78"/>
         <v>6.090000000000001E-2</v>
       </c>
-      <c r="Y419" s="1">
+      <c r="AA419" s="1">
         <v>0.51380000000000003</v>
       </c>
     </row>
-    <row r="420" spans="1:25">
+    <row r="420" spans="1:27">
       <c r="A420" s="1" t="s">
         <v>90</v>
       </c>
@@ -18197,7 +18289,7 @@
         <v>106</v>
       </c>
       <c r="E420" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F420" s="1" t="s">
         <v>87</v>
@@ -18215,15 +18307,15 @@
       <c r="S420" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="X420" s="1">
+      <c r="Z420" s="1">
         <f t="shared" si="78"/>
         <v>3.8999999999999979E-2</v>
       </c>
-      <c r="Y420" s="1">
+      <c r="AA420" s="1">
         <v>0.4919</v>
       </c>
     </row>
-    <row r="421" spans="1:25">
+    <row r="421" spans="1:27">
       <c r="A421" s="1" t="s">
         <v>90</v>
       </c>
@@ -18237,7 +18329,7 @@
         <v>107</v>
       </c>
       <c r="E421" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F421" s="1" t="s">
         <v>87</v>
@@ -18255,15 +18347,15 @@
       <c r="S421" s="1">
         <v>2.67</v>
       </c>
-      <c r="X421" s="1">
+      <c r="Z421" s="1">
         <f t="shared" si="78"/>
         <v>7.0299999999999974E-2</v>
       </c>
-      <c r="Y421" s="1">
+      <c r="AA421" s="1">
         <v>0.5232</v>
       </c>
     </row>
-    <row r="422" spans="1:25">
+    <row r="422" spans="1:27">
       <c r="A422" s="1" t="s">
         <v>90</v>
       </c>
@@ -18277,7 +18369,7 @@
         <v>108</v>
       </c>
       <c r="E422" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F422" s="1" t="s">
         <v>87</v>
@@ -18295,15 +18387,15 @@
       <c r="S422" s="1">
         <v>2.61</v>
       </c>
-      <c r="X422" s="1">
+      <c r="Z422" s="1">
         <f t="shared" si="78"/>
         <v>5.319999999999997E-2</v>
       </c>
-      <c r="Y422" s="1">
+      <c r="AA422" s="1">
         <v>0.50609999999999999</v>
       </c>
     </row>
-    <row r="423" spans="1:25">
+    <row r="423" spans="1:27">
       <c r="A423" s="1" t="s">
         <v>90</v>
       </c>
@@ -18335,15 +18427,15 @@
       <c r="S423" s="1">
         <v>2.58</v>
       </c>
-      <c r="X423" s="1">
+      <c r="Z423" s="1">
         <f t="shared" si="78"/>
         <v>1.5099999999999947E-2</v>
       </c>
-      <c r="Y423" s="1">
+      <c r="AA423" s="1">
         <v>0.46799999999999997</v>
       </c>
     </row>
-    <row r="424" spans="1:25">
+    <row r="424" spans="1:27">
       <c r="A424" s="1" t="s">
         <v>90</v>
       </c>
@@ -18375,15 +18467,15 @@
       <c r="S424" s="1">
         <v>2.42</v>
       </c>
-      <c r="X424" s="1">
+      <c r="Z424" s="1">
         <f t="shared" si="78"/>
         <v>6.6199999999999981E-2</v>
       </c>
-      <c r="Y424" s="1">
+      <c r="AA424" s="1">
         <v>0.51910000000000001</v>
       </c>
     </row>
-    <row r="425" spans="1:25">
+    <row r="425" spans="1:27">
       <c r="A425" s="1" t="s">
         <v>90</v>
       </c>
@@ -18415,15 +18507,15 @@
       <c r="S425" s="1">
         <v>2.97</v>
       </c>
-      <c r="X425" s="1">
-        <f>Y425-0.5649</f>
+      <c r="Z425" s="1">
+        <f>AA425-0.5649</f>
         <v>-3.0299999999999994E-2</v>
       </c>
-      <c r="Y425" s="1">
+      <c r="AA425" s="1">
         <v>0.53459999999999996</v>
       </c>
     </row>
-    <row r="426" spans="1:25">
+    <row r="426" spans="1:27">
       <c r="A426" s="1" t="s">
         <v>90</v>
       </c>
@@ -18455,15 +18547,15 @@
       <c r="S426" s="1">
         <v>2.98</v>
       </c>
-      <c r="X426" s="1">
-        <f>Y426-0.5649</f>
+      <c r="Z426" s="1">
+        <f>AA426-0.5649</f>
         <v>3.9000000000000035E-2</v>
       </c>
-      <c r="Y426" s="1">
+      <c r="AA426" s="1">
         <v>0.60389999999999999</v>
       </c>
     </row>
-    <row r="427" spans="1:25">
+    <row r="427" spans="1:27">
       <c r="A427" s="1" t="s">
         <v>90</v>
       </c>
@@ -18495,15 +18587,15 @@
       <c r="S427" s="1">
         <v>2.91</v>
       </c>
-      <c r="X427" s="1">
-        <f t="shared" ref="X427:X440" si="80">Y427-0.5649</f>
+      <c r="Z427" s="1">
+        <f t="shared" ref="Z427:Z440" si="80">AA427-0.5649</f>
         <v>5.4000000000000048E-2</v>
       </c>
-      <c r="Y427" s="1">
+      <c r="AA427" s="1">
         <v>0.61890000000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:25">
+    <row r="428" spans="1:27">
       <c r="A428" s="1" t="s">
         <v>90</v>
       </c>
@@ -18535,15 +18627,15 @@
       <c r="S428" s="1">
         <v>2.97</v>
       </c>
-      <c r="X428" s="1">
+      <c r="Z428" s="1">
         <f t="shared" si="80"/>
         <v>4.6900000000000053E-2</v>
       </c>
-      <c r="Y428" s="1">
+      <c r="AA428" s="1">
         <v>0.61180000000000001</v>
       </c>
     </row>
-    <row r="429" spans="1:25">
+    <row r="429" spans="1:27">
       <c r="A429" s="1" t="s">
         <v>90</v>
       </c>
@@ -18575,15 +18667,15 @@
       <c r="S429" s="1">
         <v>2.84</v>
       </c>
-      <c r="X429" s="1">
+      <c r="Z429" s="1">
         <f t="shared" si="80"/>
         <v>6.8000000000000282E-3</v>
       </c>
-      <c r="Y429" s="1">
+      <c r="AA429" s="1">
         <v>0.57169999999999999</v>
       </c>
     </row>
-    <row r="430" spans="1:25">
+    <row r="430" spans="1:27">
       <c r="A430" s="1" t="s">
         <v>90</v>
       </c>
@@ -18615,15 +18707,15 @@
       <c r="S430" s="1">
         <v>2.97</v>
       </c>
-      <c r="X430" s="1">
+      <c r="Z430" s="1">
         <f t="shared" si="80"/>
         <v>4.8500000000000099E-2</v>
       </c>
-      <c r="Y430" s="1">
+      <c r="AA430" s="1">
         <v>0.61340000000000006</v>
       </c>
     </row>
-    <row r="431" spans="1:25">
+    <row r="431" spans="1:27">
       <c r="A431" s="1" t="s">
         <v>90</v>
       </c>
@@ -18655,15 +18747,15 @@
       <c r="S431" s="1">
         <v>3.04</v>
       </c>
-      <c r="X431" s="1">
+      <c r="Z431" s="1">
         <f t="shared" si="80"/>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="Y431" s="1">
+      <c r="AA431" s="1">
         <v>0.60489999999999999</v>
       </c>
     </row>
-    <row r="432" spans="1:25">
+    <row r="432" spans="1:27">
       <c r="A432" s="1" t="s">
         <v>90</v>
       </c>
@@ -18677,7 +18769,7 @@
         <v>102</v>
       </c>
       <c r="E432" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F432" s="1" t="s">
         <v>87</v>
@@ -18695,15 +18787,15 @@
       <c r="S432" s="1">
         <v>3.02</v>
       </c>
-      <c r="X432" s="1">
+      <c r="Z432" s="1">
         <f t="shared" si="80"/>
         <v>5.3200000000000025E-2</v>
       </c>
-      <c r="Y432" s="1">
+      <c r="AA432" s="1">
         <v>0.61809999999999998</v>
       </c>
     </row>
-    <row r="433" spans="1:25">
+    <row r="433" spans="1:27">
       <c r="A433" s="1" t="s">
         <v>90</v>
       </c>
@@ -18717,7 +18809,7 @@
         <v>103</v>
       </c>
       <c r="E433" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F433" s="1" t="s">
         <v>87</v>
@@ -18735,15 +18827,15 @@
       <c r="S433" s="1">
         <v>2.99</v>
       </c>
-      <c r="X433" s="1">
+      <c r="Z433" s="1">
         <f t="shared" si="80"/>
         <v>3.0999999999999917E-3</v>
       </c>
-      <c r="Y433" s="1">
+      <c r="AA433" s="1">
         <v>0.56799999999999995</v>
       </c>
     </row>
-    <row r="434" spans="1:25">
+    <row r="434" spans="1:27">
       <c r="A434" s="1" t="s">
         <v>90</v>
       </c>
@@ -18757,7 +18849,7 @@
         <v>104</v>
       </c>
       <c r="E434" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F434" s="1" t="s">
         <v>87</v>
@@ -18775,15 +18867,15 @@
       <c r="S434" s="1">
         <v>2.99</v>
       </c>
-      <c r="X434" s="1">
+      <c r="Z434" s="1">
         <f t="shared" si="80"/>
         <v>2.7000000000000357E-3</v>
       </c>
-      <c r="Y434" s="1">
+      <c r="AA434" s="1">
         <v>0.56759999999999999</v>
       </c>
     </row>
-    <row r="435" spans="1:25">
+    <row r="435" spans="1:27">
       <c r="A435" s="1" t="s">
         <v>90</v>
       </c>
@@ -18797,7 +18889,7 @@
         <v>105</v>
       </c>
       <c r="E435" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F435" s="1" t="s">
         <v>87</v>
@@ -18815,15 +18907,15 @@
       <c r="S435" s="1">
         <v>3.01</v>
       </c>
-      <c r="X435" s="1">
+      <c r="Z435" s="1">
         <f t="shared" si="80"/>
         <v>3.0500000000000083E-2</v>
       </c>
-      <c r="Y435" s="1">
+      <c r="AA435" s="1">
         <v>0.59540000000000004</v>
       </c>
     </row>
-    <row r="436" spans="1:25">
+    <row r="436" spans="1:27">
       <c r="A436" s="1" t="s">
         <v>90</v>
       </c>
@@ -18837,7 +18929,7 @@
         <v>106</v>
       </c>
       <c r="E436" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F436" s="1" t="s">
         <v>87</v>
@@ -18855,15 +18947,15 @@
       <c r="S436" s="1">
         <v>2.93</v>
       </c>
-      <c r="X436" s="1">
+      <c r="Z436" s="1">
         <f t="shared" si="80"/>
         <v>3.4700000000000064E-2</v>
       </c>
-      <c r="Y436" s="1">
+      <c r="AA436" s="1">
         <v>0.59960000000000002</v>
       </c>
     </row>
-    <row r="437" spans="1:25">
+    <row r="437" spans="1:27">
       <c r="A437" s="1" t="s">
         <v>90</v>
       </c>
@@ -18877,7 +18969,7 @@
         <v>107</v>
       </c>
       <c r="E437" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F437" s="1" t="s">
         <v>87</v>
@@ -18895,15 +18987,15 @@
       <c r="S437" s="1">
         <v>3.03</v>
       </c>
-      <c r="X437" s="1">
+      <c r="Z437" s="1">
         <f t="shared" si="80"/>
         <v>3.4600000000000075E-2</v>
       </c>
-      <c r="Y437" s="1">
+      <c r="AA437" s="1">
         <v>0.59950000000000003</v>
       </c>
     </row>
-    <row r="438" spans="1:25">
+    <row r="438" spans="1:27">
       <c r="A438" s="1" t="s">
         <v>90</v>
       </c>
@@ -18917,7 +19009,7 @@
         <v>108</v>
       </c>
       <c r="E438" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F438" s="1" t="s">
         <v>87</v>
@@ -18935,15 +19027,15 @@
       <c r="S438" s="1">
         <v>2.98</v>
       </c>
-      <c r="X438" s="1">
+      <c r="Z438" s="1">
         <f t="shared" si="80"/>
         <v>2.0700000000000052E-2</v>
       </c>
-      <c r="Y438" s="1">
+      <c r="AA438" s="1">
         <v>0.58560000000000001</v>
       </c>
     </row>
-    <row r="439" spans="1:25">
+    <row r="439" spans="1:27">
       <c r="A439" s="1" t="s">
         <v>90</v>
       </c>
@@ -18975,15 +19067,15 @@
       <c r="S439" s="1">
         <v>2.98</v>
       </c>
-      <c r="X439" s="1">
+      <c r="Z439" s="1">
         <f t="shared" si="80"/>
         <v>-4.1999999999999815E-3</v>
       </c>
-      <c r="Y439" s="1">
+      <c r="AA439" s="1">
         <v>0.56069999999999998</v>
       </c>
     </row>
-    <row r="440" spans="1:25">
+    <row r="440" spans="1:27">
       <c r="A440" s="1" t="s">
         <v>90</v>
       </c>
@@ -19015,15 +19107,15 @@
       <c r="S440" s="1">
         <v>2.88</v>
       </c>
-      <c r="X440" s="1">
+      <c r="Z440" s="1">
         <f t="shared" si="80"/>
         <v>3.9100000000000024E-2</v>
       </c>
-      <c r="Y440" s="1">
+      <c r="AA440" s="1">
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="441" spans="1:25">
+    <row r="441" spans="1:27">
       <c r="A441" s="1" t="s">
         <v>90</v>
       </c>
@@ -19055,15 +19147,15 @@
       <c r="S441" s="1">
         <v>3.36</v>
       </c>
-      <c r="X441" s="1">
-        <f>Y441-0.6516</f>
+      <c r="Z441" s="1">
+        <f>AA441-0.6516</f>
         <v>-4.1100000000000025E-2</v>
       </c>
-      <c r="Y441" s="1">
+      <c r="AA441" s="1">
         <v>0.61049999999999993</v>
       </c>
     </row>
-    <row r="442" spans="1:25">
+    <row r="442" spans="1:27">
       <c r="A442" s="1" t="s">
         <v>90</v>
       </c>
@@ -19095,15 +19187,15 @@
       <c r="S442" s="1">
         <v>3.21</v>
       </c>
-      <c r="X442" s="1">
-        <f>Y442-0.6516</f>
+      <c r="Z442" s="1">
+        <f>AA442-0.6516</f>
         <v>-5.6000000000000494E-3</v>
       </c>
-      <c r="Y442" s="1">
+      <c r="AA442" s="1">
         <v>0.64599999999999991</v>
       </c>
     </row>
-    <row r="443" spans="1:25">
+    <row r="443" spans="1:27">
       <c r="A443" s="1" t="s">
         <v>90</v>
       </c>
@@ -19135,15 +19227,15 @@
       <c r="S443" s="1">
         <v>3.27</v>
       </c>
-      <c r="X443" s="1">
-        <f t="shared" ref="X443:X456" si="82">Y443-0.6516</f>
+      <c r="Z443" s="1">
+        <f t="shared" ref="Z443:Z456" si="82">AA443-0.6516</f>
         <v>3.4200000000000008E-2</v>
       </c>
-      <c r="Y443" s="1">
+      <c r="AA443" s="1">
         <v>0.68579999999999997</v>
       </c>
     </row>
-    <row r="444" spans="1:25">
+    <row r="444" spans="1:27">
       <c r="A444" s="1" t="s">
         <v>90</v>
       </c>
@@ -19175,15 +19267,15 @@
       <c r="S444" s="1">
         <v>3.31</v>
       </c>
-      <c r="X444" s="1">
+      <c r="Z444" s="1">
         <f t="shared" si="82"/>
         <v>1.2700000000000156E-2</v>
       </c>
-      <c r="Y444" s="1">
+      <c r="AA444" s="1">
         <v>0.66430000000000011</v>
       </c>
     </row>
-    <row r="445" spans="1:25">
+    <row r="445" spans="1:27">
       <c r="A445" s="1" t="s">
         <v>90</v>
       </c>
@@ -19215,15 +19307,15 @@
       <c r="S445" s="1">
         <v>3.27</v>
       </c>
-      <c r="X445" s="1">
+      <c r="Z445" s="1">
         <f t="shared" si="82"/>
         <v>-3.0999999999999917E-3</v>
       </c>
-      <c r="Y445" s="1">
+      <c r="AA445" s="1">
         <v>0.64849999999999997</v>
       </c>
     </row>
-    <row r="446" spans="1:25">
+    <row r="446" spans="1:27">
       <c r="A446" s="1" t="s">
         <v>90</v>
       </c>
@@ -19255,15 +19347,15 @@
       <c r="S446" s="1">
         <v>3.28</v>
       </c>
-      <c r="X446" s="1">
+      <c r="Z446" s="1">
         <f t="shared" si="82"/>
         <v>2.3599999999999954E-2</v>
       </c>
-      <c r="Y446" s="1">
+      <c r="AA446" s="1">
         <v>0.67519999999999991</v>
       </c>
     </row>
-    <row r="447" spans="1:25">
+    <row r="447" spans="1:27">
       <c r="A447" s="1" t="s">
         <v>90</v>
       </c>
@@ -19295,15 +19387,15 @@
       <c r="S447" s="1">
         <v>3.38</v>
       </c>
-      <c r="X447" s="1">
+      <c r="Z447" s="1">
         <f t="shared" si="82"/>
         <v>2.9000000000001247E-3</v>
       </c>
-      <c r="Y447" s="1">
+      <c r="AA447" s="1">
         <v>0.65450000000000008</v>
       </c>
     </row>
-    <row r="448" spans="1:25">
+    <row r="448" spans="1:27">
       <c r="A448" s="1" t="s">
         <v>90</v>
       </c>
@@ -19317,7 +19409,7 @@
         <v>102</v>
       </c>
       <c r="E448" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F448" s="1" t="s">
         <v>87</v>
@@ -19335,15 +19427,15 @@
       <c r="S448" s="1">
         <v>3.33</v>
       </c>
-      <c r="X448" s="1">
+      <c r="Z448" s="1">
         <f t="shared" si="82"/>
         <v>2.2199999999999998E-2</v>
       </c>
-      <c r="Y448" s="1">
+      <c r="AA448" s="1">
         <v>0.67379999999999995</v>
       </c>
     </row>
-    <row r="449" spans="1:25">
+    <row r="449" spans="1:27">
       <c r="A449" s="1" t="s">
         <v>90</v>
       </c>
@@ -19357,7 +19449,7 @@
         <v>103</v>
       </c>
       <c r="E449" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F449" s="1" t="s">
         <v>87</v>
@@ -19375,15 +19467,15 @@
       <c r="S449" s="1">
         <v>3.34</v>
       </c>
-      <c r="X449" s="1">
+      <c r="Z449" s="1">
         <f t="shared" si="82"/>
         <v>-2.5599999999999956E-2</v>
       </c>
-      <c r="Y449" s="1">
+      <c r="AA449" s="1">
         <v>0.626</v>
       </c>
     </row>
-    <row r="450" spans="1:25">
+    <row r="450" spans="1:27">
       <c r="A450" s="1" t="s">
         <v>90</v>
       </c>
@@ -19397,7 +19489,7 @@
         <v>104</v>
       </c>
       <c r="E450" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F450" s="1" t="s">
         <v>87</v>
@@ -19415,15 +19507,15 @@
       <c r="S450" s="1">
         <v>3.34</v>
       </c>
-      <c r="X450" s="1">
+      <c r="Z450" s="1">
         <f t="shared" si="82"/>
         <v>-2.9299999999999993E-2</v>
       </c>
-      <c r="Y450" s="1">
+      <c r="AA450" s="1">
         <v>0.62229999999999996</v>
       </c>
     </row>
-    <row r="451" spans="1:25">
+    <row r="451" spans="1:27">
       <c r="A451" s="1" t="s">
         <v>90</v>
       </c>
@@ -19437,7 +19529,7 @@
         <v>105</v>
       </c>
       <c r="E451" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F451" s="1" t="s">
         <v>87</v>
@@ -19455,15 +19547,15 @@
       <c r="S451" s="1">
         <v>3.35</v>
       </c>
-      <c r="X451" s="1">
+      <c r="Z451" s="1">
         <f t="shared" si="82"/>
         <v>-2.4999999999999467E-3</v>
       </c>
-      <c r="Y451" s="1">
+      <c r="AA451" s="1">
         <v>0.64910000000000001</v>
       </c>
     </row>
-    <row r="452" spans="1:25">
+    <row r="452" spans="1:27">
       <c r="A452" s="1" t="s">
         <v>90</v>
       </c>
@@ -19477,7 +19569,7 @@
         <v>106</v>
       </c>
       <c r="E452" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F452" s="1" t="s">
         <v>87</v>
@@ -19495,15 +19587,15 @@
       <c r="S452" s="1">
         <v>3.28</v>
       </c>
-      <c r="X452" s="1">
+      <c r="Z452" s="1">
         <f t="shared" si="82"/>
         <v>1.5800000000000036E-2</v>
       </c>
-      <c r="Y452" s="1">
+      <c r="AA452" s="1">
         <v>0.66739999999999999</v>
       </c>
     </row>
-    <row r="453" spans="1:25">
+    <row r="453" spans="1:27">
       <c r="A453" s="1" t="s">
         <v>90</v>
       </c>
@@ -19517,7 +19609,7 @@
         <v>107</v>
       </c>
       <c r="E453" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F453" s="1" t="s">
         <v>87</v>
@@ -19535,15 +19627,15 @@
       <c r="S453" s="1">
         <v>3.36</v>
       </c>
-      <c r="X453" s="1">
+      <c r="Z453" s="1">
         <f t="shared" si="82"/>
         <v>1.9000000000000128E-3</v>
       </c>
-      <c r="Y453" s="1">
+      <c r="AA453" s="1">
         <v>0.65349999999999997</v>
       </c>
     </row>
-    <row r="454" spans="1:25">
+    <row r="454" spans="1:27">
       <c r="A454" s="1" t="s">
         <v>90</v>
       </c>
@@ -19557,7 +19649,7 @@
         <v>108</v>
       </c>
       <c r="E454" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F454" s="1" t="s">
         <v>87</v>
@@ -19575,15 +19667,15 @@
       <c r="S454" s="1">
         <v>3.32</v>
       </c>
-      <c r="X454" s="1">
+      <c r="Z454" s="1">
         <f t="shared" si="82"/>
         <v>-1.6299999999999981E-2</v>
       </c>
-      <c r="Y454" s="1">
+      <c r="AA454" s="1">
         <v>0.63529999999999998</v>
       </c>
     </row>
-    <row r="455" spans="1:25">
+    <row r="455" spans="1:27">
       <c r="A455" s="1" t="s">
         <v>90</v>
       </c>
@@ -19615,15 +19707,15 @@
       <c r="S455" s="1">
         <v>3.35</v>
       </c>
-      <c r="X455" s="1">
+      <c r="Z455" s="1">
         <f t="shared" si="82"/>
         <v>-2.5899999999999923E-2</v>
       </c>
-      <c r="Y455" s="1">
+      <c r="AA455" s="1">
         <v>0.62570000000000003</v>
       </c>
     </row>
-    <row r="456" spans="1:25">
+    <row r="456" spans="1:27">
       <c r="A456" s="1" t="s">
         <v>90</v>
       </c>
@@ -19655,15 +19747,15 @@
       <c r="S456" s="1">
         <v>3.28</v>
       </c>
-      <c r="X456" s="1">
+      <c r="Z456" s="1">
         <f t="shared" si="82"/>
         <v>9.8000000000000309E-3</v>
       </c>
-      <c r="Y456" s="1">
+      <c r="AA456" s="1">
         <v>0.66139999999999999</v>
       </c>
     </row>
-    <row r="457" spans="1:25">
+    <row r="457" spans="1:27">
       <c r="A457" s="1" t="s">
         <v>90</v>
       </c>
@@ -19695,15 +19787,15 @@
       <c r="S457" s="1">
         <v>3.69</v>
       </c>
-      <c r="X457" s="1">
-        <f>Y457-0.7116</f>
+      <c r="Z457" s="1">
+        <f>AA457-0.7116</f>
         <v>-4.5399999999999996E-2</v>
       </c>
-      <c r="Y457" s="1">
+      <c r="AA457" s="1">
         <v>0.66620000000000001</v>
       </c>
     </row>
-    <row r="458" spans="1:25">
+    <row r="458" spans="1:27">
       <c r="A458" s="1" t="s">
         <v>90</v>
       </c>
@@ -19735,15 +19827,15 @@
       <c r="S458" s="1">
         <v>3.37</v>
       </c>
-      <c r="X458" s="1">
-        <f>Y458-0.7116</f>
+      <c r="Z458" s="1">
+        <f>AA458-0.7116</f>
         <v>-4.2899999999999938E-2</v>
       </c>
-      <c r="Y458" s="1">
+      <c r="AA458" s="1">
         <v>0.66870000000000007</v>
       </c>
     </row>
-    <row r="459" spans="1:25">
+    <row r="459" spans="1:27">
       <c r="A459" s="1" t="s">
         <v>90</v>
       </c>
@@ -19775,15 +19867,15 @@
       <c r="S459" s="1">
         <v>3.6</v>
       </c>
-      <c r="X459" s="1">
-        <f t="shared" ref="X459:X472" si="84">Y459-0.7116</f>
+      <c r="Z459" s="1">
+        <f t="shared" ref="Z459:Z472" si="84">AA459-0.7116</f>
         <v>1.4800000000000035E-2</v>
       </c>
-      <c r="Y459" s="1">
+      <c r="AA459" s="1">
         <v>0.72640000000000005</v>
       </c>
     </row>
-    <row r="460" spans="1:25">
+    <row r="460" spans="1:27">
       <c r="A460" s="1" t="s">
         <v>90</v>
       </c>
@@ -19815,15 +19907,15 @@
       <c r="S460" s="1">
         <v>3.63</v>
       </c>
-      <c r="X460" s="1">
+      <c r="Z460" s="1">
         <f t="shared" si="84"/>
         <v>-1.0000000000000009E-3</v>
       </c>
-      <c r="Y460" s="1">
+      <c r="AA460" s="1">
         <v>0.71060000000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:25">
+    <row r="461" spans="1:27">
       <c r="A461" s="1" t="s">
         <v>90</v>
       </c>
@@ -19855,15 +19947,15 @@
       <c r="S461" s="1">
         <v>3.64</v>
       </c>
-      <c r="X461" s="1">
+      <c r="Z461" s="1">
         <f t="shared" si="84"/>
         <v>-2.8400000000000092E-2</v>
       </c>
-      <c r="Y461" s="1">
+      <c r="AA461" s="1">
         <v>0.68319999999999992</v>
       </c>
     </row>
-    <row r="462" spans="1:25">
+    <row r="462" spans="1:27">
       <c r="A462" s="1" t="s">
         <v>90</v>
       </c>
@@ -19895,15 +19987,15 @@
       <c r="S462" s="1">
         <v>3.58</v>
       </c>
-      <c r="X462" s="1">
+      <c r="Z462" s="1">
         <f t="shared" si="84"/>
         <v>-1.4999999999999458E-3</v>
       </c>
-      <c r="Y462" s="1">
+      <c r="AA462" s="1">
         <v>0.71010000000000006</v>
       </c>
     </row>
-    <row r="463" spans="1:25">
+    <row r="463" spans="1:27">
       <c r="A463" s="1" t="s">
         <v>90</v>
       </c>
@@ -19935,15 +20027,15 @@
       <c r="S463" s="1">
         <v>3.69</v>
       </c>
-      <c r="X463" s="1">
+      <c r="Z463" s="1">
         <f t="shared" si="84"/>
         <v>-2.4399999999999977E-2</v>
       </c>
-      <c r="Y463" s="1">
+      <c r="AA463" s="1">
         <v>0.68720000000000003</v>
       </c>
     </row>
-    <row r="464" spans="1:25">
+    <row r="464" spans="1:27">
       <c r="A464" s="1" t="s">
         <v>90</v>
       </c>
@@ -19957,7 +20049,7 @@
         <v>102</v>
       </c>
       <c r="E464" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F464" s="1" t="s">
         <v>87</v>
@@ -19975,15 +20067,15 @@
       <c r="S464" s="1">
         <v>3.62</v>
       </c>
-      <c r="X464" s="1">
+      <c r="Z464" s="1">
         <f t="shared" si="84"/>
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="Y464" s="1">
+      <c r="AA464" s="1">
         <v>0.7056</v>
       </c>
     </row>
-    <row r="465" spans="1:25">
+    <row r="465" spans="1:27">
       <c r="A465" s="1" t="s">
         <v>90</v>
       </c>
@@ -19997,7 +20089,7 @@
         <v>103</v>
       </c>
       <c r="E465" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F465" s="1" t="s">
         <v>87</v>
@@ -20015,15 +20107,15 @@
       <c r="S465" s="1">
         <v>3.64</v>
       </c>
-      <c r="X465" s="1">
+      <c r="Z465" s="1">
         <f t="shared" si="84"/>
         <v>-5.0800000000000067E-2</v>
       </c>
-      <c r="Y465" s="1">
+      <c r="AA465" s="1">
         <v>0.66079999999999994</v>
       </c>
     </row>
-    <row r="466" spans="1:25">
+    <row r="466" spans="1:27">
       <c r="A466" s="1" t="s">
         <v>90</v>
       </c>
@@ -20037,7 +20129,7 @@
         <v>104</v>
       </c>
       <c r="E466" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F466" s="1" t="s">
         <v>87</v>
@@ -20055,15 +20147,15 @@
       <c r="S466" s="1">
         <v>3.64</v>
       </c>
-      <c r="X466" s="1">
+      <c r="Z466" s="1">
         <f t="shared" si="84"/>
         <v>-5.0300000000000011E-2</v>
       </c>
-      <c r="Y466" s="1">
+      <c r="AA466" s="1">
         <v>0.6613</v>
       </c>
     </row>
-    <row r="467" spans="1:25">
+    <row r="467" spans="1:27">
       <c r="A467" s="1" t="s">
         <v>90</v>
       </c>
@@ -20077,7 +20169,7 @@
         <v>105</v>
       </c>
       <c r="E467" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F467" s="1" t="s">
         <v>87</v>
@@ -20095,15 +20187,15 @@
       <c r="S467" s="1">
         <v>3.66</v>
       </c>
-      <c r="X467" s="1">
+      <c r="Z467" s="1">
         <f t="shared" si="84"/>
         <v>-2.7200000000000002E-2</v>
       </c>
-      <c r="Y467" s="1">
+      <c r="AA467" s="1">
         <v>0.68440000000000001</v>
       </c>
     </row>
-    <row r="468" spans="1:25">
+    <row r="468" spans="1:27">
       <c r="A468" s="1" t="s">
         <v>90</v>
       </c>
@@ -20117,7 +20209,7 @@
         <v>106</v>
       </c>
       <c r="E468" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F468" s="1" t="s">
         <v>87</v>
@@ -20135,15 +20227,15 @@
       <c r="S468" s="1">
         <v>3.59</v>
       </c>
-      <c r="X468" s="1">
+      <c r="Z468" s="1">
         <f t="shared" si="84"/>
         <v>-4.7000000000000375E-3</v>
       </c>
-      <c r="Y468" s="1">
+      <c r="AA468" s="1">
         <v>0.70689999999999997</v>
       </c>
     </row>
-    <row r="469" spans="1:25">
+    <row r="469" spans="1:27">
       <c r="A469" s="1" t="s">
         <v>90</v>
       </c>
@@ -20157,7 +20249,7 @@
         <v>107</v>
       </c>
       <c r="E469" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F469" s="1" t="s">
         <v>87</v>
@@ -20175,15 +20267,15 @@
       <c r="S469" s="1">
         <v>3.65</v>
       </c>
-      <c r="X469" s="1">
+      <c r="Z469" s="1">
         <f t="shared" si="84"/>
         <v>-2.3600000000000065E-2</v>
       </c>
-      <c r="Y469" s="1">
+      <c r="AA469" s="1">
         <v>0.68799999999999994</v>
       </c>
     </row>
-    <row r="470" spans="1:25">
+    <row r="470" spans="1:27">
       <c r="A470" s="1" t="s">
         <v>90</v>
       </c>
@@ -20197,7 +20289,7 @@
         <v>108</v>
       </c>
       <c r="E470" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F470" s="1" t="s">
         <v>87</v>
@@ -20215,15 +20307,15 @@
       <c r="S470" s="1">
         <v>3.63</v>
       </c>
-      <c r="X470" s="1">
+      <c r="Z470" s="1">
         <f t="shared" si="84"/>
         <v>-4.2599999999999971E-2</v>
       </c>
-      <c r="Y470" s="1">
+      <c r="AA470" s="1">
         <v>0.66900000000000004</v>
       </c>
     </row>
-    <row r="471" spans="1:25">
+    <row r="471" spans="1:27">
       <c r="A471" s="1" t="s">
         <v>90</v>
       </c>
@@ -20255,15 +20347,15 @@
       <c r="S471" s="1">
         <v>3.68</v>
       </c>
-      <c r="X471" s="1">
+      <c r="Z471" s="1">
         <f t="shared" si="84"/>
         <v>-3.8200000000000012E-2</v>
       </c>
-      <c r="Y471" s="1">
+      <c r="AA471" s="1">
         <v>0.6734</v>
       </c>
     </row>
-    <row r="472" spans="1:25">
+    <row r="472" spans="1:27">
       <c r="A472" s="1" t="s">
         <v>90</v>
       </c>
@@ -20295,15 +20387,15 @@
       <c r="S472" s="1">
         <v>3.63</v>
       </c>
-      <c r="X472" s="1">
+      <c r="Z472" s="1">
         <f t="shared" si="84"/>
         <v>-1.2299999999999978E-2</v>
       </c>
-      <c r="Y472" s="1">
+      <c r="AA472" s="1">
         <v>0.69930000000000003</v>
       </c>
     </row>
-    <row r="473" spans="1:25">
+    <row r="473" spans="1:27">
       <c r="A473" s="1" t="s">
         <v>90</v>
       </c>
@@ -20335,15 +20427,15 @@
       <c r="S473" s="1">
         <v>3.94</v>
       </c>
-      <c r="X473" s="4">
-        <f>Y473-0.7368</f>
+      <c r="Z473" s="4">
+        <f>AA473-0.7368</f>
         <v>-3.4400000000000097E-2</v>
       </c>
-      <c r="Y473" s="4">
+      <c r="AA473" s="4">
         <v>0.70239999999999991</v>
       </c>
     </row>
-    <row r="474" spans="1:25">
+    <row r="474" spans="1:27">
       <c r="A474" s="1" t="s">
         <v>90</v>
       </c>
@@ -20375,15 +20467,15 @@
       <c r="S474" s="1">
         <v>3.47</v>
       </c>
-      <c r="X474" s="4">
-        <f>Y474-0.7368</f>
+      <c r="Z474" s="4">
+        <f>AA474-0.7368</f>
         <v>-5.2900000000000058E-2</v>
       </c>
-      <c r="Y474" s="4">
+      <c r="AA474" s="4">
         <v>0.68389999999999995</v>
       </c>
     </row>
-    <row r="475" spans="1:25">
+    <row r="475" spans="1:27">
       <c r="A475" s="1" t="s">
         <v>90</v>
       </c>
@@ -20415,15 +20507,15 @@
       <c r="S475" s="1">
         <v>3.89</v>
       </c>
-      <c r="X475" s="4">
-        <f t="shared" ref="X475:X488" si="86">Y475-0.7368</f>
+      <c r="Z475" s="4">
+        <f t="shared" ref="Z475:Z488" si="86">AA475-0.7368</f>
         <v>4.4999999999999485E-3</v>
       </c>
-      <c r="Y475" s="4">
+      <c r="AA475" s="4">
         <v>0.74129999999999996</v>
       </c>
     </row>
-    <row r="476" spans="1:25">
+    <row r="476" spans="1:27">
       <c r="A476" s="1" t="s">
         <v>90</v>
       </c>
@@ -20455,15 +20547,15 @@
       <c r="S476" s="1">
         <v>3.89</v>
       </c>
-      <c r="X476" s="4">
+      <c r="Z476" s="4">
         <f t="shared" si="86"/>
         <v>-1.0800000000000032E-2</v>
       </c>
-      <c r="Y476" s="4">
+      <c r="AA476" s="4">
         <v>0.72599999999999998</v>
       </c>
     </row>
-    <row r="477" spans="1:25">
+    <row r="477" spans="1:27">
       <c r="A477" s="1" t="s">
         <v>90</v>
       </c>
@@ -20495,15 +20587,15 @@
       <c r="S477" s="1">
         <v>3.92</v>
       </c>
-      <c r="X477" s="4">
+      <c r="Z477" s="4">
         <f t="shared" si="86"/>
         <v>-2.4000000000000021E-2</v>
       </c>
-      <c r="Y477" s="4">
+      <c r="AA477" s="4">
         <v>0.71279999999999999</v>
       </c>
     </row>
-    <row r="478" spans="1:25">
+    <row r="478" spans="1:27">
       <c r="A478" s="1" t="s">
         <v>90</v>
       </c>
@@ -20535,15 +20627,15 @@
       <c r="S478" s="1">
         <v>3.84</v>
       </c>
-      <c r="X478" s="4">
+      <c r="Z478" s="4">
         <f t="shared" si="86"/>
         <v>-2.9999999999996696E-4</v>
       </c>
-      <c r="Y478" s="4">
+      <c r="AA478" s="4">
         <v>0.73650000000000004</v>
       </c>
     </row>
-    <row r="479" spans="1:25">
+    <row r="479" spans="1:27">
       <c r="A479" s="1" t="s">
         <v>90</v>
       </c>
@@ -20575,15 +20667,15 @@
       <c r="S479" s="1">
         <v>3.94</v>
       </c>
-      <c r="X479" s="4">
+      <c r="Z479" s="4">
         <f t="shared" si="86"/>
         <v>-2.1199999999999997E-2</v>
       </c>
-      <c r="Y479" s="4">
+      <c r="AA479" s="4">
         <v>0.71560000000000001</v>
       </c>
     </row>
-    <row r="480" spans="1:25">
+    <row r="480" spans="1:27">
       <c r="A480" s="1" t="s">
         <v>90</v>
       </c>
@@ -20597,7 +20689,7 @@
         <v>102</v>
       </c>
       <c r="E480" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F480" s="1" t="s">
         <v>87</v>
@@ -20615,15 +20707,15 @@
       <c r="S480" s="1">
         <v>3.88</v>
       </c>
-      <c r="X480" s="4">
+      <c r="Z480" s="4">
         <f t="shared" si="86"/>
         <v>-6.0000000000000053E-3</v>
       </c>
-      <c r="Y480" s="4">
+      <c r="AA480" s="4">
         <v>0.73080000000000001</v>
       </c>
     </row>
-    <row r="481" spans="1:25">
+    <row r="481" spans="1:27">
       <c r="A481" s="1" t="s">
         <v>90</v>
       </c>
@@ -20637,7 +20729,7 @@
         <v>103</v>
       </c>
       <c r="E481" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F481" s="1" t="s">
         <v>87</v>
@@ -20655,15 +20747,15 @@
       <c r="S481" s="1">
         <v>3.88</v>
       </c>
-      <c r="X481" s="4">
+      <c r="Z481" s="4">
         <f t="shared" si="86"/>
         <v>-4.3200000000000016E-2</v>
       </c>
-      <c r="Y481" s="4">
+      <c r="AA481" s="4">
         <v>0.69359999999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:25">
+    <row r="482" spans="1:27">
       <c r="A482" s="1" t="s">
         <v>90</v>
       </c>
@@ -20677,7 +20769,7 @@
         <v>104</v>
       </c>
       <c r="E482" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F482" s="1" t="s">
         <v>87</v>
@@ -20695,15 +20787,15 @@
       <c r="S482" s="1">
         <v>3.88</v>
       </c>
-      <c r="X482" s="4">
+      <c r="Z482" s="4">
         <f t="shared" si="86"/>
         <v>-4.2799999999999949E-2</v>
       </c>
-      <c r="Y482" s="4">
+      <c r="AA482" s="4">
         <v>0.69400000000000006</v>
       </c>
     </row>
-    <row r="483" spans="1:25">
+    <row r="483" spans="1:27">
       <c r="A483" s="1" t="s">
         <v>90</v>
       </c>
@@ -20717,7 +20809,7 @@
         <v>105</v>
       </c>
       <c r="E483" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F483" s="1" t="s">
         <v>87</v>
@@ -20735,15 +20827,15 @@
       <c r="S483" s="1">
         <v>3.9</v>
       </c>
-      <c r="X483" s="4">
+      <c r="Z483" s="4">
         <f t="shared" si="86"/>
         <v>-2.4499999999999966E-2</v>
       </c>
-      <c r="Y483" s="4">
+      <c r="AA483" s="4">
         <v>0.71230000000000004</v>
       </c>
     </row>
-    <row r="484" spans="1:25">
+    <row r="484" spans="1:27">
       <c r="A484" s="1" t="s">
         <v>90</v>
       </c>
@@ -20757,7 +20849,7 @@
         <v>106</v>
       </c>
       <c r="E484" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F484" s="1" t="s">
         <v>87</v>
@@ -20775,15 +20867,15 @@
       <c r="S484" s="1">
         <v>3.86</v>
       </c>
-      <c r="X484" s="4">
+      <c r="Z484" s="4">
         <f t="shared" si="86"/>
         <v>-5.9000000000000163E-3</v>
       </c>
-      <c r="Y484" s="4">
+      <c r="AA484" s="4">
         <v>0.73089999999999999</v>
       </c>
     </row>
-    <row r="485" spans="1:25">
+    <row r="485" spans="1:27">
       <c r="A485" s="1" t="s">
         <v>90</v>
       </c>
@@ -20797,7 +20889,7 @@
         <v>107</v>
       </c>
       <c r="E485" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F485" s="1" t="s">
         <v>87</v>
@@ -20815,15 +20907,15 @@
       <c r="S485" s="1">
         <v>3.91</v>
       </c>
-      <c r="X485" s="4">
+      <c r="Z485" s="4">
         <f t="shared" si="86"/>
         <v>-1.9499999999999962E-2</v>
       </c>
-      <c r="Y485" s="4">
+      <c r="AA485" s="4">
         <v>0.71730000000000005</v>
       </c>
     </row>
-    <row r="486" spans="1:25">
+    <row r="486" spans="1:27">
       <c r="A486" s="1" t="s">
         <v>90</v>
       </c>
@@ -20837,7 +20929,7 @@
         <v>108</v>
       </c>
       <c r="E486" s="1" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="F486" s="1" t="s">
         <v>87</v>
@@ -20855,15 +20947,15 @@
       <c r="S486" s="1">
         <v>3.89</v>
       </c>
-      <c r="X486" s="4">
+      <c r="Z486" s="4">
         <f t="shared" si="86"/>
         <v>-3.4700000000000064E-2</v>
       </c>
-      <c r="Y486" s="4">
+      <c r="AA486" s="4">
         <v>0.70209999999999995</v>
       </c>
     </row>
-    <row r="487" spans="1:25">
+    <row r="487" spans="1:27">
       <c r="A487" s="1" t="s">
         <v>90</v>
       </c>
@@ -20895,15 +20987,15 @@
       <c r="S487" s="1">
         <v>3.94</v>
       </c>
-      <c r="X487" s="4">
+      <c r="Z487" s="4">
         <f t="shared" si="86"/>
         <v>-2.9900000000000038E-2</v>
       </c>
-      <c r="Y487" s="4">
+      <c r="AA487" s="4">
         <v>0.70689999999999997</v>
       </c>
     </row>
-    <row r="488" spans="1:25">
+    <row r="488" spans="1:27">
       <c r="A488" s="1" t="s">
         <v>90</v>
       </c>
@@ -20935,12 +21027,648 @@
       <c r="S488" s="1">
         <v>3.89</v>
       </c>
-      <c r="X488" s="4">
+      <c r="Z488" s="4">
         <f t="shared" si="86"/>
         <v>-3.7000000000000366E-3</v>
       </c>
-      <c r="Y488" s="4">
+      <c r="AA488" s="4">
         <v>0.73309999999999997</v>
+      </c>
+    </row>
+    <row r="489" spans="1:27">
+      <c r="A489" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C489" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E489" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F489" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I489" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M489" s="1">
+        <v>0</v>
+      </c>
+      <c r="R489" s="1">
+        <f>S489-1.29</f>
+        <v>9.9999999999999867E-2</v>
+      </c>
+      <c r="S489" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="T489" s="1">
+        <f>U489-1.7</f>
+        <v>0.40000000000000013</v>
+      </c>
+      <c r="U489" s="1">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="490" spans="1:27">
+      <c r="A490" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C490" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E490" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F490" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I490" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M490" s="1">
+        <v>5</v>
+      </c>
+      <c r="R490" s="1">
+        <f>S490-1.37</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="S490" s="1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="491" spans="1:27">
+      <c r="A491" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B491" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C491" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E491" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F491" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I491" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M491" s="1">
+        <v>10</v>
+      </c>
+      <c r="R491" s="1">
+        <f>S491-1.58</f>
+        <v>0.25</v>
+      </c>
+      <c r="S491" s="1">
+        <v>1.83</v>
+      </c>
+    </row>
+    <row r="492" spans="1:27">
+      <c r="A492" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C492" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E492" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F492" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I492" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M492" s="1">
+        <v>0</v>
+      </c>
+      <c r="R492" s="1">
+        <f>S492-1.29</f>
+        <v>0.16999999999999993</v>
+      </c>
+      <c r="S492" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="T492" s="1">
+        <f>U492-1.8</f>
+        <v>0.59999999999999987</v>
+      </c>
+      <c r="U492" s="1">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:27">
+      <c r="A493" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E493" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F493" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I493" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M493" s="1">
+        <v>5</v>
+      </c>
+      <c r="R493" s="1">
+        <f>S493-1.44</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="S493" s="1">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="494" spans="1:27">
+      <c r="A494" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C494" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E494" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F494" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I494" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M494" s="1">
+        <v>10</v>
+      </c>
+      <c r="R494" s="1">
+        <f>S494-1.67</f>
+        <v>0.24</v>
+      </c>
+      <c r="S494" s="1">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="495" spans="1:27">
+      <c r="A495" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C495" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E495" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F495" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I495" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M495" s="1">
+        <v>0</v>
+      </c>
+      <c r="R495" s="1">
+        <f>S495-1.29</f>
+        <v>0.14999999999999991</v>
+      </c>
+      <c r="S495" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="T495" s="1">
+        <f>U495-1.7</f>
+        <v>0.8</v>
+      </c>
+      <c r="U495" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:27">
+      <c r="A496" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C496" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E496" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F496" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I496" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M496" s="1">
+        <v>5</v>
+      </c>
+      <c r="R496" s="1">
+        <f>S496-1.37</f>
+        <v>0.32999999999999985</v>
+      </c>
+      <c r="S496" s="1">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:21">
+      <c r="A497" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C497" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E497" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F497" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I497" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M497" s="1">
+        <v>10</v>
+      </c>
+      <c r="R497" s="1">
+        <f>S497-1.58</f>
+        <v>0.36999999999999988</v>
+      </c>
+      <c r="S497" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="498" spans="1:21">
+      <c r="A498" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C498" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E498" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F498" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I498" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M498" s="1">
+        <v>0</v>
+      </c>
+      <c r="R498" s="1">
+        <f>S498-1.29</f>
+        <v>0.24</v>
+      </c>
+      <c r="S498" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="T498" s="1">
+        <f>U498-1.8</f>
+        <v>0.99999999999999978</v>
+      </c>
+      <c r="U498" s="1">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="499" spans="1:21">
+      <c r="A499" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C499" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E499" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F499" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I499" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M499" s="1">
+        <v>5</v>
+      </c>
+      <c r="R499" s="1">
+        <f>S499-1.44</f>
+        <v>0.34000000000000008</v>
+      </c>
+      <c r="S499" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="500" spans="1:21">
+      <c r="A500" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C500" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E500" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F500" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I500" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M500" s="1">
+        <v>10</v>
+      </c>
+      <c r="R500" s="1">
+        <f>S500-1.67</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="S500" s="1">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="501" spans="1:21">
+      <c r="A501" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C501" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E501" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F501" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I501" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M501" s="1">
+        <v>0</v>
+      </c>
+      <c r="R501" s="1">
+        <f>S501-1.29</f>
+        <v>0.17999999999999994</v>
+      </c>
+      <c r="S501" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="T501" s="1">
+        <f>U501-1.7</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="U501" s="1">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:21">
+      <c r="A502" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C502" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E502" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F502" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I502" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M502" s="1">
+        <v>5</v>
+      </c>
+      <c r="R502" s="1">
+        <f>S502-1.37</f>
+        <v>0.34999999999999987</v>
+      </c>
+      <c r="S502" s="1">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="503" spans="1:21">
+      <c r="A503" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C503" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E503" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F503" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I503" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M503" s="1">
+        <v>10</v>
+      </c>
+      <c r="R503" s="1">
+        <f>S503-1.58</f>
+        <v>0.37999999999999989</v>
+      </c>
+      <c r="S503" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="504" spans="1:21">
+      <c r="A504" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C504" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E504" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F504" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I504" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M504" s="1">
+        <v>0</v>
+      </c>
+      <c r="R504" s="1">
+        <f>S504-1.29</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="S504" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="T504" s="1">
+        <f>U504-1.8</f>
+        <v>0.7</v>
+      </c>
+      <c r="U504" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:21">
+      <c r="A505" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C505" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E505" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F505" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I505" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M505" s="1">
+        <v>5</v>
+      </c>
+      <c r="R505" s="1">
+        <f>S505-1.44</f>
+        <v>0.37000000000000011</v>
+      </c>
+      <c r="S505" s="1">
+        <v>1.81</v>
+      </c>
+    </row>
+    <row r="506" spans="1:21">
+      <c r="A506" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E506" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F506" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I506" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M506" s="1">
+        <v>10</v>
+      </c>
+      <c r="R506" s="1">
+        <f>S506-1.67</f>
+        <v>0.35999999999999988</v>
+      </c>
+      <c r="S506" s="1">
+        <v>2.0299999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/Code/R/litresults.xlsx
+++ b/Code/R/litresults.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="460" yWindow="1020" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,7 +406,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -440,6 +440,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
@@ -1831,11 +1838,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:AA506"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A475" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E500" sqref="E500"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A459" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W496" sqref="W496"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11759,14 +11769,14 @@
       <c r="M257" s="1">
         <v>-5</v>
       </c>
-      <c r="R257" s="1">
+      <c r="R257" s="2">
         <f>S257-1.3586</f>
         <v>8.2999999999999963E-2</v>
       </c>
       <c r="S257" s="1">
         <v>1.4416</v>
       </c>
-      <c r="V257" s="1">
+      <c r="V257" s="2">
         <f>W257-0.5454</f>
         <v>0.121</v>
       </c>
@@ -11802,14 +11812,14 @@
       <c r="M258" s="1">
         <v>0</v>
       </c>
-      <c r="R258" s="1">
+      <c r="R258" s="2">
         <f>S258-1.6189</f>
         <v>0.2004999999999999</v>
       </c>
       <c r="S258" s="1">
         <v>1.8193999999999999</v>
       </c>
-      <c r="V258" s="1">
+      <c r="V258" s="2">
         <f>W258-0.6561</f>
         <v>0.11880000000000002</v>
       </c>
@@ -11845,14 +11855,14 @@
       <c r="M259" s="1">
         <v>-5</v>
       </c>
-      <c r="R259" s="1">
+      <c r="R259" s="2">
         <f>S259-1.3586</f>
         <v>0.48580000000000001</v>
       </c>
       <c r="S259" s="1">
         <v>1.8444</v>
       </c>
-      <c r="V259" s="1">
+      <c r="V259" s="2">
         <f>W259-0.5454</f>
         <v>0.15820000000000001</v>
       </c>
@@ -11888,14 +11898,14 @@
       <c r="M260" s="1">
         <v>0</v>
       </c>
-      <c r="R260" s="1">
+      <c r="R260" s="2">
         <f>S260-1.6189</f>
         <v>0.54389999999999983</v>
       </c>
       <c r="S260" s="1">
         <v>2.1627999999999998</v>
       </c>
-      <c r="V260" s="1">
+      <c r="V260" s="2">
         <f>W260-0.6561</f>
         <v>0.1512</v>
       </c>
@@ -11931,14 +11941,14 @@
       <c r="M261" s="1">
         <v>-5</v>
       </c>
-      <c r="R261" s="1">
+      <c r="R261" s="2">
         <f>S261-1.3586</f>
         <v>0.29489999999999994</v>
       </c>
       <c r="S261" s="1">
         <v>1.6535</v>
       </c>
-      <c r="V261" s="1">
+      <c r="V261" s="2">
         <f>W261-0.5454</f>
         <v>3.6800000000000055E-2</v>
       </c>
@@ -11974,14 +11984,14 @@
       <c r="M262" s="1">
         <v>0</v>
       </c>
-      <c r="R262" s="1">
+      <c r="R262" s="2">
         <f>S262-1.6189</f>
         <v>0.34939999999999993</v>
       </c>
       <c r="S262" s="1">
         <v>1.9682999999999999</v>
       </c>
-      <c r="V262" s="1">
+      <c r="V262" s="2">
         <f>W262-0.6561</f>
         <v>4.0599999999999969E-2</v>
       </c>
@@ -12017,14 +12027,14 @@
       <c r="M263" s="1">
         <v>-5</v>
       </c>
-      <c r="R263" s="1">
+      <c r="R263" s="2">
         <f>S263-1.3586</f>
         <v>0.15419999999999989</v>
       </c>
       <c r="S263" s="1">
         <v>1.5127999999999999</v>
       </c>
-      <c r="V263" s="1">
+      <c r="V263" s="2">
         <f>W263-0.5454</f>
         <v>1.8199999999999994E-2</v>
       </c>
@@ -12060,14 +12070,14 @@
       <c r="M264" s="1">
         <v>0</v>
       </c>
-      <c r="R264" s="1">
+      <c r="R264" s="2">
         <f>S264-1.6189</f>
         <v>0.18080000000000007</v>
       </c>
       <c r="S264" s="1">
         <v>1.7997000000000001</v>
       </c>
-      <c r="V264" s="1">
+      <c r="V264" s="2">
         <f>W264-0.6561</f>
         <v>2.1900000000000031E-2</v>
       </c>
@@ -12100,14 +12110,14 @@
       <c r="M265" s="1">
         <v>0</v>
       </c>
-      <c r="R265" s="1">
+      <c r="R265" s="2">
         <f>S265-1.55</f>
         <v>0.22999999999999998</v>
       </c>
       <c r="S265" s="1">
         <v>1.78</v>
       </c>
-      <c r="Z265" s="1">
+      <c r="Z265" s="2">
         <f>AA265-0.1411</f>
         <v>0.11299999999999999</v>
       </c>
@@ -12140,14 +12150,14 @@
       <c r="M266" s="1">
         <v>0</v>
       </c>
-      <c r="R266" s="1">
+      <c r="R266" s="2">
         <f t="shared" ref="R266:R280" si="3">S266-1.55</f>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="S266" s="1">
         <v>1.61</v>
       </c>
-      <c r="Z266" s="1">
+      <c r="Z266" s="2">
         <f>AA266-0.1411</f>
         <v>2.1500000000000019E-2</v>
       </c>
@@ -12180,14 +12190,14 @@
       <c r="M267" s="1">
         <v>0</v>
       </c>
-      <c r="R267" s="1">
+      <c r="R267" s="2">
         <f t="shared" si="3"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="S267" s="1">
         <v>1.61</v>
       </c>
-      <c r="Z267" s="1">
+      <c r="Z267" s="2">
         <f>AA267-0.1411</f>
         <v>1.6399999999999998E-2</v>
       </c>
@@ -12220,14 +12230,14 @@
       <c r="M268" s="1">
         <v>0</v>
       </c>
-      <c r="R268" s="1">
+      <c r="R268" s="2">
         <f t="shared" si="3"/>
         <v>0.45999999999999974</v>
       </c>
       <c r="S268" s="1">
         <v>2.0099999999999998</v>
       </c>
-      <c r="Z268" s="1">
+      <c r="Z268" s="2">
         <f t="shared" ref="Z268:Z280" si="4">AA268-0.1411</f>
         <v>0.1678</v>
       </c>
@@ -12260,14 +12270,14 @@
       <c r="M269" s="1">
         <v>0</v>
       </c>
-      <c r="R269" s="1">
+      <c r="R269" s="2">
         <f t="shared" si="3"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="S269" s="1">
         <v>1.78</v>
       </c>
-      <c r="Z269" s="1">
+      <c r="Z269" s="2">
         <f t="shared" si="4"/>
         <v>-5.3400000000000003E-2</v>
       </c>
@@ -12300,14 +12310,14 @@
       <c r="M270" s="1">
         <v>0</v>
       </c>
-      <c r="R270" s="1">
+      <c r="R270" s="2">
         <f t="shared" si="3"/>
         <v>0.49</v>
       </c>
       <c r="S270" s="1">
         <v>2.04</v>
       </c>
-      <c r="Z270" s="1">
+      <c r="Z270" s="2">
         <f t="shared" si="4"/>
         <v>8.9900000000000008E-2</v>
       </c>
@@ -12340,14 +12350,14 @@
       <c r="M271" s="1">
         <v>0</v>
       </c>
-      <c r="R271" s="1">
+      <c r="R271" s="2">
         <f t="shared" si="3"/>
         <v>0.59000000000000008</v>
       </c>
       <c r="S271" s="1">
         <v>2.14</v>
       </c>
-      <c r="Z271" s="1">
+      <c r="Z271" s="2">
         <f t="shared" si="4"/>
         <v>0.18459999999999999</v>
       </c>
@@ -12380,14 +12390,14 @@
       <c r="M272" s="1">
         <v>0</v>
       </c>
-      <c r="R272" s="1">
+      <c r="R272" s="2">
         <f t="shared" si="3"/>
         <v>0.57999999999999985</v>
       </c>
       <c r="S272" s="1">
         <v>2.13</v>
       </c>
-      <c r="Z272" s="1">
+      <c r="Z272" s="2">
         <f t="shared" si="4"/>
         <v>0.1346</v>
       </c>
@@ -12420,14 +12430,14 @@
       <c r="M273" s="1">
         <v>0</v>
       </c>
-      <c r="R273" s="1">
+      <c r="R273" s="2">
         <f t="shared" si="3"/>
         <v>0.40999999999999992</v>
       </c>
       <c r="S273" s="1">
         <v>1.96</v>
       </c>
-      <c r="Z273" s="1">
+      <c r="Z273" s="2">
         <f t="shared" si="4"/>
         <v>0.19140000000000001</v>
       </c>
@@ -12460,14 +12470,14 @@
       <c r="M274" s="1">
         <v>0</v>
       </c>
-      <c r="R274" s="1">
+      <c r="R274" s="2">
         <f t="shared" si="3"/>
         <v>0.3899999999999999</v>
       </c>
       <c r="S274" s="1">
         <v>1.94</v>
       </c>
-      <c r="Z274" s="1">
+      <c r="Z274" s="2">
         <f t="shared" si="4"/>
         <v>0.18020000000000003</v>
       </c>
@@ -12500,14 +12510,14 @@
       <c r="M275" s="1">
         <v>0</v>
       </c>
-      <c r="R275" s="1">
+      <c r="R275" s="2">
         <f t="shared" si="3"/>
         <v>0.55999999999999983</v>
       </c>
       <c r="S275" s="1">
         <v>2.11</v>
       </c>
-      <c r="Z275" s="1">
+      <c r="Z275" s="2">
         <f t="shared" si="4"/>
         <v>0.18780000000000002</v>
       </c>
@@ -12540,14 +12550,14 @@
       <c r="M276" s="1">
         <v>0</v>
       </c>
-      <c r="R276" s="1">
+      <c r="R276" s="2">
         <f t="shared" si="3"/>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S276" s="1">
         <v>1.65</v>
       </c>
-      <c r="Z276" s="1">
+      <c r="Z276" s="2">
         <f t="shared" si="4"/>
         <v>0.15359999999999996</v>
       </c>
@@ -12580,14 +12590,14 @@
       <c r="M277" s="1">
         <v>0</v>
       </c>
-      <c r="R277" s="1">
+      <c r="R277" s="2">
         <f t="shared" si="3"/>
         <v>0.55999999999999983</v>
       </c>
       <c r="S277" s="1">
         <v>2.11</v>
       </c>
-      <c r="Z277" s="1">
+      <c r="Z277" s="2">
         <f t="shared" si="4"/>
         <v>0.18549999999999994</v>
       </c>
@@ -12620,14 +12630,14 @@
       <c r="M278" s="1">
         <v>0</v>
       </c>
-      <c r="R278" s="1">
+      <c r="R278" s="2">
         <f t="shared" si="3"/>
         <v>0.59999999999999987</v>
       </c>
       <c r="S278" s="1">
         <v>2.15</v>
       </c>
-      <c r="Z278" s="1">
+      <c r="Z278" s="2">
         <f t="shared" si="4"/>
         <v>0.21950000000000003</v>
       </c>
@@ -12660,14 +12670,14 @@
       <c r="M279" s="1">
         <v>0</v>
       </c>
-      <c r="R279" s="1">
+      <c r="R279" s="2">
         <f t="shared" si="3"/>
         <v>0.61999999999999988</v>
       </c>
       <c r="S279" s="1">
         <v>2.17</v>
       </c>
-      <c r="Z279" s="1">
+      <c r="Z279" s="2">
         <f t="shared" si="4"/>
         <v>6.4000000000000001E-2</v>
       </c>
@@ -12700,14 +12710,14 @@
       <c r="M280" s="1">
         <v>0</v>
       </c>
-      <c r="R280" s="1">
+      <c r="R280" s="2">
         <f t="shared" si="3"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="S280" s="1">
         <v>1.97</v>
       </c>
-      <c r="Z280" s="1">
+      <c r="Z280" s="2">
         <f t="shared" si="4"/>
         <v>0.18149999999999999</v>
       </c>
@@ -12740,14 +12750,14 @@
       <c r="M281" s="1">
         <v>5</v>
       </c>
-      <c r="R281" s="1">
+      <c r="R281" s="2">
         <f>S281-1.9</f>
         <v>0.39000000000000012</v>
       </c>
       <c r="S281" s="1">
         <v>2.29</v>
       </c>
-      <c r="Z281" s="1">
+      <c r="Z281" s="2">
         <f>AA281-0.2216</f>
         <v>0.14720000000000003</v>
       </c>
@@ -12780,14 +12790,14 @@
       <c r="M282" s="1">
         <v>5</v>
       </c>
-      <c r="R282" s="1">
+      <c r="R282" s="2">
         <f t="shared" ref="R282:R296" si="5">S282-1.9</f>
         <v>0.18000000000000016</v>
       </c>
       <c r="S282" s="1">
         <v>2.08</v>
       </c>
-      <c r="Z282" s="1">
+      <c r="Z282" s="2">
         <f t="shared" ref="Z282:Z296" si="6">AA282-0.2216</f>
         <v>3.2800000000000024E-2</v>
       </c>
@@ -12820,14 +12830,14 @@
       <c r="M283" s="1">
         <v>5</v>
       </c>
-      <c r="R283" s="1">
+      <c r="R283" s="2">
         <f t="shared" si="5"/>
         <v>0.10000000000000009</v>
       </c>
       <c r="S283" s="1">
         <v>2</v>
       </c>
-      <c r="Z283" s="1">
+      <c r="Z283" s="2">
         <f t="shared" si="6"/>
         <v>2.6700000000000002E-2</v>
       </c>
@@ -12860,14 +12870,14 @@
       <c r="M284" s="1">
         <v>5</v>
       </c>
-      <c r="R284" s="1">
+      <c r="R284" s="2">
         <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
       <c r="S284" s="1">
         <v>2.42</v>
       </c>
-      <c r="Z284" s="1">
+      <c r="Z284" s="2">
         <f t="shared" si="6"/>
         <v>0.21049999999999999</v>
       </c>
@@ -12900,14 +12910,14 @@
       <c r="M285" s="1">
         <v>5</v>
       </c>
-      <c r="R285" s="1">
+      <c r="R285" s="2">
         <f t="shared" si="5"/>
         <v>0.33000000000000007</v>
       </c>
       <c r="S285" s="1">
         <v>2.23</v>
       </c>
-      <c r="Z285" s="1">
+      <c r="Z285" s="2">
         <f t="shared" si="6"/>
         <v>-5.3999999999999965E-2</v>
       </c>
@@ -12940,14 +12950,14 @@
       <c r="M286" s="1">
         <v>5</v>
       </c>
-      <c r="R286" s="1">
+      <c r="R286" s="2">
         <f t="shared" si="5"/>
         <v>0.51000000000000023</v>
       </c>
       <c r="S286" s="1">
         <v>2.41</v>
       </c>
-      <c r="Z286" s="1">
+      <c r="Z286" s="2">
         <f t="shared" si="6"/>
         <v>0.10529999999999998</v>
       </c>
@@ -12980,14 +12990,14 @@
       <c r="M287" s="1">
         <v>5</v>
       </c>
-      <c r="R287" s="1">
+      <c r="R287" s="2">
         <f t="shared" si="5"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="S287" s="1">
         <v>2.57</v>
       </c>
-      <c r="Z287" s="1">
+      <c r="Z287" s="2">
         <f t="shared" si="6"/>
         <v>0.22490000000000002</v>
       </c>
@@ -13020,14 +13030,14 @@
       <c r="M288" s="1">
         <v>5</v>
       </c>
-      <c r="R288" s="1">
+      <c r="R288" s="2">
         <f t="shared" si="5"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="S288" s="1">
         <v>2.54</v>
       </c>
-      <c r="Z288" s="1">
+      <c r="Z288" s="2">
         <f t="shared" si="6"/>
         <v>0.17889999999999998</v>
       </c>
@@ -13060,14 +13070,14 @@
       <c r="M289" s="1">
         <v>5</v>
       </c>
-      <c r="R289" s="1">
+      <c r="R289" s="2">
         <f t="shared" si="5"/>
         <v>0.52</v>
       </c>
       <c r="S289" s="1">
         <v>2.42</v>
       </c>
-      <c r="Z289" s="1">
+      <c r="Z289" s="2">
         <f t="shared" si="6"/>
         <v>0.20699999999999999</v>
       </c>
@@ -13100,14 +13110,14 @@
       <c r="M290" s="1">
         <v>5</v>
       </c>
-      <c r="R290" s="1">
+      <c r="R290" s="2">
         <f t="shared" si="5"/>
         <v>0.49000000000000021</v>
       </c>
       <c r="S290" s="1">
         <v>2.39</v>
       </c>
-      <c r="Z290" s="1">
+      <c r="Z290" s="2">
         <f t="shared" si="6"/>
         <v>0.20040000000000005</v>
       </c>
@@ -13140,14 +13150,14 @@
       <c r="M291" s="1">
         <v>5</v>
       </c>
-      <c r="R291" s="1">
+      <c r="R291" s="2">
         <f t="shared" si="5"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="S291" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Z291" s="1">
+      <c r="Z291" s="2">
         <f t="shared" si="6"/>
         <v>0.20819999999999997</v>
       </c>
@@ -13180,14 +13190,14 @@
       <c r="M292" s="1">
         <v>5</v>
       </c>
-      <c r="R292" s="1">
+      <c r="R292" s="2">
         <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
       <c r="S292" s="1">
         <v>2.15</v>
       </c>
-      <c r="Z292" s="1">
+      <c r="Z292" s="2">
         <f t="shared" si="6"/>
         <v>0.14959999999999998</v>
       </c>
@@ -13220,14 +13230,14 @@
       <c r="M293" s="1">
         <v>5</v>
       </c>
-      <c r="R293" s="1">
+      <c r="R293" s="2">
         <f t="shared" si="5"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="S293" s="1">
         <v>2.52</v>
       </c>
-      <c r="Z293" s="1">
+      <c r="Z293" s="2">
         <f t="shared" si="6"/>
         <v>0.20730000000000001</v>
       </c>
@@ -13260,14 +13270,14 @@
       <c r="M294" s="1">
         <v>5</v>
       </c>
-      <c r="R294" s="1">
+      <c r="R294" s="2">
         <f t="shared" si="5"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="S294" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Z294" s="1">
+      <c r="Z294" s="2">
         <f t="shared" si="6"/>
         <v>0.2392</v>
       </c>
@@ -13300,14 +13310,14 @@
       <c r="M295" s="1">
         <v>5</v>
       </c>
-      <c r="R295" s="1">
+      <c r="R295" s="2">
         <f t="shared" si="5"/>
         <v>0.70000000000000018</v>
       </c>
       <c r="S295" s="1">
         <v>2.6</v>
       </c>
-      <c r="Z295" s="1">
+      <c r="Z295" s="2">
         <f t="shared" si="6"/>
         <v>9.080000000000002E-2</v>
       </c>
@@ -13340,14 +13350,14 @@
       <c r="M296" s="1">
         <v>5</v>
       </c>
-      <c r="R296" s="1">
+      <c r="R296" s="2">
         <f t="shared" si="5"/>
         <v>0.37999999999999989</v>
       </c>
       <c r="S296" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Z296" s="1">
+      <c r="Z296" s="2">
         <f t="shared" si="6"/>
         <v>0.18139999999999998</v>
       </c>
@@ -13380,14 +13390,14 @@
       <c r="M297" s="1">
         <v>10</v>
       </c>
-      <c r="R297" s="1">
+      <c r="R297" s="2">
         <f>S297-2.26</f>
         <v>0.46000000000000041</v>
       </c>
       <c r="S297" s="1">
         <v>2.72</v>
       </c>
-      <c r="Z297" s="1">
+      <c r="Z297" s="2">
         <f>AA297-0.33</f>
         <v>0.13250000000000001</v>
       </c>
@@ -13420,14 +13430,14 @@
       <c r="M298" s="1">
         <v>10</v>
       </c>
-      <c r="R298" s="1">
+      <c r="R298" s="2">
         <f t="shared" ref="R298:R312" si="7">S298-2.26</f>
         <v>0.32000000000000028</v>
       </c>
       <c r="S298" s="1">
         <v>2.58</v>
       </c>
-      <c r="Z298" s="1">
+      <c r="Z298" s="2">
         <f>AA298-0.33</f>
         <v>4.8399999999999999E-2</v>
       </c>
@@ -13460,14 +13470,14 @@
       <c r="M299" s="1">
         <v>10</v>
       </c>
-      <c r="R299" s="1">
+      <c r="R299" s="2">
         <f t="shared" si="7"/>
         <v>0.15000000000000036</v>
       </c>
       <c r="S299" s="1">
         <v>2.41</v>
       </c>
-      <c r="Z299" s="1">
+      <c r="Z299" s="2">
         <f>AA299-0.33</f>
         <v>3.4999999999999976E-2</v>
       </c>
@@ -13500,14 +13510,14 @@
       <c r="M300" s="1">
         <v>10</v>
       </c>
-      <c r="R300" s="1">
+      <c r="R300" s="2">
         <f t="shared" si="7"/>
         <v>0.53000000000000025</v>
       </c>
       <c r="S300" s="1">
         <v>2.79</v>
       </c>
-      <c r="Z300" s="1">
+      <c r="Z300" s="2">
         <f t="shared" ref="Z300:Z312" si="8">AA300-0.33</f>
         <v>0.2152</v>
       </c>
@@ -13540,14 +13550,14 @@
       <c r="M301" s="1">
         <v>10</v>
       </c>
-      <c r="R301" s="1">
+      <c r="R301" s="2">
         <f t="shared" si="7"/>
         <v>0.38000000000000034</v>
       </c>
       <c r="S301" s="1">
         <v>2.64</v>
       </c>
-      <c r="Z301" s="1">
+      <c r="Z301" s="2">
         <f t="shared" si="8"/>
         <v>-3.3999999999999975E-2</v>
       </c>
@@ -13580,14 +13590,14 @@
       <c r="M302" s="1">
         <v>10</v>
       </c>
-      <c r="R302" s="1">
+      <c r="R302" s="2">
         <f t="shared" si="7"/>
         <v>0.48000000000000043</v>
       </c>
       <c r="S302" s="1">
         <v>2.74</v>
       </c>
-      <c r="Z302" s="1">
+      <c r="Z302" s="2">
         <f t="shared" si="8"/>
         <v>0.10609999999999997</v>
       </c>
@@ -13620,14 +13630,14 @@
       <c r="M303" s="1">
         <v>10</v>
       </c>
-      <c r="R303" s="1">
+      <c r="R303" s="2">
         <f t="shared" si="7"/>
         <v>0.67000000000000037</v>
       </c>
       <c r="S303" s="1">
         <v>2.93</v>
       </c>
-      <c r="Z303" s="1">
+      <c r="Z303" s="2">
         <f t="shared" si="8"/>
         <v>0.22189999999999993</v>
       </c>
@@ -13660,14 +13670,14 @@
       <c r="M304" s="1">
         <v>10</v>
       </c>
-      <c r="R304" s="1">
+      <c r="R304" s="2">
         <f t="shared" si="7"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="S304" s="1">
         <v>2.88</v>
       </c>
-      <c r="Z304" s="1">
+      <c r="Z304" s="2">
         <f t="shared" si="8"/>
         <v>0.17740000000000006</v>
       </c>
@@ -13700,14 +13710,14 @@
       <c r="M305" s="1">
         <v>10</v>
       </c>
-      <c r="R305" s="1">
+      <c r="R305" s="2">
         <f t="shared" si="7"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="S305" s="1">
         <v>2.84</v>
       </c>
-      <c r="Z305" s="1">
+      <c r="Z305" s="2">
         <f t="shared" si="8"/>
         <v>0.19039999999999996</v>
       </c>
@@ -13740,14 +13750,14 @@
       <c r="M306" s="1">
         <v>10</v>
       </c>
-      <c r="R306" s="1">
+      <c r="R306" s="2">
         <f t="shared" si="7"/>
         <v>0.55000000000000027</v>
       </c>
       <c r="S306" s="1">
         <v>2.81</v>
       </c>
-      <c r="Z306" s="1">
+      <c r="Z306" s="2">
         <f t="shared" si="8"/>
         <v>0.18869999999999992</v>
       </c>
@@ -13780,14 +13790,14 @@
       <c r="M307" s="1">
         <v>10</v>
       </c>
-      <c r="R307" s="1">
+      <c r="R307" s="2">
         <f t="shared" si="7"/>
         <v>0.64000000000000012</v>
       </c>
       <c r="S307" s="1">
         <v>2.9</v>
       </c>
-      <c r="Z307" s="1">
+      <c r="Z307" s="2">
         <f t="shared" si="8"/>
         <v>0.20359999999999995</v>
       </c>
@@ -13820,14 +13830,14 @@
       <c r="M308" s="1">
         <v>10</v>
       </c>
-      <c r="R308" s="1">
+      <c r="R308" s="2">
         <f t="shared" si="7"/>
         <v>0.28000000000000025</v>
       </c>
       <c r="S308" s="1">
         <v>2.54</v>
       </c>
-      <c r="Z308" s="1">
+      <c r="Z308" s="2">
         <f t="shared" si="8"/>
         <v>0.13109999999999999</v>
       </c>
@@ -13860,14 +13870,14 @@
       <c r="M309" s="1">
         <v>10</v>
       </c>
-      <c r="R309" s="1">
+      <c r="R309" s="2">
         <f t="shared" si="7"/>
         <v>0.62000000000000011</v>
       </c>
       <c r="S309" s="1">
         <v>2.88</v>
       </c>
-      <c r="Z309" s="1">
+      <c r="Z309" s="2">
         <f t="shared" si="8"/>
         <v>0.21299999999999991</v>
       </c>
@@ -13900,14 +13910,14 @@
       <c r="M310" s="1">
         <v>10</v>
       </c>
-      <c r="R310" s="1">
+      <c r="R310" s="2">
         <f t="shared" si="7"/>
         <v>0.61000000000000032</v>
       </c>
       <c r="S310" s="1">
         <v>2.87</v>
       </c>
-      <c r="Z310" s="1">
+      <c r="Z310" s="2">
         <f t="shared" si="8"/>
         <v>0.21789999999999993</v>
       </c>
@@ -13940,14 +13950,14 @@
       <c r="M311" s="1">
         <v>10</v>
       </c>
-      <c r="R311" s="1">
+      <c r="R311" s="2">
         <f t="shared" si="7"/>
         <v>0.71000000000000041</v>
       </c>
       <c r="S311" s="1">
         <v>2.97</v>
       </c>
-      <c r="Z311" s="1">
+      <c r="Z311" s="2">
         <f t="shared" si="8"/>
         <v>9.7599999999999965E-2</v>
       </c>
@@ -13980,14 +13990,14 @@
       <c r="M312" s="1">
         <v>10</v>
       </c>
-      <c r="R312" s="1">
+      <c r="R312" s="2">
         <f t="shared" si="7"/>
         <v>0.38000000000000034</v>
       </c>
       <c r="S312" s="1">
         <v>2.64</v>
       </c>
-      <c r="Z312" s="1">
+      <c r="Z312" s="2">
         <f t="shared" si="8"/>
         <v>0.15649999999999997</v>
       </c>
@@ -14020,14 +14030,14 @@
       <c r="M313" s="1">
         <v>15</v>
       </c>
-      <c r="R313" s="1">
+      <c r="R313" s="2">
         <f>S313-2.62</f>
         <v>0.54999999999999982</v>
       </c>
       <c r="S313" s="1">
         <v>3.17</v>
       </c>
-      <c r="Z313" s="1">
+      <c r="Z313" s="2">
         <f>AA313-0.4531</f>
         <v>0.11300000000000004</v>
       </c>
@@ -14060,14 +14070,14 @@
       <c r="M314" s="1">
         <v>15</v>
       </c>
-      <c r="R314" s="1">
+      <c r="R314" s="2">
         <f t="shared" ref="R314:R328" si="9">S314-2.62</f>
         <v>0.35000000000000009</v>
       </c>
       <c r="S314" s="1">
         <v>2.97</v>
       </c>
-      <c r="Z314" s="1">
+      <c r="Z314" s="2">
         <f t="shared" ref="Z314" si="10">AA314-0.4531</f>
         <v>6.750000000000006E-2</v>
       </c>
@@ -14100,14 +14110,14 @@
       <c r="M315" s="1">
         <v>15</v>
       </c>
-      <c r="R315" s="1">
+      <c r="R315" s="2">
         <f t="shared" si="9"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S315" s="1">
         <v>2.82</v>
       </c>
-      <c r="Z315" s="1">
+      <c r="Z315" s="2">
         <f t="shared" ref="Z315" si="11">AA315-0.4531</f>
         <v>4.5099999999999973E-2</v>
       </c>
@@ -14140,14 +14150,14 @@
       <c r="M316" s="1">
         <v>15</v>
       </c>
-      <c r="R316" s="1">
+      <c r="R316" s="2">
         <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="S316" s="1">
         <v>3.12</v>
       </c>
-      <c r="Z316" s="1">
+      <c r="Z316" s="2">
         <f t="shared" ref="Z316" si="12">AA316-0.4531</f>
         <v>0.17829999999999996</v>
       </c>
@@ -14180,14 +14190,14 @@
       <c r="M317" s="1">
         <v>15</v>
       </c>
-      <c r="R317" s="1">
+      <c r="R317" s="2">
         <f t="shared" si="9"/>
         <v>0.44999999999999973</v>
       </c>
       <c r="S317" s="1">
         <v>3.07</v>
       </c>
-      <c r="Z317" s="1">
+      <c r="Z317" s="2">
         <f t="shared" ref="Z317" si="13">AA317-0.4531</f>
         <v>-1.1399999999999966E-2</v>
       </c>
@@ -14220,14 +14230,14 @@
       <c r="M318" s="1">
         <v>15</v>
       </c>
-      <c r="R318" s="1">
+      <c r="R318" s="2">
         <f t="shared" si="9"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="S318" s="1">
         <v>3.05</v>
       </c>
-      <c r="Z318" s="1">
+      <c r="Z318" s="2">
         <f t="shared" ref="Z318" si="14">AA318-0.4531</f>
         <v>9.7299999999999998E-2</v>
       </c>
@@ -14260,14 +14270,14 @@
       <c r="M319" s="1">
         <v>15</v>
       </c>
-      <c r="R319" s="1">
+      <c r="R319" s="2">
         <f t="shared" si="9"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="S319" s="1">
         <v>3.25</v>
       </c>
-      <c r="Z319" s="1">
+      <c r="Z319" s="2">
         <f t="shared" ref="Z319" si="15">AA319-0.4531</f>
         <v>0.18209999999999998</v>
       </c>
@@ -14300,14 +14310,14 @@
       <c r="M320" s="1">
         <v>15</v>
       </c>
-      <c r="R320" s="1">
+      <c r="R320" s="2">
         <f t="shared" si="9"/>
         <v>0.54999999999999982</v>
       </c>
       <c r="S320" s="1">
         <v>3.17</v>
       </c>
-      <c r="Z320" s="1">
+      <c r="Z320" s="2">
         <f t="shared" ref="Z320" si="16">AA320-0.4531</f>
         <v>0.15160000000000001</v>
       </c>
@@ -14340,14 +14350,14 @@
       <c r="M321" s="1">
         <v>15</v>
       </c>
-      <c r="R321" s="1">
+      <c r="R321" s="2">
         <f t="shared" si="9"/>
         <v>0.58999999999999986</v>
       </c>
       <c r="S321" s="1">
         <v>3.21</v>
       </c>
-      <c r="Z321" s="1">
+      <c r="Z321" s="2">
         <f t="shared" ref="Z321" si="17">AA321-0.4531</f>
         <v>0.11890000000000006</v>
       </c>
@@ -14380,14 +14390,14 @@
       <c r="M322" s="1">
         <v>15</v>
       </c>
-      <c r="R322" s="1">
+      <c r="R322" s="2">
         <f t="shared" si="9"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="S322" s="1">
         <v>3.2</v>
       </c>
-      <c r="Z322" s="1">
+      <c r="Z322" s="2">
         <f t="shared" ref="Z322" si="18">AA322-0.4531</f>
         <v>0.11459999999999998</v>
       </c>
@@ -14420,14 +14430,14 @@
       <c r="M323" s="1">
         <v>15</v>
       </c>
-      <c r="R323" s="1">
+      <c r="R323" s="2">
         <f t="shared" si="9"/>
         <v>0.62999999999999989</v>
       </c>
       <c r="S323" s="1">
         <v>3.25</v>
       </c>
-      <c r="Z323" s="1">
+      <c r="Z323" s="2">
         <f t="shared" ref="Z323" si="19">AA323-0.4531</f>
         <v>0.14299999999999996</v>
       </c>
@@ -14460,14 +14470,14 @@
       <c r="M324" s="1">
         <v>15</v>
       </c>
-      <c r="R324" s="1">
+      <c r="R324" s="2">
         <f t="shared" si="9"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="S324" s="1">
         <v>2.88</v>
       </c>
-      <c r="Z324" s="1">
+      <c r="Z324" s="2">
         <f t="shared" ref="Z324" si="20">AA324-0.4531</f>
         <v>8.4199999999999997E-2</v>
       </c>
@@ -14500,14 +14510,14 @@
       <c r="M325" s="1">
         <v>15</v>
       </c>
-      <c r="R325" s="1">
+      <c r="R325" s="2">
         <f t="shared" si="9"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="S325" s="1">
         <v>3.2</v>
       </c>
-      <c r="Z325" s="1">
+      <c r="Z325" s="2">
         <f t="shared" ref="Z325" si="21">AA325-0.4531</f>
         <v>0.16820000000000007</v>
       </c>
@@ -14540,14 +14550,14 @@
       <c r="M326" s="1">
         <v>15</v>
       </c>
-      <c r="R326" s="1">
+      <c r="R326" s="2">
         <f t="shared" si="9"/>
         <v>0.58000000000000007</v>
       </c>
       <c r="S326" s="1">
         <v>3.2</v>
       </c>
-      <c r="Z326" s="1">
+      <c r="Z326" s="2">
         <f t="shared" ref="Z326" si="22">AA326-0.4531</f>
         <v>0.16499999999999998</v>
       </c>
@@ -14580,14 +14590,14 @@
       <c r="M327" s="1">
         <v>15</v>
       </c>
-      <c r="R327" s="1">
+      <c r="R327" s="2">
         <f t="shared" si="9"/>
         <v>0.71999999999999975</v>
       </c>
       <c r="S327" s="1">
         <v>3.34</v>
       </c>
-      <c r="Z327" s="1">
+      <c r="Z327" s="2">
         <f t="shared" ref="Z327" si="23">AA327-0.4531</f>
         <v>6.5399999999999958E-2</v>
       </c>
@@ -14620,14 +14630,14 @@
       <c r="M328" s="1">
         <v>15</v>
       </c>
-      <c r="R328" s="1">
+      <c r="R328" s="2">
         <f t="shared" si="9"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="S328" s="1">
         <v>3.02</v>
       </c>
-      <c r="Z328" s="1">
+      <c r="Z328" s="2">
         <f t="shared" ref="Z328" si="24">AA328-0.4531</f>
         <v>0.11049999999999999</v>
       </c>
@@ -14660,14 +14670,14 @@
       <c r="M329" s="1">
         <v>20</v>
       </c>
-      <c r="R329" s="1">
+      <c r="R329" s="2">
         <f>S329-2.97</f>
         <v>0.60999999999999988</v>
       </c>
       <c r="S329" s="1">
         <v>3.58</v>
       </c>
-      <c r="Z329" s="1">
+      <c r="Z329" s="2">
         <f>AA329-0.5595</f>
         <v>7.569999999999999E-2</v>
       </c>
@@ -14700,14 +14710,14 @@
       <c r="M330" s="1">
         <v>20</v>
       </c>
-      <c r="R330" s="1">
+      <c r="R330" s="2">
         <f t="shared" ref="R330:R344" si="25">S330-2.97</f>
         <v>0.23999999999999977</v>
       </c>
       <c r="S330" s="1">
         <v>3.21</v>
       </c>
-      <c r="Z330" s="1">
+      <c r="Z330" s="2">
         <f t="shared" ref="Z330" si="26">AA330-0.5595</f>
         <v>4.930000000000001E-2</v>
       </c>
@@ -14740,14 +14750,14 @@
       <c r="M331" s="1">
         <v>20</v>
       </c>
-      <c r="R331" s="1">
+      <c r="R331" s="2">
         <f t="shared" si="25"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S331" s="1">
         <v>3.21</v>
       </c>
-      <c r="Z331" s="1">
+      <c r="Z331" s="2">
         <f t="shared" ref="Z331" si="27">AA331-0.5595</f>
         <v>6.1499999999999999E-2</v>
       </c>
@@ -14780,14 +14790,14 @@
       <c r="M332" s="1">
         <v>20</v>
       </c>
-      <c r="R332" s="1">
+      <c r="R332" s="2">
         <f t="shared" si="25"/>
         <v>0.45999999999999996</v>
       </c>
       <c r="S332" s="1">
         <v>3.43</v>
       </c>
-      <c r="Z332" s="1">
+      <c r="Z332" s="2">
         <f t="shared" ref="Z332" si="28">AA332-0.5595</f>
         <v>0.12239999999999995</v>
       </c>
@@ -14820,14 +14830,14 @@
       <c r="M333" s="1">
         <v>20</v>
       </c>
-      <c r="R333" s="1">
+      <c r="R333" s="2">
         <f t="shared" si="25"/>
         <v>0.48</v>
       </c>
       <c r="S333" s="1">
         <v>3.45</v>
       </c>
-      <c r="Z333" s="1">
+      <c r="Z333" s="2">
         <f t="shared" ref="Z333" si="29">AA333-0.5595</f>
         <v>2.8000000000000247E-3</v>
       </c>
@@ -14860,14 +14870,14 @@
       <c r="M334" s="1">
         <v>20</v>
       </c>
-      <c r="R334" s="1">
+      <c r="R334" s="2">
         <f t="shared" si="25"/>
         <v>0.35999999999999988</v>
       </c>
       <c r="S334" s="1">
         <v>3.33</v>
       </c>
-      <c r="Z334" s="1">
+      <c r="Z334" s="2">
         <f t="shared" ref="Z334" si="30">AA334-0.5595</f>
         <v>7.7200000000000046E-2</v>
       </c>
@@ -14900,14 +14910,14 @@
       <c r="M335" s="1">
         <v>20</v>
       </c>
-      <c r="R335" s="1">
+      <c r="R335" s="2">
         <f t="shared" si="25"/>
         <v>0.60999999999999988</v>
       </c>
       <c r="S335" s="1">
         <v>3.58</v>
       </c>
-      <c r="Z335" s="1">
+      <c r="Z335" s="2">
         <f t="shared" ref="Z335" si="31">AA335-0.5595</f>
         <v>0.12080000000000002</v>
       </c>
@@ -14940,14 +14950,14 @@
       <c r="M336" s="1">
         <v>20</v>
       </c>
-      <c r="R336" s="1">
+      <c r="R336" s="2">
         <f t="shared" si="25"/>
         <v>0.48</v>
       </c>
       <c r="S336" s="1">
         <v>3.45</v>
       </c>
-      <c r="Z336" s="1">
+      <c r="Z336" s="2">
         <f t="shared" ref="Z336" si="32">AA336-0.5595</f>
         <v>0.10980000000000012</v>
       </c>
@@ -14980,14 +14990,14 @@
       <c r="M337" s="1">
         <v>20</v>
       </c>
-      <c r="R337" s="1">
+      <c r="R337" s="2">
         <f t="shared" si="25"/>
         <v>0.56999999999999984</v>
       </c>
       <c r="S337" s="1">
         <v>3.54</v>
       </c>
-      <c r="Z337" s="1">
+      <c r="Z337" s="2">
         <f t="shared" ref="Z337" si="33">AA337-0.5595</f>
         <v>5.8099999999999929E-2</v>
       </c>
@@ -15020,14 +15030,14 @@
       <c r="M338" s="1">
         <v>20</v>
       </c>
-      <c r="R338" s="1">
+      <c r="R338" s="2">
         <f t="shared" si="25"/>
         <v>0.54999999999999982</v>
       </c>
       <c r="S338" s="1">
         <v>3.52</v>
       </c>
-      <c r="Z338" s="1">
+      <c r="Z338" s="2">
         <f t="shared" ref="Z338" si="34">AA338-0.5595</f>
         <v>5.1100000000000034E-2</v>
       </c>
@@ -15060,14 +15070,14 @@
       <c r="M339" s="1">
         <v>20</v>
       </c>
-      <c r="R339" s="1">
+      <c r="R339" s="2">
         <f t="shared" si="25"/>
         <v>0.57999999999999963</v>
       </c>
       <c r="S339" s="1">
         <v>3.55</v>
       </c>
-      <c r="Z339" s="1">
+      <c r="Z339" s="2">
         <f t="shared" ref="Z339" si="35">AA339-0.5595</f>
         <v>9.0300000000000047E-2</v>
       </c>
@@ -15100,14 +15110,14 @@
       <c r="M340" s="1">
         <v>20</v>
       </c>
-      <c r="R340" s="1">
+      <c r="R340" s="2">
         <f t="shared" si="25"/>
         <v>0.28999999999999959</v>
       </c>
       <c r="S340" s="1">
         <v>3.26</v>
       </c>
-      <c r="Z340" s="1">
+      <c r="Z340" s="2">
         <f t="shared" ref="Z340" si="36">AA340-0.5595</f>
         <v>6.4100000000000046E-2</v>
       </c>
@@ -15140,14 +15150,14 @@
       <c r="M341" s="1">
         <v>20</v>
       </c>
-      <c r="R341" s="1">
+      <c r="R341" s="2">
         <f t="shared" si="25"/>
         <v>0.53999999999999959</v>
       </c>
       <c r="S341" s="1">
         <v>3.51</v>
       </c>
-      <c r="Z341" s="1">
+      <c r="Z341" s="2">
         <f t="shared" ref="Z341" si="37">AA341-0.5595</f>
         <v>0.1070000000000001</v>
       </c>
@@ -15180,14 +15190,14 @@
       <c r="M342" s="1">
         <v>20</v>
       </c>
-      <c r="R342" s="1">
+      <c r="R342" s="2">
         <f t="shared" si="25"/>
         <v>0.53999999999999959</v>
       </c>
       <c r="S342" s="1">
         <v>3.51</v>
       </c>
-      <c r="Z342" s="1">
+      <c r="Z342" s="2">
         <f t="shared" ref="Z342" si="38">AA342-0.5595</f>
         <v>9.5700000000000007E-2</v>
       </c>
@@ -15220,14 +15230,14 @@
       <c r="M343" s="1">
         <v>20</v>
       </c>
-      <c r="R343" s="1">
+      <c r="R343" s="2">
         <f t="shared" si="25"/>
         <v>0.69</v>
       </c>
       <c r="S343" s="1">
         <v>3.66</v>
       </c>
-      <c r="Z343" s="1">
+      <c r="Z343" s="2">
         <f t="shared" ref="Z343" si="39">AA343-0.5595</f>
         <v>4.6300000000000008E-2</v>
       </c>
@@ -15260,14 +15270,14 @@
       <c r="M344" s="1">
         <v>20</v>
       </c>
-      <c r="R344" s="1">
+      <c r="R344" s="2">
         <f t="shared" si="25"/>
         <v>0.42999999999999972</v>
       </c>
       <c r="S344" s="1">
         <v>3.4</v>
       </c>
-      <c r="Z344" s="1">
+      <c r="Z344" s="2">
         <f t="shared" ref="Z344" si="40">AA344-0.5595</f>
         <v>6.4400000000000013E-2</v>
       </c>
@@ -15300,14 +15310,14 @@
       <c r="M345" s="1">
         <v>25</v>
       </c>
-      <c r="R345" s="1">
+      <c r="R345" s="2">
         <f>S345-3.31</f>
         <v>0.58999999999999986</v>
       </c>
       <c r="S345" s="1">
         <v>3.9</v>
       </c>
-      <c r="Z345" s="1">
+      <c r="Z345" s="2">
         <f>AA345-0.6473</f>
         <v>4.1000000000000036E-2</v>
       </c>
@@ -15340,14 +15350,14 @@
       <c r="M346" s="1">
         <v>25</v>
       </c>
-      <c r="R346" s="1">
+      <c r="R346" s="2">
         <f t="shared" ref="R346:R360" si="41">S346-3.31</f>
         <v>6.999999999999984E-2</v>
       </c>
       <c r="S346" s="1">
         <v>3.38</v>
       </c>
-      <c r="Z346" s="1">
+      <c r="Z346" s="2">
         <f t="shared" ref="Z346" si="42">AA346-0.6473</f>
         <v>1.8800000000000039E-2</v>
       </c>
@@ -15380,14 +15390,14 @@
       <c r="M347" s="1">
         <v>25</v>
       </c>
-      <c r="R347" s="1">
+      <c r="R347" s="2">
         <f t="shared" si="41"/>
         <v>0.27</v>
       </c>
       <c r="S347" s="1">
         <v>3.58</v>
       </c>
-      <c r="Z347" s="1">
+      <c r="Z347" s="2">
         <f t="shared" ref="Z347" si="43">AA347-0.6473</f>
         <v>5.3200000000000025E-2</v>
       </c>
@@ -15420,14 +15430,14 @@
       <c r="M348" s="1">
         <v>25</v>
       </c>
-      <c r="R348" s="1">
+      <c r="R348" s="2">
         <f t="shared" si="41"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="S348" s="1">
         <v>3.72</v>
       </c>
-      <c r="Z348" s="1">
+      <c r="Z348" s="2">
         <f t="shared" ref="Z348" si="44">AA348-0.6473</f>
         <v>7.46E-2</v>
       </c>
@@ -15460,14 +15470,14 @@
       <c r="M349" s="1">
         <v>25</v>
       </c>
-      <c r="R349" s="1">
+      <c r="R349" s="2">
         <f t="shared" si="41"/>
         <v>0.48</v>
       </c>
       <c r="S349" s="1">
         <v>3.79</v>
       </c>
-      <c r="Z349" s="1">
+      <c r="Z349" s="2">
         <f t="shared" ref="Z349" si="45">AA349-0.6473</f>
         <v>-1.1399999999999966E-2</v>
       </c>
@@ -15500,14 +15510,14 @@
       <c r="M350" s="1">
         <v>25</v>
       </c>
-      <c r="R350" s="1">
+      <c r="R350" s="2">
         <f t="shared" si="41"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="S350" s="1">
         <v>3.61</v>
       </c>
-      <c r="Z350" s="1">
+      <c r="Z350" s="2">
         <f t="shared" ref="Z350" si="46">AA350-0.6473</f>
         <v>4.8399999999999999E-2</v>
       </c>
@@ -15540,14 +15550,14 @@
       <c r="M351" s="1">
         <v>25</v>
       </c>
-      <c r="R351" s="1">
+      <c r="R351" s="2">
         <f t="shared" si="41"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="S351" s="1">
         <v>3.87</v>
       </c>
-      <c r="Z351" s="1">
+      <c r="Z351" s="2">
         <f t="shared" ref="Z351" si="47">AA351-0.6473</f>
         <v>6.140000000000001E-2</v>
       </c>
@@ -15580,14 +15590,14 @@
       <c r="M352" s="1">
         <v>25</v>
       </c>
-      <c r="R352" s="1">
+      <c r="R352" s="2">
         <f t="shared" si="41"/>
         <v>0.39999999999999991</v>
       </c>
       <c r="S352" s="1">
         <v>3.71</v>
       </c>
-      <c r="Z352" s="1">
+      <c r="Z352" s="2">
         <f t="shared" ref="Z352" si="48">AA352-0.6473</f>
         <v>6.5200000000000036E-2</v>
       </c>
@@ -15620,14 +15630,14 @@
       <c r="M353" s="1">
         <v>25</v>
       </c>
-      <c r="R353" s="1">
+      <c r="R353" s="2">
         <f t="shared" si="41"/>
         <v>0.48999999999999977</v>
       </c>
       <c r="S353" s="1">
         <v>3.8</v>
       </c>
-      <c r="Z353" s="1">
+      <c r="Z353" s="2">
         <f t="shared" ref="Z353" si="49">AA353-0.6473</f>
         <v>1.0099999999999998E-2</v>
       </c>
@@ -15660,14 +15670,14 @@
       <c r="M354" s="1">
         <v>25</v>
       </c>
-      <c r="R354" s="1">
+      <c r="R354" s="2">
         <f t="shared" si="41"/>
         <v>0.46999999999999975</v>
       </c>
       <c r="S354" s="1">
         <v>3.78</v>
       </c>
-      <c r="Z354" s="1">
+      <c r="Z354" s="2">
         <f t="shared" ref="Z354" si="50">AA354-0.6473</f>
         <v>1.1999999999999789E-3</v>
       </c>
@@ -15700,14 +15710,14 @@
       <c r="M355" s="1">
         <v>25</v>
       </c>
-      <c r="R355" s="1">
+      <c r="R355" s="2">
         <f t="shared" si="41"/>
         <v>0.50999999999999979</v>
       </c>
       <c r="S355" s="1">
         <v>3.82</v>
       </c>
-      <c r="Z355" s="1">
+      <c r="Z355" s="2">
         <f t="shared" ref="Z355" si="51">AA355-0.6473</f>
         <v>4.0899999999999936E-2</v>
       </c>
@@ -15740,14 +15750,14 @@
       <c r="M356" s="1">
         <v>25</v>
       </c>
-      <c r="R356" s="1">
+      <c r="R356" s="2">
         <f t="shared" si="41"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="S356" s="1">
         <v>3.6</v>
       </c>
-      <c r="Z356" s="1">
+      <c r="Z356" s="2">
         <f t="shared" ref="Z356" si="52">AA356-0.6473</f>
         <v>3.4299999999999997E-2</v>
       </c>
@@ -15780,14 +15790,14 @@
       <c r="M357" s="1">
         <v>25</v>
       </c>
-      <c r="R357" s="1">
+      <c r="R357" s="2">
         <f t="shared" si="41"/>
         <v>0.46999999999999975</v>
       </c>
       <c r="S357" s="1">
         <v>3.78</v>
       </c>
-      <c r="Z357" s="1">
+      <c r="Z357" s="2">
         <f t="shared" ref="Z357" si="53">AA357-0.6473</f>
         <v>4.9399999999999999E-2</v>
       </c>
@@ -15820,14 +15830,14 @@
       <c r="M358" s="1">
         <v>25</v>
       </c>
-      <c r="R358" s="1">
+      <c r="R358" s="2">
         <f t="shared" si="41"/>
         <v>0.48</v>
       </c>
       <c r="S358" s="1">
         <v>3.79</v>
       </c>
-      <c r="Z358" s="1">
+      <c r="Z358" s="2">
         <f t="shared" ref="Z358" si="54">AA358-0.6473</f>
         <v>3.9100000000000024E-2</v>
       </c>
@@ -15860,14 +15870,14 @@
       <c r="M359" s="1">
         <v>25</v>
       </c>
-      <c r="R359" s="1">
+      <c r="R359" s="2">
         <f t="shared" si="41"/>
         <v>0.60999999999999988</v>
       </c>
       <c r="S359" s="1">
         <v>3.92</v>
       </c>
-      <c r="Z359" s="1">
+      <c r="Z359" s="2">
         <f t="shared" ref="Z359" si="55">AA359-0.6473</f>
         <v>1.6600000000000059E-2</v>
       </c>
@@ -15900,14 +15910,14 @@
       <c r="M360" s="1">
         <v>25</v>
       </c>
-      <c r="R360" s="1">
+      <c r="R360" s="2">
         <f t="shared" si="41"/>
         <v>0.41999999999999993</v>
       </c>
       <c r="S360" s="1">
         <v>3.73</v>
       </c>
-      <c r="Z360" s="1">
+      <c r="Z360" s="2">
         <f t="shared" ref="Z360" si="56">AA360-0.6473</f>
         <v>1.7900000000000027E-2</v>
       </c>
@@ -15940,14 +15950,14 @@
       <c r="M361" s="1">
         <v>30</v>
       </c>
-      <c r="R361" s="1">
+      <c r="R361" s="2">
         <f>S361-3.64</f>
         <v>0.48</v>
       </c>
       <c r="S361" s="1">
         <v>4.12</v>
       </c>
-      <c r="Z361" s="1">
+      <c r="Z361" s="2">
         <f>AA361-0.7052</f>
         <v>2.4999999999999911E-2</v>
       </c>
@@ -15980,14 +15990,14 @@
       <c r="M362" s="1">
         <v>30</v>
       </c>
-      <c r="R362" s="1">
+      <c r="R362" s="2">
         <f t="shared" ref="R362:R376" si="57">S362-3.64</f>
         <v>-0.14999999999999991</v>
       </c>
       <c r="S362" s="1">
         <v>3.49</v>
       </c>
-      <c r="Z362" s="1">
+      <c r="Z362" s="2">
         <f t="shared" ref="Z362" si="58">AA362-0.7052</f>
         <v>-2.4600000000000066E-2</v>
       </c>
@@ -16020,14 +16030,14 @@
       <c r="M363" s="1">
         <v>30</v>
       </c>
-      <c r="R363" s="1">
+      <c r="R363" s="2">
         <f t="shared" si="57"/>
         <v>0.29000000000000004</v>
       </c>
       <c r="S363" s="1">
         <v>3.93</v>
       </c>
-      <c r="Z363" s="1">
+      <c r="Z363" s="2">
         <f t="shared" ref="Z363" si="59">AA363-0.7052</f>
         <v>3.5399999999999987E-2</v>
       </c>
@@ -16060,14 +16070,14 @@
       <c r="M364" s="1">
         <v>30</v>
       </c>
-      <c r="R364" s="1">
+      <c r="R364" s="2">
         <f t="shared" si="57"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="S364" s="1">
         <v>3.99</v>
       </c>
-      <c r="Z364" s="1">
+      <c r="Z364" s="2">
         <f t="shared" ref="Z364" si="60">AA364-0.7052</f>
         <v>4.3399999999999994E-2</v>
       </c>
@@ -16100,14 +16110,14 @@
       <c r="M365" s="1">
         <v>30</v>
       </c>
-      <c r="R365" s="1">
+      <c r="R365" s="2">
         <f t="shared" si="57"/>
         <v>0.39000000000000012</v>
       </c>
       <c r="S365" s="1">
         <v>4.03</v>
       </c>
-      <c r="Z365" s="1">
+      <c r="Z365" s="2">
         <f t="shared" ref="Z365" si="61">AA365-0.7052</f>
         <v>-1.319999999999999E-2</v>
       </c>
@@ -16140,14 +16150,14 @@
       <c r="M366" s="1">
         <v>30</v>
       </c>
-      <c r="R366" s="1">
+      <c r="R366" s="2">
         <f t="shared" si="57"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="S366" s="1">
         <v>3.87</v>
       </c>
-      <c r="Z366" s="1">
+      <c r="Z366" s="2">
         <f t="shared" ref="Z366" si="62">AA366-0.7052</f>
         <v>3.1299999999999994E-2</v>
       </c>
@@ -16180,14 +16190,14 @@
       <c r="M367" s="1">
         <v>30</v>
       </c>
-      <c r="R367" s="1">
+      <c r="R367" s="2">
         <f t="shared" si="57"/>
         <v>0.44999999999999973</v>
       </c>
       <c r="S367" s="1">
         <v>4.09</v>
       </c>
-      <c r="Z367" s="1">
+      <c r="Z367" s="2">
         <f t="shared" ref="Z367" si="63">AA367-0.7052</f>
         <v>1.6799999999999926E-2</v>
       </c>
@@ -16220,14 +16230,14 @@
       <c r="M368" s="1">
         <v>30</v>
       </c>
-      <c r="R368" s="1">
+      <c r="R368" s="2">
         <f t="shared" si="57"/>
         <v>0.31999999999999984</v>
       </c>
       <c r="S368" s="1">
         <v>3.96</v>
       </c>
-      <c r="Z368" s="1">
+      <c r="Z368" s="2">
         <f t="shared" ref="Z368" si="64">AA368-0.7052</f>
         <v>3.1999999999999917E-2</v>
       </c>
@@ -16260,14 +16270,14 @@
       <c r="M369" s="1">
         <v>30</v>
       </c>
-      <c r="R369" s="1">
+      <c r="R369" s="2">
         <f t="shared" si="57"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="S369" s="1">
         <v>3.99</v>
       </c>
-      <c r="Z369" s="1">
+      <c r="Z369" s="2">
         <f t="shared" ref="Z369" si="65">AA369-0.7052</f>
         <v>-2.5399999999999978E-2</v>
       </c>
@@ -16300,14 +16310,14 @@
       <c r="M370" s="1">
         <v>30</v>
       </c>
-      <c r="R370" s="1">
+      <c r="R370" s="2">
         <f t="shared" si="57"/>
         <v>0.33999999999999986</v>
       </c>
       <c r="S370" s="1">
         <v>3.98</v>
       </c>
-      <c r="Z370" s="1">
+      <c r="Z370" s="2">
         <f t="shared" ref="Z370" si="66">AA370-0.7052</f>
         <v>-2.6700000000000057E-2</v>
       </c>
@@ -16340,14 +16350,14 @@
       <c r="M371" s="1">
         <v>30</v>
       </c>
-      <c r="R371" s="1">
+      <c r="R371" s="2">
         <f t="shared" si="57"/>
         <v>0.39000000000000012</v>
       </c>
       <c r="S371" s="1">
         <v>4.03</v>
       </c>
-      <c r="Z371" s="1">
+      <c r="Z371" s="2">
         <f t="shared" ref="Z371" si="67">AA371-0.7052</f>
         <v>3.1999999999999806E-3</v>
       </c>
@@ -16380,14 +16390,14 @@
       <c r="M372" s="1">
         <v>30</v>
       </c>
-      <c r="R372" s="1">
+      <c r="R372" s="2">
         <f t="shared" si="57"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="S372" s="1">
         <v>3.9</v>
       </c>
-      <c r="Z372" s="1">
+      <c r="Z372" s="2">
         <f t="shared" ref="Z372" si="68">AA372-0.7052</f>
         <v>1.0499999999999843E-2</v>
       </c>
@@ -16420,14 +16430,14 @@
       <c r="M373" s="1">
         <v>30</v>
       </c>
-      <c r="R373" s="1">
+      <c r="R373" s="2">
         <f t="shared" si="57"/>
         <v>0.37999999999999945</v>
       </c>
       <c r="S373" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="Z373" s="1">
+      <c r="Z373" s="2">
         <f t="shared" ref="Z373" si="69">AA373-0.7052</f>
         <v>8.599999999999941E-3</v>
       </c>
@@ -16460,14 +16470,14 @@
       <c r="M374" s="1">
         <v>30</v>
       </c>
-      <c r="R374" s="1">
+      <c r="R374" s="2">
         <f t="shared" si="57"/>
         <v>0.37999999999999945</v>
       </c>
       <c r="S374" s="1">
         <v>4.0199999999999996</v>
       </c>
-      <c r="Z374" s="1">
+      <c r="Z374" s="2">
         <f t="shared" ref="Z374" si="70">AA374-0.7052</f>
         <v>4.0999999999999925E-3</v>
       </c>
@@ -16500,14 +16510,14 @@
       <c r="M375" s="1">
         <v>30</v>
       </c>
-      <c r="R375" s="1">
+      <c r="R375" s="2">
         <f t="shared" si="57"/>
         <v>0.45999999999999952</v>
       </c>
       <c r="S375" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="Z375" s="1">
+      <c r="Z375" s="2">
         <f t="shared" ref="Z375" si="71">AA375-0.7052</f>
         <v>4.1999999999999815E-3</v>
       </c>
@@ -16540,14 +16550,14 @@
       <c r="M376" s="1">
         <v>30</v>
       </c>
-      <c r="R376" s="1">
+      <c r="R376" s="2">
         <f t="shared" si="57"/>
         <v>0.35000000000000009</v>
       </c>
       <c r="S376" s="1">
         <v>3.99</v>
       </c>
-      <c r="Z376" s="1">
+      <c r="Z376" s="2">
         <f t="shared" ref="Z376" si="72">AA376-0.7052</f>
         <v>-7.4000000000000732E-3</v>
       </c>
@@ -16580,14 +16590,14 @@
       <c r="M377" s="1">
         <v>0</v>
       </c>
-      <c r="R377" s="1">
+      <c r="R377" s="2">
         <f>S377-1.75</f>
         <v>-7.0000000000000062E-2</v>
       </c>
       <c r="S377" s="1">
         <v>1.68</v>
       </c>
-      <c r="Z377" s="1">
+      <c r="Z377" s="2">
         <f>AA377-0.2427</f>
         <v>5.2999999999999992E-3</v>
       </c>
@@ -16620,14 +16630,14 @@
       <c r="M378" s="1">
         <v>0</v>
       </c>
-      <c r="R378" s="1">
+      <c r="R378" s="2">
         <f t="shared" ref="R378:R392" si="73">S378-1.75</f>
         <v>0.25</v>
       </c>
       <c r="S378" s="1">
         <v>2</v>
       </c>
-      <c r="Z378" s="1">
+      <c r="Z378" s="2">
         <f>AA378-0.2427</f>
         <v>6.7600000000000021E-2</v>
       </c>
@@ -16660,14 +16670,14 @@
       <c r="M379" s="1">
         <v>0</v>
       </c>
-      <c r="R379" s="1">
+      <c r="R379" s="2">
         <f t="shared" si="73"/>
         <v>-1.0000000000000009E-2</v>
       </c>
       <c r="S379" s="1">
         <v>1.74</v>
       </c>
-      <c r="Z379" s="1">
+      <c r="Z379" s="2">
         <f t="shared" ref="Z379:Z392" si="74">AA379-0.2427</f>
         <v>3.4400000000000014E-2</v>
       </c>
@@ -16700,14 +16710,14 @@
       <c r="M380" s="1">
         <v>0</v>
       </c>
-      <c r="R380" s="1">
+      <c r="R380" s="2">
         <f t="shared" si="73"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="S380" s="1">
         <v>1.86</v>
       </c>
-      <c r="Z380" s="1">
+      <c r="Z380" s="2">
         <f t="shared" si="74"/>
         <v>7.4499999999999983E-2</v>
       </c>
@@ -16740,14 +16750,14 @@
       <c r="M381" s="1">
         <v>0</v>
       </c>
-      <c r="R381" s="1">
+      <c r="R381" s="2">
         <f t="shared" si="73"/>
         <v>-0.40999999999999992</v>
       </c>
       <c r="S381" s="1">
         <v>1.34</v>
       </c>
-      <c r="Z381" s="1">
+      <c r="Z381" s="2">
         <f t="shared" si="74"/>
         <v>2.1499999999999991E-2</v>
       </c>
@@ -16780,14 +16790,14 @@
       <c r="M382" s="1">
         <v>0</v>
       </c>
-      <c r="R382" s="1">
+      <c r="R382" s="2">
         <f t="shared" si="73"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S382" s="1">
         <v>1.94</v>
       </c>
-      <c r="Z382" s="1">
+      <c r="Z382" s="2">
         <f t="shared" si="74"/>
         <v>4.8500000000000015E-2</v>
       </c>
@@ -16820,14 +16830,14 @@
       <c r="M383" s="1">
         <v>0</v>
       </c>
-      <c r="R383" s="1">
+      <c r="R383" s="2">
         <f t="shared" si="73"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S383" s="1">
         <v>1.92</v>
       </c>
-      <c r="Z383" s="1">
+      <c r="Z383" s="2">
         <f t="shared" si="74"/>
         <v>9.0599999999999986E-2</v>
       </c>
@@ -16860,14 +16870,14 @@
       <c r="M384" s="1">
         <v>0</v>
       </c>
-      <c r="R384" s="1">
+      <c r="R384" s="2">
         <f t="shared" si="73"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S384" s="1">
         <v>1.94</v>
       </c>
-      <c r="Z384" s="1">
+      <c r="Z384" s="2">
         <f t="shared" si="74"/>
         <v>8.1800000000000012E-2</v>
       </c>
@@ -16900,14 +16910,14 @@
       <c r="M385" s="1">
         <v>0</v>
       </c>
-      <c r="R385" s="1">
+      <c r="R385" s="2">
         <f t="shared" si="73"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="S385" s="1">
         <v>1.77</v>
       </c>
-      <c r="Z385" s="1">
+      <c r="Z385" s="2">
         <f t="shared" si="74"/>
         <v>5.4900000000000032E-2</v>
       </c>
@@ -16940,14 +16950,14 @@
       <c r="M386" s="1">
         <v>0</v>
       </c>
-      <c r="R386" s="1">
+      <c r="R386" s="2">
         <f t="shared" si="73"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="S386" s="1">
         <v>1.78</v>
       </c>
-      <c r="Z386" s="1">
+      <c r="Z386" s="2">
         <f t="shared" si="74"/>
         <v>5.460000000000001E-2</v>
       </c>
@@ -16980,14 +16990,14 @@
       <c r="M387" s="1">
         <v>0</v>
       </c>
-      <c r="R387" s="1">
+      <c r="R387" s="2">
         <f t="shared" si="73"/>
         <v>6.0000000000000053E-2</v>
       </c>
       <c r="S387" s="1">
         <v>1.81</v>
       </c>
-      <c r="Z387" s="1">
+      <c r="Z387" s="2">
         <f t="shared" si="74"/>
         <v>6.5700000000000008E-2</v>
       </c>
@@ -17020,14 +17030,14 @@
       <c r="M388" s="1">
         <v>0</v>
       </c>
-      <c r="R388" s="1">
+      <c r="R388" s="2">
         <f t="shared" si="73"/>
         <v>-0.18999999999999995</v>
       </c>
       <c r="S388" s="1">
         <v>1.56</v>
       </c>
-      <c r="Z388" s="1">
+      <c r="Z388" s="2">
         <f t="shared" si="74"/>
         <v>4.9799999999999983E-2</v>
       </c>
@@ -17060,14 +17070,14 @@
       <c r="M389" s="1">
         <v>0</v>
       </c>
-      <c r="R389" s="1">
+      <c r="R389" s="2">
         <f t="shared" si="73"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S389" s="1">
         <v>1.92</v>
       </c>
-      <c r="Z389" s="1">
+      <c r="Z389" s="2">
         <f t="shared" si="74"/>
         <v>8.5800000000000015E-2</v>
       </c>
@@ -17100,14 +17110,14 @@
       <c r="M390" s="1">
         <v>0</v>
       </c>
-      <c r="R390" s="1">
+      <c r="R390" s="2">
         <f t="shared" si="73"/>
         <v>0.1100000000000001</v>
       </c>
       <c r="S390" s="1">
         <v>1.86</v>
       </c>
-      <c r="Z390" s="1">
+      <c r="Z390" s="2">
         <f t="shared" si="74"/>
         <v>6.9700000000000012E-2</v>
       </c>
@@ -17140,14 +17150,14 @@
       <c r="M391" s="1">
         <v>0</v>
       </c>
-      <c r="R391" s="1">
+      <c r="R391" s="2">
         <f t="shared" si="73"/>
         <v>-5.0000000000000044E-2</v>
       </c>
       <c r="S391" s="1">
         <v>1.7</v>
       </c>
-      <c r="Z391" s="1">
+      <c r="Z391" s="2">
         <f t="shared" si="74"/>
         <v>3.2400000000000012E-2</v>
       </c>
@@ -17180,14 +17190,14 @@
       <c r="M392" s="1">
         <v>0</v>
       </c>
-      <c r="R392" s="1">
+      <c r="R392" s="2">
         <f t="shared" si="73"/>
         <v>-0.31000000000000005</v>
       </c>
       <c r="S392" s="1">
         <v>1.44</v>
       </c>
-      <c r="Z392" s="1">
+      <c r="Z392" s="2">
         <f t="shared" si="74"/>
         <v>8.299999999999999E-2</v>
       </c>
@@ -17220,14 +17230,14 @@
       <c r="M393" s="1">
         <v>5</v>
       </c>
-      <c r="R393" s="1">
+      <c r="R393" s="2">
         <f>S393-1.75</f>
         <v>0.37999999999999989</v>
       </c>
       <c r="S393" s="1">
         <v>2.13</v>
       </c>
-      <c r="Z393" s="1">
+      <c r="Z393" s="2">
         <f>AA393-0.3332</f>
         <v>6.5999999999999948E-3</v>
       </c>
@@ -17260,14 +17270,14 @@
       <c r="M394" s="1">
         <v>5</v>
       </c>
-      <c r="R394" s="1">
+      <c r="R394" s="2">
         <f t="shared" ref="R394:R408" si="75">S394-1.75</f>
         <v>0.60999999999999988</v>
       </c>
       <c r="S394" s="1">
         <v>2.36</v>
       </c>
-      <c r="Z394" s="1">
+      <c r="Z394" s="2">
         <f>AA394-0.3332</f>
         <v>8.6799999999999988E-2</v>
       </c>
@@ -17300,14 +17310,14 @@
       <c r="M395" s="1">
         <v>5</v>
       </c>
-      <c r="R395" s="1">
+      <c r="R395" s="2">
         <f t="shared" si="75"/>
         <v>0.37999999999999989</v>
       </c>
       <c r="S395" s="1">
         <v>2.13</v>
       </c>
-      <c r="Z395" s="1">
+      <c r="Z395" s="2">
         <f t="shared" ref="Z395:Z408" si="76">AA395-0.3332</f>
         <v>4.6700000000000019E-2</v>
       </c>
@@ -17340,14 +17350,14 @@
       <c r="M396" s="1">
         <v>5</v>
       </c>
-      <c r="R396" s="1">
+      <c r="R396" s="2">
         <f t="shared" si="75"/>
         <v>0.49000000000000021</v>
       </c>
       <c r="S396" s="1">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Z396" s="1">
+      <c r="Z396" s="2">
         <f t="shared" si="76"/>
         <v>7.350000000000001E-2</v>
       </c>
@@ -17380,14 +17390,14 @@
       <c r="M397" s="1">
         <v>5</v>
       </c>
-      <c r="R397" s="1">
+      <c r="R397" s="2">
         <f t="shared" si="75"/>
         <v>0.12999999999999989</v>
       </c>
       <c r="S397" s="1">
         <v>1.88</v>
       </c>
-      <c r="Z397" s="1">
+      <c r="Z397" s="2">
         <f t="shared" si="76"/>
         <v>2.899999999999997E-2</v>
       </c>
@@ -17420,14 +17430,14 @@
       <c r="M398" s="1">
         <v>5</v>
       </c>
-      <c r="R398" s="1">
+      <c r="R398" s="2">
         <f t="shared" si="75"/>
         <v>0.5299999999999998</v>
       </c>
       <c r="S398" s="1">
         <v>2.2799999999999998</v>
       </c>
-      <c r="Z398" s="1">
+      <c r="Z398" s="2">
         <f t="shared" si="76"/>
         <v>5.5499999999999994E-2</v>
       </c>
@@ -17460,14 +17470,14 @@
       <c r="M399" s="1">
         <v>5</v>
       </c>
-      <c r="R399" s="1">
+      <c r="R399" s="2">
         <f t="shared" si="75"/>
         <v>0.54</v>
       </c>
       <c r="S399" s="1">
         <v>2.29</v>
       </c>
-      <c r="Z399" s="1">
+      <c r="Z399" s="2">
         <f t="shared" si="76"/>
         <v>9.4099999999999961E-2</v>
       </c>
@@ -17500,14 +17510,14 @@
       <c r="M400" s="1">
         <v>5</v>
       </c>
-      <c r="R400" s="1">
+      <c r="R400" s="2">
         <f t="shared" si="75"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="S400" s="1">
         <v>2.31</v>
       </c>
-      <c r="Z400" s="1">
+      <c r="Z400" s="2">
         <f t="shared" si="76"/>
         <v>8.4600000000000009E-2</v>
       </c>
@@ -17540,14 +17550,14 @@
       <c r="M401" s="1">
         <v>5</v>
       </c>
-      <c r="R401" s="1">
+      <c r="R401" s="2">
         <f t="shared" si="75"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="S401" s="1">
         <v>2.19</v>
       </c>
-      <c r="Z401" s="1">
+      <c r="Z401" s="2">
         <f t="shared" si="76"/>
         <v>4.4300000000000006E-2</v>
       </c>
@@ -17580,14 +17590,14 @@
       <c r="M402" s="1">
         <v>5</v>
       </c>
-      <c r="R402" s="1">
+      <c r="R402" s="2">
         <f t="shared" si="75"/>
         <v>0.43999999999999995</v>
       </c>
       <c r="S402" s="1">
         <v>2.19</v>
       </c>
-      <c r="Z402" s="1">
+      <c r="Z402" s="2">
         <f t="shared" si="76"/>
         <v>4.2100000000000026E-2</v>
       </c>
@@ -17620,14 +17630,14 @@
       <c r="M403" s="1">
         <v>5</v>
       </c>
-      <c r="R403" s="1">
+      <c r="R403" s="2">
         <f t="shared" si="75"/>
         <v>0.48</v>
       </c>
       <c r="S403" s="1">
         <v>2.23</v>
       </c>
-      <c r="Z403" s="1">
+      <c r="Z403" s="2">
         <f t="shared" si="76"/>
         <v>6.3699999999999979E-2</v>
       </c>
@@ -17660,14 +17670,14 @@
       <c r="M404" s="1">
         <v>5</v>
       </c>
-      <c r="R404" s="1">
+      <c r="R404" s="2">
         <f t="shared" si="75"/>
         <v>0.31999999999999984</v>
       </c>
       <c r="S404" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="Z404" s="1">
+      <c r="Z404" s="2">
         <f t="shared" si="76"/>
         <v>5.4200000000000026E-2</v>
       </c>
@@ -17700,14 +17710,14 @@
       <c r="M405" s="1">
         <v>5</v>
       </c>
-      <c r="R405" s="1">
+      <c r="R405" s="2">
         <f t="shared" si="75"/>
         <v>0.54</v>
       </c>
       <c r="S405" s="1">
         <v>2.29</v>
       </c>
-      <c r="Z405" s="1">
+      <c r="Z405" s="2">
         <f t="shared" si="76"/>
         <v>9.0899999999999981E-2</v>
       </c>
@@ -17740,14 +17750,14 @@
       <c r="M406" s="1">
         <v>5</v>
       </c>
-      <c r="R406" s="1">
+      <c r="R406" s="2">
         <f t="shared" si="75"/>
         <v>0.4700000000000002</v>
       </c>
       <c r="S406" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="Z406" s="1">
+      <c r="Z406" s="2">
         <f t="shared" si="76"/>
         <v>6.3500000000000001E-2</v>
       </c>
@@ -17780,14 +17790,14 @@
       <c r="M407" s="1">
         <v>5</v>
       </c>
-      <c r="R407" s="1">
+      <c r="R407" s="2">
         <f t="shared" si="75"/>
         <v>0.41000000000000014</v>
       </c>
       <c r="S407" s="1">
         <v>2.16</v>
       </c>
-      <c r="Z407" s="1">
+      <c r="Z407" s="2">
         <f t="shared" si="76"/>
         <v>2.250000000000002E-2</v>
       </c>
@@ -17820,14 +17830,14 @@
       <c r="M408" s="1">
         <v>5</v>
       </c>
-      <c r="R408" s="1">
+      <c r="R408" s="2">
         <f t="shared" si="75"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S408" s="1">
         <v>1.94</v>
       </c>
-      <c r="Z408" s="1">
+      <c r="Z408" s="2">
         <f t="shared" si="76"/>
         <v>7.8199999999999992E-2</v>
       </c>
@@ -17860,14 +17870,14 @@
       <c r="M409" s="1">
         <v>10</v>
       </c>
-      <c r="R409" s="1">
+      <c r="R409" s="2">
         <f>S409-2.43</f>
         <v>0.12999999999999989</v>
       </c>
       <c r="S409" s="1">
         <v>2.56</v>
       </c>
-      <c r="Z409" s="1">
+      <c r="Z409" s="2">
         <f>AA409-0.4529</f>
         <v>-1.3000000000000012E-2</v>
       </c>
@@ -17900,14 +17910,14 @@
       <c r="M410" s="1">
         <v>10</v>
       </c>
-      <c r="R410" s="1">
+      <c r="R410" s="2">
         <f t="shared" ref="R410:R424" si="77">S410-2.43</f>
         <v>0.25999999999999979</v>
       </c>
       <c r="S410" s="1">
         <v>2.69</v>
       </c>
-      <c r="Z410" s="1">
+      <c r="Z410" s="2">
         <f>AA410-0.4529</f>
         <v>7.6600000000000057E-2</v>
       </c>
@@ -17940,14 +17950,14 @@
       <c r="M411" s="1">
         <v>10</v>
       </c>
-      <c r="R411" s="1">
+      <c r="R411" s="2">
         <f t="shared" si="77"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="S411" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Z411" s="1">
+      <c r="Z411" s="2">
         <f t="shared" ref="Z411:Z424" si="78">AA411-0.4529</f>
         <v>5.1099999999999979E-2</v>
       </c>
@@ -17980,14 +17990,14 @@
       <c r="M412" s="1">
         <v>10</v>
       </c>
-      <c r="R412" s="1">
+      <c r="R412" s="2">
         <f t="shared" si="77"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S412" s="1">
         <v>2.61</v>
       </c>
-      <c r="Z412" s="1">
+      <c r="Z412" s="2">
         <f t="shared" si="78"/>
         <v>5.6199999999999972E-2</v>
       </c>
@@ -18020,14 +18030,14 @@
       <c r="M413" s="1">
         <v>10</v>
       </c>
-      <c r="R413" s="1">
+      <c r="R413" s="2">
         <f t="shared" si="77"/>
         <v>-5.0000000000000266E-2</v>
       </c>
       <c r="S413" s="1">
         <v>2.38</v>
       </c>
-      <c r="Z413" s="1">
+      <c r="Z413" s="2">
         <f t="shared" si="78"/>
         <v>2.300000000000002E-2</v>
       </c>
@@ -18060,14 +18070,14 @@
       <c r="M414" s="1">
         <v>10</v>
       </c>
-      <c r="R414" s="1">
+      <c r="R414" s="2">
         <f t="shared" si="77"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S414" s="1">
         <v>2.64</v>
       </c>
-      <c r="Z414" s="1">
+      <c r="Z414" s="2">
         <f t="shared" si="78"/>
         <v>5.0500000000000045E-2</v>
       </c>
@@ -18100,14 +18110,14 @@
       <c r="M415" s="1">
         <v>10</v>
       </c>
-      <c r="R415" s="1">
+      <c r="R415" s="2">
         <f t="shared" si="77"/>
         <v>0.25</v>
       </c>
       <c r="S415" s="1">
         <v>2.68</v>
       </c>
-      <c r="Z415" s="1">
+      <c r="Z415" s="2">
         <f t="shared" si="78"/>
         <v>7.1899999999999908E-2</v>
       </c>
@@ -18140,14 +18150,14 @@
       <c r="M416" s="1">
         <v>10</v>
       </c>
-      <c r="R416" s="1">
+      <c r="R416" s="2">
         <f t="shared" si="77"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S416" s="1">
         <v>2.67</v>
       </c>
-      <c r="Z416" s="1">
+      <c r="Z416" s="2">
         <f t="shared" si="78"/>
         <v>6.5900000000000014E-2</v>
       </c>
@@ -18180,14 +18190,14 @@
       <c r="M417" s="1">
         <v>10</v>
       </c>
-      <c r="R417" s="1">
+      <c r="R417" s="2">
         <f t="shared" si="77"/>
         <v>0.1599999999999997</v>
       </c>
       <c r="S417" s="1">
         <v>2.59</v>
       </c>
-      <c r="Z417" s="1">
+      <c r="Z417" s="2">
         <f t="shared" si="78"/>
         <v>3.7700000000000011E-2</v>
       </c>
@@ -18220,14 +18230,14 @@
       <c r="M418" s="1">
         <v>10</v>
       </c>
-      <c r="R418" s="1">
+      <c r="R418" s="2">
         <f t="shared" si="77"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S418" s="1">
         <v>2.6</v>
       </c>
-      <c r="Z418" s="1">
+      <c r="Z418" s="2">
         <f t="shared" si="78"/>
         <v>2.8699999999999948E-2</v>
       </c>
@@ -18260,14 +18270,14 @@
       <c r="M419" s="1">
         <v>10</v>
       </c>
-      <c r="R419" s="1">
+      <c r="R419" s="2">
         <f t="shared" si="77"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S419" s="1">
         <v>2.62</v>
       </c>
-      <c r="Z419" s="1">
+      <c r="Z419" s="2">
         <f t="shared" si="78"/>
         <v>6.090000000000001E-2</v>
       </c>
@@ -18300,14 +18310,14 @@
       <c r="M420" s="1">
         <v>10</v>
       </c>
-      <c r="R420" s="1">
+      <c r="R420" s="2">
         <f t="shared" si="77"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="S420" s="1">
         <v>2.5299999999999998</v>
       </c>
-      <c r="Z420" s="1">
+      <c r="Z420" s="2">
         <f t="shared" si="78"/>
         <v>3.8999999999999979E-2</v>
       </c>
@@ -18340,14 +18350,14 @@
       <c r="M421" s="1">
         <v>10</v>
       </c>
-      <c r="R421" s="1">
+      <c r="R421" s="2">
         <f t="shared" si="77"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S421" s="1">
         <v>2.67</v>
       </c>
-      <c r="Z421" s="1">
+      <c r="Z421" s="2">
         <f t="shared" si="78"/>
         <v>7.0299999999999974E-2</v>
       </c>
@@ -18380,14 +18390,14 @@
       <c r="M422" s="1">
         <v>10</v>
       </c>
-      <c r="R422" s="1">
+      <c r="R422" s="2">
         <f t="shared" si="77"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S422" s="1">
         <v>2.61</v>
       </c>
-      <c r="Z422" s="1">
+      <c r="Z422" s="2">
         <f t="shared" si="78"/>
         <v>5.319999999999997E-2</v>
       </c>
@@ -18420,14 +18430,14 @@
       <c r="M423" s="1">
         <v>10</v>
       </c>
-      <c r="R423" s="1">
+      <c r="R423" s="2">
         <f t="shared" si="77"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S423" s="1">
         <v>2.58</v>
       </c>
-      <c r="Z423" s="1">
+      <c r="Z423" s="2">
         <f t="shared" si="78"/>
         <v>1.5099999999999947E-2</v>
       </c>
@@ -18460,14 +18470,14 @@
       <c r="M424" s="1">
         <v>10</v>
       </c>
-      <c r="R424" s="1">
+      <c r="R424" s="2">
         <f t="shared" si="77"/>
         <v>-1.0000000000000231E-2</v>
       </c>
       <c r="S424" s="1">
         <v>2.42</v>
       </c>
-      <c r="Z424" s="1">
+      <c r="Z424" s="2">
         <f t="shared" si="78"/>
         <v>6.6199999999999981E-2</v>
       </c>
@@ -18500,14 +18510,14 @@
       <c r="M425" s="1">
         <v>15</v>
       </c>
-      <c r="R425" s="1">
+      <c r="R425" s="2">
         <f>S425-2.77</f>
         <v>0.20000000000000018</v>
       </c>
       <c r="S425" s="1">
         <v>2.97</v>
       </c>
-      <c r="Z425" s="1">
+      <c r="Z425" s="2">
         <f>AA425-0.5649</f>
         <v>-3.0299999999999994E-2</v>
       </c>
@@ -18540,14 +18550,14 @@
       <c r="M426" s="1">
         <v>15</v>
       </c>
-      <c r="R426" s="1">
+      <c r="R426" s="2">
         <f t="shared" ref="R426:R440" si="79">S426-2.77</f>
         <v>0.20999999999999996</v>
       </c>
       <c r="S426" s="1">
         <v>2.98</v>
       </c>
-      <c r="Z426" s="1">
+      <c r="Z426" s="2">
         <f>AA426-0.5649</f>
         <v>3.9000000000000035E-2</v>
       </c>
@@ -18580,14 +18590,14 @@
       <c r="M427" s="1">
         <v>15</v>
       </c>
-      <c r="R427" s="1">
+      <c r="R427" s="2">
         <f t="shared" si="79"/>
         <v>0.14000000000000012</v>
       </c>
       <c r="S427" s="1">
         <v>2.91</v>
       </c>
-      <c r="Z427" s="1">
+      <c r="Z427" s="2">
         <f t="shared" ref="Z427:Z440" si="80">AA427-0.5649</f>
         <v>5.4000000000000048E-2</v>
       </c>
@@ -18620,14 +18630,14 @@
       <c r="M428" s="1">
         <v>15</v>
       </c>
-      <c r="R428" s="1">
+      <c r="R428" s="2">
         <f t="shared" si="79"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="S428" s="1">
         <v>2.97</v>
       </c>
-      <c r="Z428" s="1">
+      <c r="Z428" s="2">
         <f t="shared" si="80"/>
         <v>4.6900000000000053E-2</v>
       </c>
@@ -18660,14 +18670,14 @@
       <c r="M429" s="1">
         <v>15</v>
       </c>
-      <c r="R429" s="1">
+      <c r="R429" s="2">
         <f t="shared" si="79"/>
         <v>6.999999999999984E-2</v>
       </c>
       <c r="S429" s="1">
         <v>2.84</v>
       </c>
-      <c r="Z429" s="1">
+      <c r="Z429" s="2">
         <f t="shared" si="80"/>
         <v>6.8000000000000282E-3</v>
       </c>
@@ -18700,14 +18710,14 @@
       <c r="M430" s="1">
         <v>15</v>
       </c>
-      <c r="R430" s="1">
+      <c r="R430" s="2">
         <f t="shared" si="79"/>
         <v>0.20000000000000018</v>
       </c>
       <c r="S430" s="1">
         <v>2.97</v>
       </c>
-      <c r="Z430" s="1">
+      <c r="Z430" s="2">
         <f t="shared" si="80"/>
         <v>4.8500000000000099E-2</v>
       </c>
@@ -18740,14 +18750,14 @@
       <c r="M431" s="1">
         <v>15</v>
       </c>
-      <c r="R431" s="1">
+      <c r="R431" s="2">
         <f t="shared" si="79"/>
         <v>0.27</v>
       </c>
       <c r="S431" s="1">
         <v>3.04</v>
       </c>
-      <c r="Z431" s="1">
+      <c r="Z431" s="2">
         <f t="shared" si="80"/>
         <v>4.0000000000000036E-2</v>
       </c>
@@ -18780,14 +18790,14 @@
       <c r="M432" s="1">
         <v>15</v>
       </c>
-      <c r="R432" s="1">
+      <c r="R432" s="2">
         <f t="shared" si="79"/>
         <v>0.25</v>
       </c>
       <c r="S432" s="1">
         <v>3.02</v>
       </c>
-      <c r="Z432" s="1">
+      <c r="Z432" s="2">
         <f t="shared" si="80"/>
         <v>5.3200000000000025E-2</v>
       </c>
@@ -18820,14 +18830,14 @@
       <c r="M433" s="1">
         <v>15</v>
       </c>
-      <c r="R433" s="1">
+      <c r="R433" s="2">
         <f t="shared" si="79"/>
         <v>0.2200000000000002</v>
       </c>
       <c r="S433" s="1">
         <v>2.99</v>
       </c>
-      <c r="Z433" s="1">
+      <c r="Z433" s="2">
         <f t="shared" si="80"/>
         <v>3.0999999999999917E-3</v>
       </c>
@@ -18860,14 +18870,14 @@
       <c r="M434" s="1">
         <v>15</v>
       </c>
-      <c r="R434" s="1">
+      <c r="R434" s="2">
         <f t="shared" si="79"/>
         <v>0.2200000000000002</v>
       </c>
       <c r="S434" s="1">
         <v>2.99</v>
       </c>
-      <c r="Z434" s="1">
+      <c r="Z434" s="2">
         <f t="shared" si="80"/>
         <v>2.7000000000000357E-3</v>
       </c>
@@ -18900,14 +18910,14 @@
       <c r="M435" s="1">
         <v>15</v>
       </c>
-      <c r="R435" s="1">
+      <c r="R435" s="2">
         <f t="shared" si="79"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S435" s="1">
         <v>3.01</v>
       </c>
-      <c r="Z435" s="1">
+      <c r="Z435" s="2">
         <f t="shared" si="80"/>
         <v>3.0500000000000083E-2</v>
       </c>
@@ -18940,14 +18950,14 @@
       <c r="M436" s="1">
         <v>15</v>
       </c>
-      <c r="R436" s="1">
+      <c r="R436" s="2">
         <f t="shared" si="79"/>
         <v>0.16000000000000014</v>
       </c>
       <c r="S436" s="1">
         <v>2.93</v>
       </c>
-      <c r="Z436" s="1">
+      <c r="Z436" s="2">
         <f t="shared" si="80"/>
         <v>3.4700000000000064E-2</v>
       </c>
@@ -18980,14 +18990,14 @@
       <c r="M437" s="1">
         <v>15</v>
       </c>
-      <c r="R437" s="1">
+      <c r="R437" s="2">
         <f t="shared" si="79"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="S437" s="1">
         <v>3.03</v>
       </c>
-      <c r="Z437" s="1">
+      <c r="Z437" s="2">
         <f t="shared" si="80"/>
         <v>3.4600000000000075E-2</v>
       </c>
@@ -19020,14 +19030,14 @@
       <c r="M438" s="1">
         <v>15</v>
       </c>
-      <c r="R438" s="1">
+      <c r="R438" s="2">
         <f t="shared" si="79"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S438" s="1">
         <v>2.98</v>
       </c>
-      <c r="Z438" s="1">
+      <c r="Z438" s="2">
         <f t="shared" si="80"/>
         <v>2.0700000000000052E-2</v>
       </c>
@@ -19060,14 +19070,14 @@
       <c r="M439" s="1">
         <v>15</v>
       </c>
-      <c r="R439" s="1">
+      <c r="R439" s="2">
         <f t="shared" si="79"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S439" s="1">
         <v>2.98</v>
       </c>
-      <c r="Z439" s="1">
+      <c r="Z439" s="2">
         <f t="shared" si="80"/>
         <v>-4.1999999999999815E-3</v>
       </c>
@@ -19100,14 +19110,14 @@
       <c r="M440" s="1">
         <v>15</v>
       </c>
-      <c r="R440" s="1">
+      <c r="R440" s="2">
         <f t="shared" si="79"/>
         <v>0.10999999999999988</v>
       </c>
       <c r="S440" s="1">
         <v>2.88</v>
       </c>
-      <c r="Z440" s="1">
+      <c r="Z440" s="2">
         <f t="shared" si="80"/>
         <v>3.9100000000000024E-2</v>
       </c>
@@ -19140,14 +19150,14 @@
       <c r="M441" s="1">
         <v>20</v>
       </c>
-      <c r="R441" s="1">
+      <c r="R441" s="2">
         <f>S441-3.1</f>
         <v>0.25999999999999979</v>
       </c>
       <c r="S441" s="1">
         <v>3.36</v>
       </c>
-      <c r="Z441" s="1">
+      <c r="Z441" s="2">
         <f>AA441-0.6516</f>
         <v>-4.1100000000000025E-2</v>
       </c>
@@ -19180,14 +19190,14 @@
       <c r="M442" s="1">
         <v>20</v>
       </c>
-      <c r="R442" s="1">
+      <c r="R442" s="2">
         <f t="shared" ref="R442:R456" si="81">S442-3.1</f>
         <v>0.10999999999999988</v>
       </c>
       <c r="S442" s="1">
         <v>3.21</v>
       </c>
-      <c r="Z442" s="1">
+      <c r="Z442" s="2">
         <f>AA442-0.6516</f>
         <v>-5.6000000000000494E-3</v>
       </c>
@@ -19220,14 +19230,14 @@
       <c r="M443" s="1">
         <v>20</v>
       </c>
-      <c r="R443" s="1">
+      <c r="R443" s="2">
         <f t="shared" si="81"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S443" s="1">
         <v>3.27</v>
       </c>
-      <c r="Z443" s="1">
+      <c r="Z443" s="2">
         <f t="shared" ref="Z443:Z456" si="82">AA443-0.6516</f>
         <v>3.4200000000000008E-2</v>
       </c>
@@ -19260,14 +19270,14 @@
       <c r="M444" s="1">
         <v>20</v>
       </c>
-      <c r="R444" s="1">
+      <c r="R444" s="2">
         <f t="shared" si="81"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S444" s="1">
         <v>3.31</v>
       </c>
-      <c r="Z444" s="1">
+      <c r="Z444" s="2">
         <f t="shared" si="82"/>
         <v>1.2700000000000156E-2</v>
       </c>
@@ -19300,14 +19310,14 @@
       <c r="M445" s="1">
         <v>20</v>
       </c>
-      <c r="R445" s="1">
+      <c r="R445" s="2">
         <f t="shared" si="81"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S445" s="1">
         <v>3.27</v>
       </c>
-      <c r="Z445" s="1">
+      <c r="Z445" s="2">
         <f t="shared" si="82"/>
         <v>-3.0999999999999917E-3</v>
       </c>
@@ -19340,14 +19350,14 @@
       <c r="M446" s="1">
         <v>20</v>
       </c>
-      <c r="R446" s="1">
+      <c r="R446" s="2">
         <f t="shared" si="81"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S446" s="1">
         <v>3.28</v>
       </c>
-      <c r="Z446" s="1">
+      <c r="Z446" s="2">
         <f t="shared" si="82"/>
         <v>2.3599999999999954E-2</v>
       </c>
@@ -19380,14 +19390,14 @@
       <c r="M447" s="1">
         <v>20</v>
       </c>
-      <c r="R447" s="1">
+      <c r="R447" s="2">
         <f t="shared" si="81"/>
         <v>0.2799999999999998</v>
       </c>
       <c r="S447" s="1">
         <v>3.38</v>
       </c>
-      <c r="Z447" s="1">
+      <c r="Z447" s="2">
         <f t="shared" si="82"/>
         <v>2.9000000000001247E-3</v>
       </c>
@@ -19420,14 +19430,14 @@
       <c r="M448" s="1">
         <v>20</v>
       </c>
-      <c r="R448" s="1">
+      <c r="R448" s="2">
         <f t="shared" si="81"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="S448" s="1">
         <v>3.33</v>
       </c>
-      <c r="Z448" s="1">
+      <c r="Z448" s="2">
         <f t="shared" si="82"/>
         <v>2.2199999999999998E-2</v>
       </c>
@@ -19460,14 +19470,14 @@
       <c r="M449" s="1">
         <v>20</v>
       </c>
-      <c r="R449" s="1">
+      <c r="R449" s="2">
         <f t="shared" si="81"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S449" s="1">
         <v>3.34</v>
       </c>
-      <c r="Z449" s="1">
+      <c r="Z449" s="2">
         <f t="shared" si="82"/>
         <v>-2.5599999999999956E-2</v>
       </c>
@@ -19500,14 +19510,14 @@
       <c r="M450" s="1">
         <v>20</v>
       </c>
-      <c r="R450" s="1">
+      <c r="R450" s="2">
         <f t="shared" si="81"/>
         <v>0.23999999999999977</v>
       </c>
       <c r="S450" s="1">
         <v>3.34</v>
       </c>
-      <c r="Z450" s="1">
+      <c r="Z450" s="2">
         <f t="shared" si="82"/>
         <v>-2.9299999999999993E-2</v>
       </c>
@@ -19540,14 +19550,14 @@
       <c r="M451" s="1">
         <v>20</v>
       </c>
-      <c r="R451" s="1">
+      <c r="R451" s="2">
         <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="S451" s="1">
         <v>3.35</v>
       </c>
-      <c r="Z451" s="1">
+      <c r="Z451" s="2">
         <f t="shared" si="82"/>
         <v>-2.4999999999999467E-3</v>
       </c>
@@ -19580,14 +19590,14 @@
       <c r="M452" s="1">
         <v>20</v>
       </c>
-      <c r="R452" s="1">
+      <c r="R452" s="2">
         <f t="shared" si="81"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S452" s="1">
         <v>3.28</v>
       </c>
-      <c r="Z452" s="1">
+      <c r="Z452" s="2">
         <f t="shared" si="82"/>
         <v>1.5800000000000036E-2</v>
       </c>
@@ -19620,14 +19630,14 @@
       <c r="M453" s="1">
         <v>20</v>
       </c>
-      <c r="R453" s="1">
+      <c r="R453" s="2">
         <f t="shared" si="81"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="S453" s="1">
         <v>3.36</v>
       </c>
-      <c r="Z453" s="1">
+      <c r="Z453" s="2">
         <f t="shared" si="82"/>
         <v>1.9000000000000128E-3</v>
       </c>
@@ -19660,14 +19670,14 @@
       <c r="M454" s="1">
         <v>20</v>
       </c>
-      <c r="R454" s="1">
+      <c r="R454" s="2">
         <f t="shared" si="81"/>
         <v>0.21999999999999975</v>
       </c>
       <c r="S454" s="1">
         <v>3.32</v>
       </c>
-      <c r="Z454" s="1">
+      <c r="Z454" s="2">
         <f t="shared" si="82"/>
         <v>-1.6299999999999981E-2</v>
       </c>
@@ -19700,14 +19710,14 @@
       <c r="M455" s="1">
         <v>20</v>
       </c>
-      <c r="R455" s="1">
+      <c r="R455" s="2">
         <f t="shared" si="81"/>
         <v>0.25</v>
       </c>
       <c r="S455" s="1">
         <v>3.35</v>
       </c>
-      <c r="Z455" s="1">
+      <c r="Z455" s="2">
         <f t="shared" si="82"/>
         <v>-2.5899999999999923E-2</v>
       </c>
@@ -19740,14 +19750,14 @@
       <c r="M456" s="1">
         <v>20</v>
       </c>
-      <c r="R456" s="1">
+      <c r="R456" s="2">
         <f t="shared" si="81"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S456" s="1">
         <v>3.28</v>
       </c>
-      <c r="Z456" s="1">
+      <c r="Z456" s="2">
         <f t="shared" si="82"/>
         <v>9.8000000000000309E-3</v>
       </c>
@@ -19780,14 +19790,14 @@
       <c r="M457" s="1">
         <v>25</v>
       </c>
-      <c r="R457" s="1">
+      <c r="R457" s="2">
         <f>S457-3.43</f>
         <v>0.25999999999999979</v>
       </c>
       <c r="S457" s="1">
         <v>3.69</v>
       </c>
-      <c r="Z457" s="1">
+      <c r="Z457" s="2">
         <f>AA457-0.7116</f>
         <v>-4.5399999999999996E-2</v>
       </c>
@@ -19820,14 +19830,14 @@
       <c r="M458" s="1">
         <v>25</v>
       </c>
-      <c r="R458" s="1">
+      <c r="R458" s="2">
         <f t="shared" ref="R458:R472" si="83">S458-3.43</f>
         <v>-6.0000000000000053E-2</v>
       </c>
       <c r="S458" s="1">
         <v>3.37</v>
       </c>
-      <c r="Z458" s="1">
+      <c r="Z458" s="2">
         <f>AA458-0.7116</f>
         <v>-4.2899999999999938E-2</v>
       </c>
@@ -19860,14 +19870,14 @@
       <c r="M459" s="1">
         <v>25</v>
       </c>
-      <c r="R459" s="1">
+      <c r="R459" s="2">
         <f t="shared" si="83"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S459" s="1">
         <v>3.6</v>
       </c>
-      <c r="Z459" s="1">
+      <c r="Z459" s="2">
         <f t="shared" ref="Z459:Z472" si="84">AA459-0.7116</f>
         <v>1.4800000000000035E-2</v>
       </c>
@@ -19900,14 +19910,14 @@
       <c r="M460" s="1">
         <v>25</v>
       </c>
-      <c r="R460" s="1">
+      <c r="R460" s="2">
         <f t="shared" si="83"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S460" s="1">
         <v>3.63</v>
       </c>
-      <c r="Z460" s="1">
+      <c r="Z460" s="2">
         <f t="shared" si="84"/>
         <v>-1.0000000000000009E-3</v>
       </c>
@@ -19940,14 +19950,14 @@
       <c r="M461" s="1">
         <v>25</v>
       </c>
-      <c r="R461" s="1">
+      <c r="R461" s="2">
         <f t="shared" si="83"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S461" s="1">
         <v>3.64</v>
       </c>
-      <c r="Z461" s="1">
+      <c r="Z461" s="2">
         <f t="shared" si="84"/>
         <v>-2.8400000000000092E-2</v>
       </c>
@@ -19980,14 +19990,14 @@
       <c r="M462" s="1">
         <v>25</v>
       </c>
-      <c r="R462" s="1">
+      <c r="R462" s="2">
         <f t="shared" si="83"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S462" s="1">
         <v>3.58</v>
       </c>
-      <c r="Z462" s="1">
+      <c r="Z462" s="2">
         <f t="shared" si="84"/>
         <v>-1.4999999999999458E-3</v>
       </c>
@@ -20020,14 +20030,14 @@
       <c r="M463" s="1">
         <v>25</v>
       </c>
-      <c r="R463" s="1">
+      <c r="R463" s="2">
         <f t="shared" si="83"/>
         <v>0.25999999999999979</v>
       </c>
       <c r="S463" s="1">
         <v>3.69</v>
       </c>
-      <c r="Z463" s="1">
+      <c r="Z463" s="2">
         <f t="shared" si="84"/>
         <v>-2.4399999999999977E-2</v>
       </c>
@@ -20060,14 +20070,14 @@
       <c r="M464" s="1">
         <v>25</v>
       </c>
-      <c r="R464" s="1">
+      <c r="R464" s="2">
         <f t="shared" si="83"/>
         <v>0.18999999999999995</v>
       </c>
       <c r="S464" s="1">
         <v>3.62</v>
       </c>
-      <c r="Z464" s="1">
+      <c r="Z464" s="2">
         <f t="shared" si="84"/>
         <v>-6.0000000000000053E-3</v>
       </c>
@@ -20100,14 +20110,14 @@
       <c r="M465" s="1">
         <v>25</v>
       </c>
-      <c r="R465" s="1">
+      <c r="R465" s="2">
         <f t="shared" si="83"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S465" s="1">
         <v>3.64</v>
       </c>
-      <c r="Z465" s="1">
+      <c r="Z465" s="2">
         <f t="shared" si="84"/>
         <v>-5.0800000000000067E-2</v>
       </c>
@@ -20140,14 +20150,14 @@
       <c r="M466" s="1">
         <v>25</v>
       </c>
-      <c r="R466" s="1">
+      <c r="R466" s="2">
         <f t="shared" si="83"/>
         <v>0.20999999999999996</v>
       </c>
       <c r="S466" s="1">
         <v>3.64</v>
       </c>
-      <c r="Z466" s="1">
+      <c r="Z466" s="2">
         <f t="shared" si="84"/>
         <v>-5.0300000000000011E-2</v>
       </c>
@@ -20180,14 +20190,14 @@
       <c r="M467" s="1">
         <v>25</v>
       </c>
-      <c r="R467" s="1">
+      <c r="R467" s="2">
         <f t="shared" si="83"/>
         <v>0.22999999999999998</v>
       </c>
       <c r="S467" s="1">
         <v>3.66</v>
       </c>
-      <c r="Z467" s="1">
+      <c r="Z467" s="2">
         <f t="shared" si="84"/>
         <v>-2.7200000000000002E-2</v>
       </c>
@@ -20220,14 +20230,14 @@
       <c r="M468" s="1">
         <v>25</v>
       </c>
-      <c r="R468" s="1">
+      <c r="R468" s="2">
         <f t="shared" si="83"/>
         <v>0.1599999999999997</v>
       </c>
       <c r="S468" s="1">
         <v>3.59</v>
       </c>
-      <c r="Z468" s="1">
+      <c r="Z468" s="2">
         <f t="shared" si="84"/>
         <v>-4.7000000000000375E-3</v>
       </c>
@@ -20260,14 +20270,14 @@
       <c r="M469" s="1">
         <v>25</v>
       </c>
-      <c r="R469" s="1">
+      <c r="R469" s="2">
         <f t="shared" si="83"/>
         <v>0.21999999999999975</v>
       </c>
       <c r="S469" s="1">
         <v>3.65</v>
       </c>
-      <c r="Z469" s="1">
+      <c r="Z469" s="2">
         <f t="shared" si="84"/>
         <v>-2.3600000000000065E-2</v>
       </c>
@@ -20300,14 +20310,14 @@
       <c r="M470" s="1">
         <v>25</v>
       </c>
-      <c r="R470" s="1">
+      <c r="R470" s="2">
         <f t="shared" si="83"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S470" s="1">
         <v>3.63</v>
       </c>
-      <c r="Z470" s="1">
+      <c r="Z470" s="2">
         <f t="shared" si="84"/>
         <v>-4.2599999999999971E-2</v>
       </c>
@@ -20340,14 +20350,14 @@
       <c r="M471" s="1">
         <v>25</v>
       </c>
-      <c r="R471" s="1">
+      <c r="R471" s="2">
         <f t="shared" si="83"/>
         <v>0.25</v>
       </c>
       <c r="S471" s="1">
         <v>3.68</v>
       </c>
-      <c r="Z471" s="1">
+      <c r="Z471" s="2">
         <f t="shared" si="84"/>
         <v>-3.8200000000000012E-2</v>
       </c>
@@ -20380,14 +20390,14 @@
       <c r="M472" s="1">
         <v>25</v>
       </c>
-      <c r="R472" s="1">
+      <c r="R472" s="2">
         <f t="shared" si="83"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S472" s="1">
         <v>3.63</v>
       </c>
-      <c r="Z472" s="1">
+      <c r="Z472" s="2">
         <f t="shared" si="84"/>
         <v>-1.2299999999999978E-2</v>
       </c>
@@ -20420,14 +20430,14 @@
       <c r="M473" s="1">
         <v>30</v>
       </c>
-      <c r="R473" s="1">
+      <c r="R473" s="2">
         <f>S473-3.74</f>
         <v>0.19999999999999973</v>
       </c>
       <c r="S473" s="1">
         <v>3.94</v>
       </c>
-      <c r="Z473" s="4">
+      <c r="Z473" s="2">
         <f>AA473-0.7368</f>
         <v>-3.4400000000000097E-2</v>
       </c>
@@ -20460,14 +20470,14 @@
       <c r="M474" s="1">
         <v>30</v>
       </c>
-      <c r="R474" s="1">
+      <c r="R474" s="2">
         <f t="shared" ref="R474:R488" si="85">S474-3.74</f>
         <v>-0.27</v>
       </c>
       <c r="S474" s="1">
         <v>3.47</v>
       </c>
-      <c r="Z474" s="4">
+      <c r="Z474" s="2">
         <f>AA474-0.7368</f>
         <v>-5.2900000000000058E-2</v>
       </c>
@@ -20500,14 +20510,14 @@
       <c r="M475" s="1">
         <v>30</v>
       </c>
-      <c r="R475" s="1">
+      <c r="R475" s="2">
         <f t="shared" si="85"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S475" s="1">
         <v>3.89</v>
       </c>
-      <c r="Z475" s="4">
+      <c r="Z475" s="2">
         <f t="shared" ref="Z475:Z488" si="86">AA475-0.7368</f>
         <v>4.4999999999999485E-3</v>
       </c>
@@ -20540,14 +20550,14 @@
       <c r="M476" s="1">
         <v>30</v>
       </c>
-      <c r="R476" s="1">
+      <c r="R476" s="2">
         <f t="shared" si="85"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S476" s="1">
         <v>3.89</v>
       </c>
-      <c r="Z476" s="4">
+      <c r="Z476" s="2">
         <f t="shared" si="86"/>
         <v>-1.0800000000000032E-2</v>
       </c>
@@ -20580,14 +20590,14 @@
       <c r="M477" s="1">
         <v>30</v>
       </c>
-      <c r="R477" s="1">
+      <c r="R477" s="2">
         <f t="shared" si="85"/>
         <v>0.17999999999999972</v>
       </c>
       <c r="S477" s="1">
         <v>3.92</v>
       </c>
-      <c r="Z477" s="4">
+      <c r="Z477" s="2">
         <f t="shared" si="86"/>
         <v>-2.4000000000000021E-2</v>
       </c>
@@ -20620,14 +20630,14 @@
       <c r="M478" s="1">
         <v>30</v>
       </c>
-      <c r="R478" s="1">
+      <c r="R478" s="2">
         <f t="shared" si="85"/>
         <v>9.9999999999999645E-2</v>
       </c>
       <c r="S478" s="1">
         <v>3.84</v>
       </c>
-      <c r="Z478" s="4">
+      <c r="Z478" s="2">
         <f t="shared" si="86"/>
         <v>-2.9999999999996696E-4</v>
       </c>
@@ -20660,14 +20670,14 @@
       <c r="M479" s="1">
         <v>30</v>
       </c>
-      <c r="R479" s="1">
+      <c r="R479" s="2">
         <f t="shared" si="85"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S479" s="1">
         <v>3.94</v>
       </c>
-      <c r="Z479" s="4">
+      <c r="Z479" s="2">
         <f t="shared" si="86"/>
         <v>-2.1199999999999997E-2</v>
       </c>
@@ -20700,14 +20710,14 @@
       <c r="M480" s="1">
         <v>30</v>
       </c>
-      <c r="R480" s="1">
+      <c r="R480" s="2">
         <f t="shared" si="85"/>
         <v>0.13999999999999968</v>
       </c>
       <c r="S480" s="1">
         <v>3.88</v>
       </c>
-      <c r="Z480" s="4">
+      <c r="Z480" s="2">
         <f t="shared" si="86"/>
         <v>-6.0000000000000053E-3</v>
       </c>
@@ -20740,14 +20750,14 @@
       <c r="M481" s="1">
         <v>30</v>
       </c>
-      <c r="R481" s="1">
+      <c r="R481" s="2">
         <f t="shared" si="85"/>
         <v>0.13999999999999968</v>
       </c>
       <c r="S481" s="1">
         <v>3.88</v>
       </c>
-      <c r="Z481" s="4">
+      <c r="Z481" s="2">
         <f t="shared" si="86"/>
         <v>-4.3200000000000016E-2</v>
       </c>
@@ -20780,14 +20790,14 @@
       <c r="M482" s="1">
         <v>30</v>
       </c>
-      <c r="R482" s="1">
+      <c r="R482" s="2">
         <f t="shared" si="85"/>
         <v>0.13999999999999968</v>
       </c>
       <c r="S482" s="1">
         <v>3.88</v>
       </c>
-      <c r="Z482" s="4">
+      <c r="Z482" s="2">
         <f t="shared" si="86"/>
         <v>-4.2799999999999949E-2</v>
       </c>
@@ -20820,14 +20830,14 @@
       <c r="M483" s="1">
         <v>30</v>
       </c>
-      <c r="R483" s="1">
+      <c r="R483" s="2">
         <f t="shared" si="85"/>
         <v>0.1599999999999997</v>
       </c>
       <c r="S483" s="1">
         <v>3.9</v>
       </c>
-      <c r="Z483" s="4">
+      <c r="Z483" s="2">
         <f t="shared" si="86"/>
         <v>-2.4499999999999966E-2</v>
       </c>
@@ -20860,14 +20870,14 @@
       <c r="M484" s="1">
         <v>30</v>
       </c>
-      <c r="R484" s="1">
+      <c r="R484" s="2">
         <f t="shared" si="85"/>
         <v>0.11999999999999966</v>
       </c>
       <c r="S484" s="1">
         <v>3.86</v>
       </c>
-      <c r="Z484" s="4">
+      <c r="Z484" s="2">
         <f t="shared" si="86"/>
         <v>-5.9000000000000163E-3</v>
       </c>
@@ -20900,14 +20910,14 @@
       <c r="M485" s="1">
         <v>30</v>
       </c>
-      <c r="R485" s="1">
+      <c r="R485" s="2">
         <f t="shared" si="85"/>
         <v>0.16999999999999993</v>
       </c>
       <c r="S485" s="1">
         <v>3.91</v>
       </c>
-      <c r="Z485" s="4">
+      <c r="Z485" s="2">
         <f t="shared" si="86"/>
         <v>-1.9499999999999962E-2</v>
       </c>
@@ -20940,14 +20950,14 @@
       <c r="M486" s="1">
         <v>30</v>
       </c>
-      <c r="R486" s="1">
+      <c r="R486" s="2">
         <f t="shared" si="85"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S486" s="1">
         <v>3.89</v>
       </c>
-      <c r="Z486" s="4">
+      <c r="Z486" s="2">
         <f t="shared" si="86"/>
         <v>-3.4700000000000064E-2</v>
       </c>
@@ -20980,14 +20990,14 @@
       <c r="M487" s="1">
         <v>30</v>
       </c>
-      <c r="R487" s="1">
+      <c r="R487" s="2">
         <f t="shared" si="85"/>
         <v>0.19999999999999973</v>
       </c>
       <c r="S487" s="1">
         <v>3.94</v>
       </c>
-      <c r="Z487" s="4">
+      <c r="Z487" s="2">
         <f t="shared" si="86"/>
         <v>-2.9900000000000038E-2</v>
       </c>
@@ -21020,14 +21030,14 @@
       <c r="M488" s="1">
         <v>30</v>
       </c>
-      <c r="R488" s="1">
+      <c r="R488" s="2">
         <f t="shared" si="85"/>
         <v>0.14999999999999991</v>
       </c>
       <c r="S488" s="1">
         <v>3.89</v>
       </c>
-      <c r="Z488" s="4">
+      <c r="Z488" s="2">
         <f t="shared" si="86"/>
         <v>-3.7000000000000366E-3</v>
       </c>
@@ -21060,14 +21070,14 @@
       <c r="M489" s="1">
         <v>0</v>
       </c>
-      <c r="R489" s="1">
+      <c r="R489" s="2">
         <f>S489-1.29</f>
         <v>9.9999999999999867E-2</v>
       </c>
       <c r="S489" s="1">
         <v>1.39</v>
       </c>
-      <c r="T489" s="1">
+      <c r="T489" s="2">
         <f>U489-1.7</f>
         <v>0.40000000000000013</v>
       </c>
@@ -21100,7 +21110,7 @@
       <c r="M490" s="1">
         <v>5</v>
       </c>
-      <c r="R490" s="1">
+      <c r="R490" s="2">
         <f>S490-1.37</f>
         <v>0.22999999999999998</v>
       </c>
@@ -21133,7 +21143,7 @@
       <c r="M491" s="1">
         <v>10</v>
       </c>
-      <c r="R491" s="1">
+      <c r="R491" s="2">
         <f>S491-1.58</f>
         <v>0.25</v>
       </c>
@@ -21166,14 +21176,14 @@
       <c r="M492" s="1">
         <v>0</v>
       </c>
-      <c r="R492" s="1">
+      <c r="R492" s="2">
         <f>S492-1.29</f>
         <v>0.16999999999999993</v>
       </c>
       <c r="S492" s="1">
         <v>1.46</v>
       </c>
-      <c r="T492" s="1">
+      <c r="T492" s="2">
         <f>U492-1.8</f>
         <v>0.59999999999999987</v>
       </c>
@@ -21206,7 +21216,7 @@
       <c r="M493" s="1">
         <v>5</v>
       </c>
-      <c r="R493" s="1">
+      <c r="R493" s="2">
         <f>S493-1.44</f>
         <v>0.22999999999999998</v>
       </c>
@@ -21239,7 +21249,7 @@
       <c r="M494" s="1">
         <v>10</v>
       </c>
-      <c r="R494" s="1">
+      <c r="R494" s="2">
         <f>S494-1.67</f>
         <v>0.24</v>
       </c>
@@ -21272,14 +21282,14 @@
       <c r="M495" s="1">
         <v>0</v>
       </c>
-      <c r="R495" s="1">
+      <c r="R495" s="2">
         <f>S495-1.29</f>
         <v>0.14999999999999991</v>
       </c>
       <c r="S495" s="1">
         <v>1.44</v>
       </c>
-      <c r="T495" s="1">
+      <c r="T495" s="2">
         <f>U495-1.7</f>
         <v>0.8</v>
       </c>
@@ -21312,7 +21322,7 @@
       <c r="M496" s="1">
         <v>5</v>
       </c>
-      <c r="R496" s="1">
+      <c r="R496" s="2">
         <f>S496-1.37</f>
         <v>0.32999999999999985</v>
       </c>
@@ -21345,7 +21355,7 @@
       <c r="M497" s="1">
         <v>10</v>
       </c>
-      <c r="R497" s="1">
+      <c r="R497" s="2">
         <f>S497-1.58</f>
         <v>0.36999999999999988</v>
       </c>
@@ -21378,14 +21388,14 @@
       <c r="M498" s="1">
         <v>0</v>
       </c>
-      <c r="R498" s="1">
+      <c r="R498" s="2">
         <f>S498-1.29</f>
         <v>0.24</v>
       </c>
       <c r="S498" s="1">
         <v>1.53</v>
       </c>
-      <c r="T498" s="1">
+      <c r="T498" s="2">
         <f>U498-1.8</f>
         <v>0.99999999999999978</v>
       </c>
@@ -21418,7 +21428,7 @@
       <c r="M499" s="1">
         <v>5</v>
       </c>
-      <c r="R499" s="1">
+      <c r="R499" s="2">
         <f>S499-1.44</f>
         <v>0.34000000000000008</v>
       </c>
@@ -21451,7 +21461,7 @@
       <c r="M500" s="1">
         <v>10</v>
       </c>
-      <c r="R500" s="1">
+      <c r="R500" s="2">
         <f>S500-1.67</f>
         <v>0.35999999999999988</v>
       </c>
@@ -21484,14 +21494,14 @@
       <c r="M501" s="1">
         <v>0</v>
       </c>
-      <c r="R501" s="1">
+      <c r="R501" s="2">
         <f>S501-1.29</f>
         <v>0.17999999999999994</v>
       </c>
       <c r="S501" s="1">
         <v>1.47</v>
       </c>
-      <c r="T501" s="1">
+      <c r="T501" s="2">
         <f>U501-1.7</f>
         <v>1.0000000000000002</v>
       </c>
@@ -21524,7 +21534,7 @@
       <c r="M502" s="1">
         <v>5</v>
       </c>
-      <c r="R502" s="1">
+      <c r="R502" s="2">
         <f>S502-1.37</f>
         <v>0.34999999999999987</v>
       </c>
@@ -21557,7 +21567,7 @@
       <c r="M503" s="1">
         <v>10</v>
       </c>
-      <c r="R503" s="1">
+      <c r="R503" s="2">
         <f>S503-1.58</f>
         <v>0.37999999999999989</v>
       </c>
@@ -21590,14 +21600,14 @@
       <c r="M504" s="1">
         <v>0</v>
       </c>
-      <c r="R504" s="1">
+      <c r="R504" s="2">
         <f>S504-1.29</f>
         <v>0.28000000000000003</v>
       </c>
       <c r="S504" s="1">
         <v>1.57</v>
       </c>
-      <c r="T504" s="1">
+      <c r="T504" s="2">
         <f>U504-1.8</f>
         <v>0.7</v>
       </c>
@@ -21630,7 +21640,7 @@
       <c r="M505" s="1">
         <v>5</v>
       </c>
-      <c r="R505" s="1">
+      <c r="R505" s="2">
         <f>S505-1.44</f>
         <v>0.37000000000000011</v>
       </c>
@@ -21663,7 +21673,7 @@
       <c r="M506" s="1">
         <v>10</v>
       </c>
-      <c r="R506" s="1">
+      <c r="R506" s="2">
         <f>S506-1.67</f>
         <v>0.35999999999999988</v>
       </c>
@@ -21672,11 +21682,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75000000000000011" right="0.75000000000000011" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" scale="43" fitToHeight="12" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
     </ext>
   </extLst>
 </worksheet>
